--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/Bypakke Vestfoldbyene/Buss CSV_text/Vestfold/Brukes2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4059BDB-6592-4E04-91CB-8C7227C62B3C}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F505708D-11C3-4BDC-AE33-1BC9538EB465}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="112">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -357,6 +357,21 @@
   </si>
   <si>
     <t>Lillesand</t>
+  </si>
+  <si>
+    <t>Benalmadena</t>
+  </si>
+  <si>
+    <t>Rijssen</t>
+  </si>
+  <si>
+    <t>Notodden</t>
+  </si>
+  <si>
+    <t>Heino</t>
+  </si>
+  <si>
+    <t>Rønsberg</t>
   </si>
 </sst>
 </file>
@@ -779,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:H1471"/>
+  <dimension ref="A1:H1470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="C515" sqref="C515"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="A520" sqref="A520:XFD520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -14243,535 +14258,1526 @@
       </c>
     </row>
     <row r="520" spans="1:8" ht="15" thickBot="1">
-      <c r="A520" s="1"/>
-      <c r="C520" s="1"/>
-      <c r="D520" s="1"/>
-      <c r="E520" s="1"/>
-      <c r="F520" s="1"/>
-      <c r="G520" s="1"/>
-      <c r="H520" s="1"/>
+      <c r="A520" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C520" s="2">
+        <v>8612334</v>
+      </c>
+      <c r="D520" s="2">
+        <v>4093625</v>
+      </c>
+      <c r="E520" s="5">
+        <v>45515.416666666664</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G520" s="2">
+        <v>40</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="521" spans="1:8" ht="15" thickBot="1">
-      <c r="A521" s="1"/>
-      <c r="C521" s="1"/>
-      <c r="D521" s="1"/>
-      <c r="E521" s="1"/>
-      <c r="F521" s="1"/>
-      <c r="G521" s="1"/>
-      <c r="H521" s="1"/>
+      <c r="A521" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C521" s="2">
+        <v>8630672</v>
+      </c>
+      <c r="D521" s="2">
+        <v>6227119</v>
+      </c>
+      <c r="E521" s="5">
+        <v>45520.416666666664</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G521" s="2">
+        <v>33</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="522" spans="1:8" ht="15" thickBot="1">
-      <c r="A522" s="1"/>
-      <c r="C522" s="1"/>
-      <c r="D522" s="1"/>
-      <c r="E522" s="1"/>
-      <c r="F522" s="1"/>
-      <c r="G522" s="1"/>
-      <c r="H522" s="1"/>
+      <c r="A522" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C522" s="2">
+        <v>8640978</v>
+      </c>
+      <c r="D522" s="2">
+        <v>6236605</v>
+      </c>
+      <c r="E522" s="5">
+        <v>45523.416666666664</v>
+      </c>
+      <c r="F522" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G522" s="2">
+        <v>59</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="523" spans="1:8" ht="15" thickBot="1">
-      <c r="A523" s="1"/>
-      <c r="C523" s="1"/>
-      <c r="D523" s="1"/>
-      <c r="E523" s="1"/>
-      <c r="F523" s="1"/>
-      <c r="G523" s="1"/>
-      <c r="H523" s="1"/>
+      <c r="A523" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C523" s="2">
+        <v>8663165</v>
+      </c>
+      <c r="D523" s="2">
+        <v>5524636</v>
+      </c>
+      <c r="E523" s="5">
+        <v>45530.416666666664</v>
+      </c>
+      <c r="F523" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G523" s="2">
+        <v>23</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="524" spans="1:8" ht="15" thickBot="1">
-      <c r="A524" s="1"/>
-      <c r="C524" s="1"/>
-      <c r="D524" s="1"/>
-      <c r="E524" s="1"/>
-      <c r="F524" s="1"/>
-      <c r="G524" s="1"/>
-      <c r="H524" s="1"/>
+      <c r="A524" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C524" s="2">
+        <v>8616396</v>
+      </c>
+      <c r="D524" s="2">
+        <v>5202107</v>
+      </c>
+      <c r="E524" s="5">
+        <v>45512.916666666664</v>
+      </c>
+      <c r="F524" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G524" s="2">
+        <v>50</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="525" spans="1:8" ht="15" thickBot="1">
-      <c r="A525" s="1"/>
-      <c r="C525" s="1"/>
-      <c r="D525" s="1"/>
-      <c r="E525" s="1"/>
-      <c r="F525" s="1"/>
-      <c r="G525" s="1"/>
-      <c r="H525" s="1"/>
+      <c r="A525" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C525" s="2">
+        <v>8582969</v>
+      </c>
+      <c r="D525" s="2">
+        <v>5246113</v>
+      </c>
+      <c r="E525" s="5">
+        <v>45515.416666666664</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G525" s="2">
+        <v>23</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="526" spans="1:8" ht="15" thickBot="1">
-      <c r="A526" s="1"/>
-      <c r="C526" s="1"/>
-      <c r="D526" s="1"/>
-      <c r="E526" s="1"/>
-      <c r="F526" s="1"/>
-      <c r="G526" s="1"/>
-      <c r="H526" s="1"/>
+      <c r="A526" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C526" s="2">
+        <v>8629857</v>
+      </c>
+      <c r="D526" s="2">
+        <v>6029913</v>
+      </c>
+      <c r="E526" s="5">
+        <v>45516.916666666664</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" s="2">
+        <v>33</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="527" spans="1:8" ht="15" thickBot="1">
-      <c r="A527" s="1"/>
-      <c r="C527" s="1"/>
-      <c r="D527" s="1"/>
-      <c r="E527" s="1"/>
-      <c r="F527" s="1"/>
-      <c r="G527" s="1"/>
-      <c r="H527" s="1"/>
+      <c r="A527" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C527" s="2">
+        <v>8599282</v>
+      </c>
+      <c r="D527" s="2">
+        <v>6029913</v>
+      </c>
+      <c r="E527" s="5">
+        <v>45506.916666666664</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G527" s="2">
+        <v>33</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="528" spans="1:8" ht="15" thickBot="1">
-      <c r="A528" s="1"/>
-      <c r="C528" s="1"/>
-      <c r="D528" s="1"/>
-      <c r="E528" s="1"/>
-      <c r="F528" s="1"/>
-      <c r="G528" s="1"/>
-      <c r="H528" s="1"/>
+      <c r="A528" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C528" s="2">
+        <v>8666892</v>
+      </c>
+      <c r="D528" s="2">
+        <v>4288772</v>
+      </c>
+      <c r="E528" s="5">
+        <v>45531.916666666664</v>
+      </c>
+      <c r="F528" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G528" s="2">
+        <v>46</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="529" spans="1:8" ht="15" thickBot="1">
-      <c r="A529" s="1"/>
-      <c r="C529" s="1"/>
-      <c r="D529" s="1"/>
-      <c r="E529" s="1"/>
-      <c r="F529" s="1"/>
-      <c r="G529" s="1"/>
-      <c r="H529" s="1"/>
+      <c r="A529" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C529" s="2">
+        <v>8626161</v>
+      </c>
+      <c r="D529" s="2">
+        <v>4906289</v>
+      </c>
+      <c r="E529" s="5">
+        <v>45515.916666666664</v>
+      </c>
+      <c r="F529" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G529" s="2">
+        <v>46</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="530" spans="1:8" ht="15" thickBot="1">
-      <c r="A530" s="1"/>
-      <c r="C530" s="1"/>
-      <c r="D530" s="1"/>
-      <c r="E530" s="1"/>
-      <c r="F530" s="1"/>
-      <c r="G530" s="1"/>
-      <c r="H530" s="1"/>
+      <c r="A530" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C530" s="2">
+        <v>8573449</v>
+      </c>
+      <c r="D530" s="2">
+        <v>6159133</v>
+      </c>
+      <c r="E530" s="5">
+        <v>45505.416666666664</v>
+      </c>
+      <c r="F530" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G530" s="2">
+        <v>63</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="531" spans="1:8" ht="15" thickBot="1">
-      <c r="A531" s="1"/>
-      <c r="C531" s="1"/>
-      <c r="D531" s="1"/>
-      <c r="E531" s="1"/>
-      <c r="F531" s="1"/>
-      <c r="G531" s="1"/>
-      <c r="H531" s="1"/>
+      <c r="A531" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C531" s="2">
+        <v>8659009</v>
+      </c>
+      <c r="D531" s="2">
+        <v>5022621</v>
+      </c>
+      <c r="E531" s="5">
+        <v>45528.916666666664</v>
+      </c>
+      <c r="F531" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G531" s="2">
+        <v>49</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="532" spans="1:8" ht="15" thickBot="1">
-      <c r="A532" s="1"/>
-      <c r="C532" s="1"/>
-      <c r="D532" s="1"/>
-      <c r="E532" s="1"/>
-      <c r="F532" s="1"/>
-      <c r="G532" s="1"/>
-      <c r="H532" s="1"/>
+      <c r="A532" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C532" s="2">
+        <v>8616453</v>
+      </c>
+      <c r="D532" s="2">
+        <v>6208438</v>
+      </c>
+      <c r="E532" s="5">
+        <v>45511.916666666664</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G532" s="2">
+        <v>42</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="533" spans="1:8" ht="15" thickBot="1">
-      <c r="A533" s="1"/>
-      <c r="C533" s="1"/>
-      <c r="D533" s="1"/>
-      <c r="E533" s="1"/>
-      <c r="F533" s="1"/>
-      <c r="G533" s="1"/>
-      <c r="H533" s="1"/>
+      <c r="A533" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C533" s="2">
+        <v>8619456</v>
+      </c>
+      <c r="D533" s="2">
+        <v>6213121</v>
+      </c>
+      <c r="E533" s="5">
+        <v>45512.916666666664</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G533" s="2">
+        <v>28</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="534" spans="1:8" ht="15" thickBot="1">
-      <c r="A534" s="1"/>
-      <c r="C534" s="1"/>
-      <c r="D534" s="1"/>
-      <c r="E534" s="1"/>
-      <c r="F534" s="1"/>
-      <c r="G534" s="1"/>
-      <c r="H534" s="1"/>
+      <c r="A534" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C534" s="2">
+        <v>8622597</v>
+      </c>
+      <c r="D534" s="2">
+        <v>6216007</v>
+      </c>
+      <c r="E534" s="5">
+        <v>45513.916666666664</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G534" s="2">
+        <v>24</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="535" spans="1:8" ht="15" thickBot="1">
-      <c r="A535" s="1"/>
-      <c r="C535" s="1"/>
-      <c r="D535" s="1"/>
-      <c r="E535" s="1"/>
-      <c r="F535" s="1"/>
-      <c r="G535" s="1"/>
-      <c r="H535" s="1"/>
+      <c r="A535" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C535" s="2">
+        <v>8623465</v>
+      </c>
+      <c r="D535" s="2">
+        <v>6218104</v>
+      </c>
+      <c r="E535" s="5">
+        <v>45515.416666666664</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G535" s="2">
+        <v>31</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="536" spans="1:8" ht="15" thickBot="1">
-      <c r="A536" s="1"/>
-      <c r="C536" s="1"/>
-      <c r="D536" s="1"/>
-      <c r="E536" s="1"/>
-      <c r="F536" s="1"/>
-      <c r="G536" s="1"/>
-      <c r="H536" s="1"/>
+      <c r="A536" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C536" s="2">
+        <v>8541487</v>
+      </c>
+      <c r="D536" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E536" s="5">
+        <v>45519.916666666664</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G536" s="2">
+        <v>35</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="537" spans="1:8" ht="15" thickBot="1">
-      <c r="A537" s="1"/>
-      <c r="C537" s="1"/>
-      <c r="D537" s="1"/>
-      <c r="E537" s="1"/>
-      <c r="F537" s="1"/>
-      <c r="G537" s="1"/>
-      <c r="H537" s="1"/>
+      <c r="A537" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C537" s="2">
+        <v>8671047</v>
+      </c>
+      <c r="D537" s="2">
+        <v>4045061</v>
+      </c>
+      <c r="E537" s="5">
+        <v>45534.416666666664</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G537" s="2">
+        <v>61</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="538" spans="1:8" ht="15" thickBot="1">
-      <c r="A538" s="1"/>
-      <c r="C538" s="1"/>
-      <c r="D538" s="1"/>
-      <c r="E538" s="1"/>
-      <c r="F538" s="1"/>
-      <c r="G538" s="1"/>
-      <c r="H538" s="1"/>
+      <c r="A538" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C538" s="2">
+        <v>8650021</v>
+      </c>
+      <c r="D538" s="2">
+        <v>5086185</v>
+      </c>
+      <c r="E538" s="5">
+        <v>45526.916666666664</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G538" s="2">
+        <v>70</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="539" spans="1:8" ht="15" thickBot="1">
-      <c r="A539" s="1"/>
-      <c r="C539" s="1"/>
-      <c r="D539" s="1"/>
-      <c r="E539" s="1"/>
-      <c r="F539" s="1"/>
-      <c r="G539" s="1"/>
-      <c r="H539" s="1"/>
+      <c r="A539" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C539" s="2">
+        <v>8619107</v>
+      </c>
+      <c r="D539" s="2">
+        <v>5811564</v>
+      </c>
+      <c r="E539" s="5">
+        <v>45513.416666666664</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G539" s="2">
+        <v>50</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="540" spans="1:8" ht="15" thickBot="1">
-      <c r="A540" s="1"/>
-      <c r="C540" s="1"/>
-      <c r="D540" s="1"/>
-      <c r="E540" s="1"/>
-      <c r="F540" s="1"/>
-      <c r="G540" s="1"/>
-      <c r="H540" s="1"/>
+      <c r="A540" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C540" s="2">
+        <v>8673031</v>
+      </c>
+      <c r="D540" s="2">
+        <v>5811564</v>
+      </c>
+      <c r="E540" s="5">
+        <v>45534.416666666664</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G540" s="2">
+        <v>50</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="541" spans="1:8" ht="15" thickBot="1">
-      <c r="A541" s="1"/>
-      <c r="C541" s="1"/>
-      <c r="D541" s="1"/>
-      <c r="E541" s="1"/>
-      <c r="F541" s="1"/>
-      <c r="G541" s="1"/>
-      <c r="H541" s="1"/>
+      <c r="A541" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C541" s="2">
+        <v>8608815</v>
+      </c>
+      <c r="D541" s="2">
+        <v>4152877</v>
+      </c>
+      <c r="E541" s="5">
+        <v>45509.416666666664</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" s="2">
+        <v>56</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="542" spans="1:8" ht="15" thickBot="1">
-      <c r="A542" s="1"/>
-      <c r="C542" s="1"/>
-      <c r="D542" s="1"/>
-      <c r="E542" s="1"/>
-      <c r="F542" s="1"/>
-      <c r="G542" s="1"/>
-      <c r="H542" s="1"/>
+      <c r="A542" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C542" s="2">
+        <v>8598701</v>
+      </c>
+      <c r="D542" s="2">
+        <v>4183804</v>
+      </c>
+      <c r="E542" s="5">
+        <v>45505.416666666664</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G542" s="2">
+        <v>30</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="543" spans="1:8" ht="15" thickBot="1">
-      <c r="A543" s="1"/>
-      <c r="C543" s="1"/>
-      <c r="D543" s="1"/>
-      <c r="E543" s="1"/>
-      <c r="F543" s="1"/>
-      <c r="G543" s="1"/>
-      <c r="H543" s="1"/>
+      <c r="A543" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C543" s="2">
+        <v>8607677</v>
+      </c>
+      <c r="D543" s="2">
+        <v>4191686</v>
+      </c>
+      <c r="E543" s="5">
+        <v>45510.916666666664</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G543" s="2">
+        <v>55</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="544" spans="1:8" ht="15" thickBot="1">
-      <c r="A544" s="1"/>
-      <c r="C544" s="1"/>
-      <c r="D544" s="1"/>
-      <c r="E544" s="1"/>
-      <c r="F544" s="1"/>
-      <c r="G544" s="1"/>
-      <c r="H544" s="1"/>
+      <c r="A544" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C544" s="2">
+        <v>8618952</v>
+      </c>
+      <c r="D544" s="2">
+        <v>4197105</v>
+      </c>
+      <c r="E544" s="5">
+        <v>45512.916666666664</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G544" s="2">
+        <v>57</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="545" spans="1:8" ht="15" thickBot="1">
-      <c r="A545" s="1"/>
-      <c r="C545" s="1"/>
-      <c r="D545" s="1"/>
-      <c r="E545" s="1"/>
-      <c r="F545" s="1"/>
-      <c r="G545" s="1"/>
-      <c r="H545" s="1"/>
+      <c r="A545" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C545" s="2">
+        <v>8630104</v>
+      </c>
+      <c r="D545" s="2">
+        <v>5833630</v>
+      </c>
+      <c r="E545" s="5">
+        <v>45520.416666666664</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G545" s="2">
+        <v>36</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="546" spans="1:8" ht="15" thickBot="1">
-      <c r="A546" s="1"/>
-      <c r="C546" s="1"/>
-      <c r="D546" s="1"/>
-      <c r="E546" s="1"/>
-      <c r="F546" s="1"/>
-      <c r="G546" s="1"/>
-      <c r="H546" s="1"/>
+      <c r="A546" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C546" s="2">
+        <v>8590365</v>
+      </c>
+      <c r="D546" s="2">
+        <v>5343339</v>
+      </c>
+      <c r="E546" s="5">
+        <v>45505.416666666664</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G546" s="2">
+        <v>46</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="547" spans="1:8" ht="15" thickBot="1">
-      <c r="A547" s="1"/>
-      <c r="C547" s="1"/>
-      <c r="D547" s="1"/>
-      <c r="E547" s="1"/>
-      <c r="F547" s="1"/>
-      <c r="G547" s="1"/>
-      <c r="H547" s="1"/>
+      <c r="A547" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C547" s="2">
+        <v>8647732</v>
+      </c>
+      <c r="D547" s="2">
+        <v>6006183</v>
+      </c>
+      <c r="E547" s="5">
+        <v>45529.416666666664</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" s="2">
+        <v>50</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="548" spans="1:8" ht="15" thickBot="1">
-      <c r="A548" s="1"/>
-      <c r="C548" s="1"/>
-      <c r="D548" s="1"/>
-      <c r="E548" s="1"/>
-      <c r="F548" s="1"/>
-      <c r="G548" s="1"/>
-      <c r="H548" s="1"/>
+      <c r="A548" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C548" s="2">
+        <v>8648019</v>
+      </c>
+      <c r="D548" s="2">
+        <v>4670790</v>
+      </c>
+      <c r="E548" s="5">
+        <v>45524.416666666664</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G548" s="2">
+        <v>35</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="549" spans="1:8" ht="15" thickBot="1">
-      <c r="A549" s="1"/>
-      <c r="C549" s="1"/>
-      <c r="D549" s="1"/>
-      <c r="E549" s="1"/>
-      <c r="F549" s="1"/>
-      <c r="G549" s="1"/>
-      <c r="H549" s="1"/>
+      <c r="A549" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C549" s="2">
+        <v>8638202</v>
+      </c>
+      <c r="D549" s="2">
+        <v>4670790</v>
+      </c>
+      <c r="E549" s="5">
+        <v>45520.416666666664</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G549" s="2">
+        <v>35</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="550" spans="1:8" ht="15" thickBot="1">
-      <c r="A550" s="1"/>
-      <c r="C550" s="1"/>
-      <c r="D550" s="1"/>
-      <c r="E550" s="1"/>
-      <c r="F550" s="1"/>
-      <c r="G550" s="1"/>
-      <c r="H550" s="1"/>
+      <c r="A550" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C550" s="2">
+        <v>8641469</v>
+      </c>
+      <c r="D550" s="2">
+        <v>4679208</v>
+      </c>
+      <c r="E550" s="5">
+        <v>45521.416666666664</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G550" s="2">
+        <v>22</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="551" spans="1:8" ht="15" thickBot="1">
-      <c r="A551" s="1"/>
-      <c r="C551" s="1"/>
-      <c r="D551" s="1"/>
-      <c r="E551" s="1"/>
-      <c r="F551" s="1"/>
-      <c r="G551" s="1"/>
-      <c r="H551" s="1"/>
+      <c r="A551" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C551" s="2">
+        <v>8661525</v>
+      </c>
+      <c r="D551" s="2">
+        <v>5317029</v>
+      </c>
+      <c r="E551" s="5">
+        <v>45533.916666666664</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="2">
+        <v>30</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="552" spans="1:8" ht="15" thickBot="1">
-      <c r="A552" s="1"/>
-      <c r="C552" s="1"/>
-      <c r="D552" s="1"/>
-      <c r="E552" s="1"/>
-      <c r="F552" s="1"/>
-      <c r="G552" s="1"/>
-      <c r="H552" s="1"/>
+      <c r="A552" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C552" s="2">
+        <v>8610857</v>
+      </c>
+      <c r="D552" s="2">
+        <v>5335105</v>
+      </c>
+      <c r="E552" s="5">
+        <v>45510.416666666664</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G552" s="2">
+        <v>60</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="553" spans="1:8" ht="15" thickBot="1">
-      <c r="A553" s="1"/>
-      <c r="C553" s="1"/>
-      <c r="D553" s="1"/>
-      <c r="E553" s="1"/>
-      <c r="F553" s="1"/>
+      <c r="A553" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C553" s="2">
+        <v>8620173</v>
+      </c>
+      <c r="D553" s="2">
+        <v>4276790</v>
+      </c>
+      <c r="E553" s="5">
+        <v>45513.416666666664</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
     </row>
     <row r="554" spans="1:8" ht="15" thickBot="1">
-      <c r="A554" s="1"/>
-      <c r="C554" s="1"/>
-      <c r="D554" s="1"/>
-      <c r="E554" s="1"/>
-      <c r="F554" s="1"/>
+      <c r="A554" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C554" s="2">
+        <v>8645158</v>
+      </c>
+      <c r="D554" s="2">
+        <v>6245232</v>
+      </c>
+      <c r="E554" s="5">
+        <v>45523.416666666664</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
     </row>
     <row r="555" spans="1:8" ht="15" thickBot="1">
-      <c r="A555" s="1"/>
-      <c r="C555" s="1"/>
-      <c r="D555" s="1"/>
-      <c r="E555" s="1"/>
-      <c r="F555" s="1"/>
-      <c r="G555" s="1"/>
-      <c r="H555" s="1"/>
+      <c r="A555" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C555" s="2">
+        <v>8603089</v>
+      </c>
+      <c r="D555" s="2">
+        <v>6193205</v>
+      </c>
+      <c r="E555" s="5">
+        <v>45506.916666666664</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G555" s="2">
+        <v>51</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="556" spans="1:8" ht="15" thickBot="1">
-      <c r="A556" s="1"/>
-      <c r="C556" s="1"/>
-      <c r="D556" s="1"/>
-      <c r="E556" s="1"/>
-      <c r="F556" s="1"/>
-      <c r="G556" s="1"/>
-      <c r="H556" s="1"/>
+      <c r="A556" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C556" s="2">
+        <v>8606988</v>
+      </c>
+      <c r="D556" s="2">
+        <v>6197950</v>
+      </c>
+      <c r="E556" s="5">
+        <v>45508.416666666664</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G556" s="2">
+        <v>25</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="557" spans="1:8" ht="15" thickBot="1">
-      <c r="A557" s="1"/>
-      <c r="C557" s="1"/>
-      <c r="D557" s="1"/>
-      <c r="E557" s="1"/>
-      <c r="F557" s="1"/>
-      <c r="G557" s="1"/>
-      <c r="H557" s="1"/>
+      <c r="A557" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C557" s="2">
+        <v>8670049</v>
+      </c>
+      <c r="D557" s="2">
+        <v>6200540</v>
+      </c>
+      <c r="E557" s="5">
+        <v>45532.916666666664</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G557" s="2">
+        <v>51</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="558" spans="1:8" ht="15" thickBot="1">
-      <c r="A558" s="1"/>
-      <c r="C558" s="1"/>
-      <c r="D558" s="1"/>
-      <c r="E558" s="1"/>
-      <c r="F558" s="1"/>
-      <c r="G558" s="1"/>
-      <c r="H558" s="1"/>
+      <c r="A558" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C558" s="2">
+        <v>8611234</v>
+      </c>
+      <c r="D558" s="2">
+        <v>5406620</v>
+      </c>
+      <c r="E558" s="5">
+        <v>45511.916666666664</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" s="2">
+        <v>30</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="559" spans="1:8" ht="15" thickBot="1">
-      <c r="A559" s="1"/>
-      <c r="C559" s="1"/>
-      <c r="D559" s="1"/>
-      <c r="E559" s="1"/>
-      <c r="F559" s="1"/>
-      <c r="G559" s="1"/>
-      <c r="H559" s="1"/>
+      <c r="A559" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C559" s="2">
+        <v>8607611</v>
+      </c>
+      <c r="D559" s="2">
+        <v>5913784</v>
+      </c>
+      <c r="E559" s="5">
+        <v>45514.416666666664</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G559" s="2">
+        <v>47</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="560" spans="1:8" ht="15" thickBot="1">
-      <c r="A560" s="1"/>
-      <c r="C560" s="1"/>
-      <c r="D560" s="1"/>
-      <c r="E560" s="1"/>
-      <c r="F560" s="1"/>
-      <c r="G560" s="1"/>
-      <c r="H560" s="1"/>
+      <c r="A560" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C560" s="2">
+        <v>8643131</v>
+      </c>
+      <c r="D560" s="2">
+        <v>4933312</v>
+      </c>
+      <c r="E560" s="5">
+        <v>45522.916666666664</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G560" s="2">
+        <v>37</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="561" spans="1:8" ht="15" thickBot="1">
-      <c r="A561" s="1"/>
-      <c r="C561" s="1"/>
-      <c r="D561" s="1"/>
-      <c r="E561" s="1"/>
-      <c r="F561" s="1"/>
-      <c r="G561" s="1"/>
-      <c r="H561" s="1"/>
+      <c r="A561" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C561" s="2">
+        <v>8671658</v>
+      </c>
+      <c r="D561" s="2">
+        <v>5124187</v>
+      </c>
+      <c r="E561" s="5">
+        <v>45533.916666666664</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G561" s="2">
+        <v>32</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="562" spans="1:8" ht="15" thickBot="1">
-      <c r="A562" s="1"/>
-      <c r="C562" s="1"/>
-      <c r="D562" s="1"/>
-      <c r="E562" s="1"/>
-      <c r="F562" s="1"/>
-      <c r="G562" s="1"/>
-      <c r="H562" s="1"/>
+      <c r="A562" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C562" s="2">
+        <v>8640785</v>
+      </c>
+      <c r="D562" s="2">
+        <v>6076443</v>
+      </c>
+      <c r="E562" s="5">
+        <v>45521.916666666664</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G562" s="2">
+        <v>44</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="563" spans="1:8" ht="15" thickBot="1">
-      <c r="A563" s="1"/>
-      <c r="C563" s="1"/>
-      <c r="D563" s="1"/>
-      <c r="E563" s="1"/>
-      <c r="F563" s="1"/>
-      <c r="G563" s="1"/>
-      <c r="H563" s="1"/>
+      <c r="A563" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C563" s="2">
+        <v>8652727</v>
+      </c>
+      <c r="D563" s="2">
+        <v>6253428</v>
+      </c>
+      <c r="E563" s="5">
+        <v>45527.416666666664</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G563" s="2">
+        <v>28</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="564" spans="1:8" ht="15" thickBot="1">
-      <c r="A564" s="1"/>
-      <c r="C564" s="1"/>
-      <c r="D564" s="1"/>
-      <c r="E564" s="1"/>
-      <c r="F564" s="1"/>
-      <c r="G564" s="1"/>
-      <c r="H564" s="1"/>
+      <c r="A564" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C564" s="2">
+        <v>8655711</v>
+      </c>
+      <c r="D564" s="2">
+        <v>6251814</v>
+      </c>
+      <c r="E564" s="5">
+        <v>45527.416666666664</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G564" s="2">
+        <v>49</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="565" spans="1:8" ht="15" thickBot="1">
-      <c r="A565" s="1"/>
-      <c r="C565" s="1"/>
-      <c r="D565" s="1"/>
-      <c r="E565" s="1"/>
-      <c r="F565" s="1"/>
-      <c r="G565" s="1"/>
-      <c r="H565" s="1"/>
+      <c r="A565" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C565" s="2">
+        <v>8655862</v>
+      </c>
+      <c r="D565" s="2">
+        <v>6256765</v>
+      </c>
+      <c r="E565" s="5">
+        <v>45527.416666666664</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G565" s="2">
+        <v>22</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="566" spans="1:8" ht="15" thickBot="1">
-      <c r="A566" s="1"/>
-      <c r="C566" s="1"/>
-      <c r="D566" s="1"/>
-      <c r="E566" s="1"/>
-      <c r="F566" s="1"/>
-      <c r="G566" s="1"/>
-      <c r="H566" s="1"/>
+      <c r="A566" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C566" s="2">
+        <v>8667191</v>
+      </c>
+      <c r="D566" s="2">
+        <v>6268940</v>
+      </c>
+      <c r="E566" s="5">
+        <v>45531.916666666664</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G566" s="2">
+        <v>26</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="567" spans="1:8" ht="15" thickBot="1">
-      <c r="A567" s="1"/>
-      <c r="C567" s="1"/>
-      <c r="D567" s="1"/>
-      <c r="E567" s="1"/>
-      <c r="F567" s="1"/>
-      <c r="G567" s="1"/>
-      <c r="H567" s="1"/>
+      <c r="A567" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C567" s="2">
+        <v>8673655</v>
+      </c>
+      <c r="D567" s="2">
+        <v>6275420</v>
+      </c>
+      <c r="E567" s="5">
+        <v>45533.916666666664</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G567" s="2">
+        <v>38</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="568" spans="1:8" ht="15" thickBot="1">
-      <c r="A568" s="1"/>
-      <c r="C568" s="1"/>
-      <c r="D568" s="1"/>
-      <c r="E568" s="1"/>
-      <c r="F568" s="1"/>
-      <c r="G568" s="1"/>
-      <c r="H568" s="1"/>
+      <c r="A568" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C568" s="2">
+        <v>8672020</v>
+      </c>
+      <c r="D568" s="2">
+        <v>6273846</v>
+      </c>
+      <c r="E568" s="5">
+        <v>45533.416666666664</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G568" s="2">
+        <v>24</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="569" spans="1:8" ht="15" thickBot="1">
-      <c r="A569" s="1"/>
-      <c r="C569" s="1"/>
-      <c r="D569" s="1"/>
-      <c r="E569" s="1"/>
-      <c r="F569" s="1"/>
-      <c r="G569" s="1"/>
-      <c r="H569" s="1"/>
+      <c r="A569" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C569" s="2">
+        <v>8609238</v>
+      </c>
+      <c r="D569" s="2">
+        <v>4148417</v>
+      </c>
+      <c r="E569" s="5">
+        <v>45509.416666666664</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G569" s="2">
+        <v>48</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="570" spans="1:8" ht="15" thickBot="1">
-      <c r="A570" s="1"/>
-      <c r="C570" s="1"/>
-      <c r="D570" s="1"/>
-      <c r="E570" s="1"/>
-      <c r="F570" s="1"/>
+      <c r="A570" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C570" s="2">
+        <v>8632346</v>
+      </c>
+      <c r="D570" s="2">
+        <v>6228805</v>
+      </c>
+      <c r="E570" s="5">
+        <v>45519.916666666664</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
     </row>
     <row r="571" spans="1:8" ht="15" thickBot="1">
-      <c r="A571" s="1"/>
-      <c r="C571" s="1"/>
-      <c r="D571" s="1"/>
-      <c r="E571" s="1"/>
-      <c r="F571" s="1"/>
-      <c r="G571" s="1"/>
-      <c r="H571" s="1"/>
+      <c r="A571" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C571" s="2">
+        <v>8627247</v>
+      </c>
+      <c r="D571" s="2">
+        <v>5119601</v>
+      </c>
+      <c r="E571" s="5">
+        <v>45515.916666666664</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G571" s="2">
+        <v>42</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="572" spans="1:8" ht="15" thickBot="1">
-      <c r="A572" s="1"/>
-      <c r="C572" s="1"/>
-      <c r="D572" s="1"/>
-      <c r="E572" s="1"/>
-      <c r="F572" s="1"/>
-      <c r="G572" s="1"/>
-      <c r="H572" s="1"/>
+      <c r="A572" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C572" s="2">
+        <v>8609708</v>
+      </c>
+      <c r="D572" s="2">
+        <v>5119601</v>
+      </c>
+      <c r="E572" s="5">
+        <v>45509.916666666664</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G572" s="2">
+        <v>42</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="573" spans="1:8" ht="15" thickBot="1">
-      <c r="A573" s="1"/>
-      <c r="C573" s="1"/>
-      <c r="D573" s="1"/>
-      <c r="E573" s="1"/>
-      <c r="F573" s="1"/>
-      <c r="G573" s="1"/>
-      <c r="H573" s="1"/>
+      <c r="A573" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C573" s="2">
+        <v>8635190</v>
+      </c>
+      <c r="D573" s="2">
+        <v>5119601</v>
+      </c>
+      <c r="E573" s="5">
+        <v>45518.916666666664</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G573" s="2">
+        <v>42</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="574" spans="1:8" ht="15" thickBot="1">
-      <c r="A574" s="1"/>
-      <c r="C574" s="1"/>
-      <c r="D574" s="1"/>
-      <c r="E574" s="1"/>
-      <c r="F574" s="1"/>
-      <c r="G574" s="1"/>
-      <c r="H574" s="1"/>
+      <c r="A574" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C574" s="2">
+        <v>8676316</v>
+      </c>
+      <c r="D574" s="2">
+        <v>6111889</v>
+      </c>
+      <c r="E574" s="5">
+        <v>45534.916666666664</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G574" s="2">
+        <v>61</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="575" spans="1:8" ht="15" thickBot="1">
-      <c r="A575" s="1"/>
-      <c r="C575" s="1"/>
-      <c r="D575" s="1"/>
-      <c r="E575" s="1"/>
-      <c r="F575" s="1"/>
-      <c r="G575" s="1"/>
-      <c r="H575" s="1"/>
+      <c r="A575" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C575" s="2">
+        <v>8664164</v>
+      </c>
+      <c r="D575" s="2">
+        <v>6111889</v>
+      </c>
+      <c r="E575" s="5">
+        <v>45531.416666666664</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G575" s="2">
+        <v>61</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="576" spans="1:8" ht="15" thickBot="1">
-      <c r="A576" s="1"/>
-      <c r="C576" s="1"/>
-      <c r="D576" s="1"/>
-      <c r="E576" s="1"/>
-      <c r="F576" s="1"/>
-      <c r="G576" s="1"/>
-      <c r="H576" s="1"/>
+      <c r="A576" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C576" s="2">
+        <v>8672015</v>
+      </c>
+      <c r="D576" s="2">
+        <v>6111889</v>
+      </c>
+      <c r="E576" s="5">
+        <v>45533.416666666664</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G576" s="2">
+        <v>61</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="577" spans="1:8" ht="15" thickBot="1">
-      <c r="A577" s="1"/>
-      <c r="C577" s="1"/>
-      <c r="D577" s="1"/>
-      <c r="E577" s="1"/>
-      <c r="F577" s="1"/>
-      <c r="G577" s="1"/>
-      <c r="H577" s="1"/>
+      <c r="A577" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C577" s="2">
+        <v>8651170</v>
+      </c>
+      <c r="D577" s="2">
+        <v>6111889</v>
+      </c>
+      <c r="E577" s="5">
+        <v>45527.916666666664</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G577" s="2">
+        <v>61</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="578" spans="1:8" ht="15" thickBot="1">
-      <c r="A578" s="1"/>
-      <c r="C578" s="1"/>
-      <c r="D578" s="1"/>
-      <c r="E578" s="1"/>
-      <c r="F578" s="1"/>
-      <c r="G578" s="1"/>
-      <c r="H578" s="1"/>
+      <c r="A578" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C578" s="2">
+        <v>8620671</v>
+      </c>
+      <c r="D578" s="2">
+        <v>4480083</v>
+      </c>
+      <c r="E578" s="5">
+        <v>45513.916666666664</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G578" s="2">
+        <v>67</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="579" spans="1:8" ht="15" thickBot="1">
       <c r="A579" s="1"/>
@@ -22801,15 +23807,6 @@
       <c r="G1470" s="1"/>
       <c r="H1470" s="1"/>
     </row>
-    <row r="1471" spans="1:8" ht="15" thickBot="1">
-      <c r="A1471" s="1"/>
-      <c r="C1471" s="1"/>
-      <c r="D1471" s="1"/>
-      <c r="E1471" s="1"/>
-      <c r="F1471" s="1"/>
-      <c r="G1471" s="1"/>
-      <c r="H1471" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F505708D-11C3-4BDC-AE33-1BC9538EB465}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC45539-65C6-4673-A38E-039601779D90}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="116">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -372,6 +372,18 @@
   </si>
   <si>
     <t>Rønsberg</t>
+  </si>
+  <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Sande</t>
+  </si>
+  <si>
+    <t>Hafrsfjord</t>
+  </si>
+  <si>
+    <t>Göteborg</t>
   </si>
 </sst>
 </file>
@@ -794,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:H1470"/>
+  <dimension ref="A1:I1469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="A520" sqref="A520:XFD520"/>
+    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
+      <selection activeCell="A579" sqref="A579:XFD579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -15727,7 +15739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="15" thickBot="1">
+    <row r="577" spans="1:9" ht="15" thickBot="1">
       <c r="A577" s="2">
         <v>1087872</v>
       </c>
@@ -15753,7 +15765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="15" thickBot="1">
+    <row r="578" spans="1:9" ht="15" thickBot="1">
       <c r="A578" s="2">
         <v>1309115</v>
       </c>
@@ -15779,340 +15791,1006 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="15" thickBot="1">
-      <c r="A579" s="1"/>
-      <c r="C579" s="1"/>
-      <c r="D579" s="1"/>
-      <c r="E579" s="1"/>
-      <c r="F579" s="1"/>
-      <c r="G579" s="1"/>
-      <c r="H579" s="1"/>
-    </row>
-    <row r="580" spans="1:8" ht="15" thickBot="1">
-      <c r="A580" s="1"/>
-      <c r="C580" s="1"/>
-      <c r="D580" s="1"/>
-      <c r="E580" s="1"/>
-      <c r="F580" s="1"/>
-      <c r="G580" s="1"/>
-      <c r="H580" s="1"/>
-    </row>
-    <row r="581" spans="1:8" ht="15" thickBot="1">
-      <c r="A581" s="1"/>
-      <c r="C581" s="1"/>
-      <c r="D581" s="1"/>
-      <c r="E581" s="1"/>
-      <c r="F581" s="1"/>
-      <c r="G581" s="1"/>
-      <c r="H581" s="1"/>
-    </row>
-    <row r="582" spans="1:8" ht="15" thickBot="1">
-      <c r="A582" s="1"/>
-      <c r="C582" s="1"/>
-      <c r="D582" s="1"/>
-      <c r="E582" s="1"/>
-      <c r="F582" s="1"/>
-      <c r="G582" s="1"/>
-      <c r="H582" s="1"/>
-    </row>
-    <row r="583" spans="1:8" ht="15" thickBot="1">
-      <c r="A583" s="1"/>
-      <c r="C583" s="1"/>
-      <c r="D583" s="1"/>
-      <c r="E583" s="1"/>
-      <c r="F583" s="1"/>
-      <c r="G583" s="1"/>
-      <c r="H583" s="1"/>
-    </row>
-    <row r="584" spans="1:8" ht="15" thickBot="1">
-      <c r="A584" s="1"/>
-      <c r="C584" s="1"/>
-      <c r="D584" s="1"/>
-      <c r="E584" s="1"/>
-      <c r="F584" s="1"/>
-      <c r="G584" s="1"/>
-      <c r="H584" s="1"/>
-    </row>
-    <row r="585" spans="1:8" ht="15" thickBot="1">
-      <c r="A585" s="1"/>
-      <c r="C585" s="1"/>
-      <c r="D585" s="1"/>
-      <c r="E585" s="1"/>
-      <c r="F585" s="1"/>
-      <c r="G585" s="1"/>
-      <c r="H585" s="1"/>
-    </row>
-    <row r="586" spans="1:8" ht="15" thickBot="1">
-      <c r="A586" s="1"/>
-      <c r="C586" s="1"/>
-      <c r="D586" s="1"/>
-      <c r="E586" s="1"/>
-      <c r="F586" s="1"/>
-      <c r="G586" s="1"/>
-      <c r="H586" s="1"/>
-    </row>
-    <row r="587" spans="1:8" ht="15" thickBot="1">
-      <c r="A587" s="1"/>
-      <c r="C587" s="1"/>
-      <c r="D587" s="1"/>
-      <c r="E587" s="1"/>
-      <c r="F587" s="1"/>
-      <c r="G587" s="1"/>
-      <c r="H587" s="1"/>
-    </row>
-    <row r="588" spans="1:8" ht="15" thickBot="1">
-      <c r="A588" s="1"/>
-      <c r="C588" s="1"/>
-      <c r="D588" s="1"/>
-      <c r="E588" s="1"/>
-      <c r="F588" s="1"/>
-      <c r="G588" s="1"/>
-      <c r="H588" s="1"/>
-    </row>
-    <row r="589" spans="1:8" ht="15" thickBot="1">
-      <c r="A589" s="1"/>
-      <c r="C589" s="1"/>
-      <c r="D589" s="1"/>
-      <c r="E589" s="1"/>
-      <c r="F589" s="1"/>
-      <c r="G589" s="1"/>
-      <c r="H589" s="1"/>
-    </row>
-    <row r="590" spans="1:8" ht="15" thickBot="1">
-      <c r="A590" s="1"/>
-      <c r="C590" s="1"/>
-      <c r="D590" s="1"/>
-      <c r="E590" s="1"/>
-      <c r="F590" s="1"/>
-      <c r="G590" s="1"/>
-      <c r="H590" s="1"/>
-    </row>
-    <row r="591" spans="1:8" ht="15" thickBot="1">
-      <c r="A591" s="1"/>
-      <c r="C591" s="1"/>
-      <c r="D591" s="1"/>
-      <c r="E591" s="1"/>
-      <c r="F591" s="1"/>
-      <c r="G591" s="1"/>
-      <c r="H591" s="1"/>
-    </row>
-    <row r="592" spans="1:8" ht="15" thickBot="1">
-      <c r="A592" s="1"/>
-      <c r="C592" s="1"/>
-      <c r="D592" s="1"/>
-      <c r="E592" s="1"/>
-      <c r="F592" s="1"/>
-      <c r="G592" s="1"/>
-      <c r="H592" s="1"/>
-    </row>
-    <row r="593" spans="1:8" ht="15" thickBot="1">
-      <c r="A593" s="1"/>
-      <c r="C593" s="1"/>
-      <c r="D593" s="1"/>
-      <c r="E593" s="1"/>
-      <c r="F593" s="1"/>
-      <c r="G593" s="1"/>
-      <c r="H593" s="1"/>
-    </row>
-    <row r="594" spans="1:8" ht="15" thickBot="1">
-      <c r="A594" s="1"/>
-      <c r="C594" s="1"/>
-      <c r="D594" s="1"/>
-      <c r="E594" s="1"/>
-      <c r="F594" s="1"/>
-      <c r="G594" s="1"/>
-      <c r="H594" s="1"/>
-    </row>
-    <row r="595" spans="1:8" ht="15" thickBot="1">
-      <c r="A595" s="1"/>
-      <c r="C595" s="1"/>
-      <c r="D595" s="1"/>
-      <c r="E595" s="1"/>
-      <c r="F595" s="1"/>
-      <c r="G595" s="1"/>
-      <c r="H595" s="1"/>
-    </row>
-    <row r="596" spans="1:8" ht="15" thickBot="1">
-      <c r="A596" s="1"/>
-      <c r="C596" s="1"/>
-      <c r="D596" s="1"/>
-      <c r="E596" s="1"/>
-      <c r="F596" s="1"/>
-      <c r="G596" s="1"/>
-      <c r="H596" s="1"/>
-    </row>
-    <row r="597" spans="1:8" ht="15" thickBot="1">
-      <c r="A597" s="1"/>
-      <c r="C597" s="1"/>
-      <c r="D597" s="1"/>
-      <c r="E597" s="1"/>
-      <c r="F597" s="1"/>
-      <c r="G597" s="1"/>
-      <c r="H597" s="1"/>
-    </row>
-    <row r="598" spans="1:8" ht="15" thickBot="1">
-      <c r="A598" s="1"/>
-      <c r="C598" s="1"/>
-      <c r="D598" s="1"/>
-      <c r="E598" s="1"/>
-      <c r="F598" s="1"/>
-      <c r="G598" s="1"/>
-      <c r="H598" s="1"/>
-    </row>
-    <row r="599" spans="1:8" ht="15" thickBot="1">
-      <c r="A599" s="1"/>
-      <c r="C599" s="1"/>
-      <c r="D599" s="1"/>
-      <c r="E599" s="1"/>
-      <c r="F599" s="1"/>
-      <c r="G599" s="1"/>
-      <c r="H599" s="1"/>
-    </row>
-    <row r="600" spans="1:8" ht="15" thickBot="1">
-      <c r="A600" s="1"/>
-      <c r="C600" s="1"/>
-      <c r="D600" s="1"/>
-      <c r="E600" s="1"/>
-      <c r="F600" s="1"/>
-      <c r="G600" s="1"/>
-      <c r="H600" s="1"/>
-    </row>
-    <row r="601" spans="1:8" ht="15" thickBot="1">
-      <c r="A601" s="1"/>
-      <c r="C601" s="1"/>
-      <c r="D601" s="1"/>
-      <c r="E601" s="1"/>
-      <c r="F601" s="1"/>
-      <c r="G601" s="1"/>
-      <c r="H601" s="1"/>
-    </row>
-    <row r="602" spans="1:8" ht="15" thickBot="1">
-      <c r="A602" s="1"/>
-      <c r="C602" s="1"/>
-      <c r="D602" s="1"/>
-      <c r="E602" s="1"/>
-      <c r="F602" s="1"/>
-      <c r="G602" s="1"/>
-      <c r="H602" s="1"/>
-    </row>
-    <row r="603" spans="1:8" ht="15" thickBot="1">
-      <c r="A603" s="1"/>
-      <c r="C603" s="1"/>
-      <c r="D603" s="1"/>
-      <c r="E603" s="1"/>
-      <c r="F603" s="1"/>
-      <c r="G603" s="1"/>
-      <c r="H603" s="1"/>
-    </row>
-    <row r="604" spans="1:8" ht="15" thickBot="1">
-      <c r="A604" s="1"/>
-      <c r="C604" s="1"/>
-      <c r="D604" s="1"/>
-      <c r="E604" s="1"/>
-      <c r="F604" s="1"/>
-      <c r="G604" s="1"/>
-      <c r="H604" s="1"/>
-    </row>
-    <row r="605" spans="1:8" ht="15" thickBot="1">
-      <c r="A605" s="1"/>
-      <c r="C605" s="1"/>
-      <c r="D605" s="1"/>
-      <c r="E605" s="1"/>
-      <c r="F605" s="1"/>
-      <c r="G605" s="1"/>
-      <c r="H605" s="1"/>
-    </row>
-    <row r="606" spans="1:8" ht="15" thickBot="1">
-      <c r="A606" s="1"/>
-      <c r="C606" s="1"/>
-      <c r="D606" s="1"/>
-      <c r="E606" s="1"/>
-      <c r="F606" s="1"/>
-      <c r="G606" s="1"/>
-      <c r="H606" s="1"/>
-    </row>
-    <row r="607" spans="1:8" ht="15" thickBot="1">
-      <c r="A607" s="1"/>
-      <c r="C607" s="1"/>
-      <c r="D607" s="1"/>
-      <c r="E607" s="1"/>
-      <c r="F607" s="1"/>
-      <c r="G607" s="1"/>
-      <c r="H607" s="1"/>
-    </row>
-    <row r="608" spans="1:8" ht="15" thickBot="1">
-      <c r="A608" s="1"/>
-      <c r="C608" s="1"/>
-      <c r="D608" s="1"/>
-      <c r="E608" s="1"/>
-      <c r="F608" s="1"/>
-      <c r="G608" s="1"/>
-      <c r="H608" s="1"/>
-    </row>
-    <row r="609" spans="1:8" ht="15" thickBot="1">
-      <c r="A609" s="1"/>
-      <c r="C609" s="1"/>
-      <c r="D609" s="1"/>
-      <c r="E609" s="1"/>
-      <c r="F609" s="1"/>
-      <c r="G609" s="1"/>
-      <c r="H609" s="1"/>
-    </row>
-    <row r="610" spans="1:8" ht="15" thickBot="1">
-      <c r="A610" s="1"/>
-      <c r="C610" s="1"/>
-      <c r="D610" s="1"/>
-      <c r="E610" s="1"/>
-      <c r="F610" s="1"/>
-      <c r="G610" s="1"/>
-      <c r="H610" s="1"/>
-    </row>
-    <row r="611" spans="1:8" ht="15" thickBot="1">
-      <c r="A611" s="1"/>
-      <c r="C611" s="1"/>
-      <c r="D611" s="1"/>
-      <c r="E611" s="1"/>
-      <c r="F611" s="1"/>
-      <c r="G611" s="1"/>
-      <c r="H611" s="1"/>
-    </row>
-    <row r="612" spans="1:8" ht="15" thickBot="1">
-      <c r="A612" s="1"/>
-      <c r="C612" s="1"/>
-      <c r="D612" s="1"/>
-      <c r="E612" s="1"/>
-      <c r="F612" s="1"/>
-      <c r="G612" s="1"/>
-      <c r="H612" s="1"/>
-    </row>
-    <row r="613" spans="1:8" ht="15" thickBot="1">
-      <c r="A613" s="1"/>
-      <c r="C613" s="1"/>
-      <c r="D613" s="1"/>
-      <c r="E613" s="1"/>
-      <c r="F613" s="1"/>
-      <c r="G613" s="1"/>
-      <c r="H613" s="1"/>
-    </row>
-    <row r="614" spans="1:8" ht="15" thickBot="1">
-      <c r="A614" s="1"/>
-      <c r="C614" s="1"/>
-      <c r="D614" s="1"/>
-      <c r="E614" s="1"/>
-      <c r="F614" s="1"/>
-      <c r="G614" s="1"/>
-      <c r="H614" s="1"/>
-    </row>
-    <row r="615" spans="1:8" ht="15" thickBot="1">
-      <c r="A615" s="1"/>
-      <c r="C615" s="1"/>
-      <c r="D615" s="1"/>
-      <c r="E615" s="1"/>
-      <c r="F615" s="1"/>
-      <c r="G615" s="1"/>
-      <c r="H615" s="1"/>
-    </row>
-    <row r="616" spans="1:8" ht="15" thickBot="1">
+    <row r="579" spans="1:9" ht="15" thickBot="1">
+      <c r="A579" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C579" s="2">
+        <v>8743375</v>
+      </c>
+      <c r="D579" s="2">
+        <v>4213437</v>
+      </c>
+      <c r="E579" s="5">
+        <v>45557.416666666664</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G579" s="2">
+        <v>25</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I579" s="2"/>
+    </row>
+    <row r="580" spans="1:9" ht="15" thickBot="1">
+      <c r="A580" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C580" s="2">
+        <v>8688583</v>
+      </c>
+      <c r="D580" s="2">
+        <v>4259870</v>
+      </c>
+      <c r="E580" s="5">
+        <v>45539.416666666664</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G580" s="2">
+        <v>28</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I580" s="2"/>
+    </row>
+    <row r="581" spans="1:9" ht="15" thickBot="1">
+      <c r="A581" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C581" s="2">
+        <v>8737939</v>
+      </c>
+      <c r="D581" s="2">
+        <v>6340666</v>
+      </c>
+      <c r="E581" s="5">
+        <v>45555.916666666664</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G581" s="2">
+        <v>42</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I581" s="2"/>
+    </row>
+    <row r="582" spans="1:9" ht="15" thickBot="1">
+      <c r="A582" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C582" s="2">
+        <v>8740375</v>
+      </c>
+      <c r="D582" s="2">
+        <v>6342943</v>
+      </c>
+      <c r="E582" s="5">
+        <v>45557.416666666664</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G582" s="2">
+        <v>39</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I582" s="2"/>
+    </row>
+    <row r="583" spans="1:9" ht="15" thickBot="1">
+      <c r="A583" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583" s="2">
+        <v>8748212</v>
+      </c>
+      <c r="D583" s="2">
+        <v>6342943</v>
+      </c>
+      <c r="E583" s="5">
+        <v>45560.416666666664</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G583" s="2">
+        <v>39</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I583" s="2"/>
+    </row>
+    <row r="584" spans="1:9" ht="15" thickBot="1">
+      <c r="A584" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C584" s="2">
+        <v>8742274</v>
+      </c>
+      <c r="D584" s="2">
+        <v>6345330</v>
+      </c>
+      <c r="E584" s="5">
+        <v>45557.416666666664</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G584" s="2">
+        <v>60</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I584" s="2"/>
+    </row>
+    <row r="585" spans="1:9" ht="15" thickBot="1">
+      <c r="A585" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C585" s="2">
+        <v>8682211</v>
+      </c>
+      <c r="D585" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E585" s="5">
+        <v>45537.416666666664</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G585" s="2">
+        <v>38</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I585" s="2"/>
+    </row>
+    <row r="586" spans="1:9" ht="15" thickBot="1">
+      <c r="A586" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C586" s="2">
+        <v>8758380</v>
+      </c>
+      <c r="D586" s="2">
+        <v>5613474</v>
+      </c>
+      <c r="E586" s="5">
+        <v>45562.416666666664</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G586" s="2">
+        <v>27</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I586" s="2"/>
+    </row>
+    <row r="587" spans="1:9" ht="15" thickBot="1">
+      <c r="A587" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C587" s="2">
+        <v>8674171</v>
+      </c>
+      <c r="D587" s="2">
+        <v>6014482</v>
+      </c>
+      <c r="E587" s="5">
+        <v>45536.416666666664</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G587" s="2">
+        <v>20</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I587" s="2"/>
+    </row>
+    <row r="588" spans="1:9" ht="15" thickBot="1">
+      <c r="A588" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C588" s="2">
+        <v>8762828</v>
+      </c>
+      <c r="D588" s="2">
+        <v>6366089</v>
+      </c>
+      <c r="E588" s="5">
+        <v>45564.416666666664</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G588" s="2">
+        <v>26</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I588" s="2"/>
+    </row>
+    <row r="589" spans="1:9" ht="15" thickBot="1">
+      <c r="A589" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C589" s="2">
+        <v>8705189</v>
+      </c>
+      <c r="D589" s="2">
+        <v>5154544</v>
+      </c>
+      <c r="E589" s="5">
+        <v>45545.416666666664</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G589" s="2">
+        <v>21</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I589" s="2"/>
+    </row>
+    <row r="590" spans="1:9" ht="15" thickBot="1">
+      <c r="A590" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590" s="2">
+        <v>8718818</v>
+      </c>
+      <c r="D590" s="2">
+        <v>4974174</v>
+      </c>
+      <c r="E590" s="5">
+        <v>45549.416666666664</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G590" s="2">
+        <v>23</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I590" s="2"/>
+    </row>
+    <row r="591" spans="1:9" ht="15" thickBot="1">
+      <c r="A591" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C591" s="2">
+        <v>8734095</v>
+      </c>
+      <c r="D591" s="2">
+        <v>4045061</v>
+      </c>
+      <c r="E591" s="5">
+        <v>45556.416666666664</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G591" s="2">
+        <v>61</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I591" s="2"/>
+    </row>
+    <row r="592" spans="1:9" ht="15" thickBot="1">
+      <c r="A592" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C592" s="2">
+        <v>8743249</v>
+      </c>
+      <c r="D592" s="2">
+        <v>4045061</v>
+      </c>
+      <c r="E592" s="5">
+        <v>45558.416666666664</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G592" s="2">
+        <v>61</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I592" s="2"/>
+    </row>
+    <row r="593" spans="1:9" ht="15" thickBot="1">
+      <c r="A593" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C593" s="2">
+        <v>8684999</v>
+      </c>
+      <c r="D593" s="2">
+        <v>4045061</v>
+      </c>
+      <c r="E593" s="5">
+        <v>45541.416666666664</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G593" s="2">
+        <v>61</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I593" s="2"/>
+    </row>
+    <row r="594" spans="1:9" ht="15" thickBot="1">
+      <c r="A594" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C594" s="2">
+        <v>8708315</v>
+      </c>
+      <c r="D594" s="2">
+        <v>4045061</v>
+      </c>
+      <c r="E594" s="5">
+        <v>45547.916666666664</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G594" s="2">
+        <v>61</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I594" s="2"/>
+    </row>
+    <row r="595" spans="1:9" ht="15" thickBot="1">
+      <c r="A595" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C595" s="2">
+        <v>8754295</v>
+      </c>
+      <c r="D595" s="2">
+        <v>4157392</v>
+      </c>
+      <c r="E595" s="5">
+        <v>45562.416666666664</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G595" s="2">
+        <v>49</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I595" s="2"/>
+    </row>
+    <row r="596" spans="1:9" ht="15" thickBot="1">
+      <c r="A596" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C596" s="2">
+        <v>8683716</v>
+      </c>
+      <c r="D596" s="2">
+        <v>4162915</v>
+      </c>
+      <c r="E596" s="5">
+        <v>45545.416666666664</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G596" s="2">
+        <v>30</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I596" s="2"/>
+    </row>
+    <row r="597" spans="1:9" ht="15" thickBot="1">
+      <c r="A597" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C597" s="2">
+        <v>8690296</v>
+      </c>
+      <c r="D597" s="2">
+        <v>5343339</v>
+      </c>
+      <c r="E597" s="5">
+        <v>45540.916666666664</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G597" s="2">
+        <v>46</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I597" s="2"/>
+    </row>
+    <row r="598" spans="1:9" ht="15" thickBot="1">
+      <c r="A598" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C598" s="2">
+        <v>8726497</v>
+      </c>
+      <c r="D598" s="2">
+        <v>4192566</v>
+      </c>
+      <c r="E598" s="5">
+        <v>45551.916666666664</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G598" s="2">
+        <v>41</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I598" s="2"/>
+    </row>
+    <row r="599" spans="1:9" ht="15" thickBot="1">
+      <c r="A599" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C599" s="2">
+        <v>8684933</v>
+      </c>
+      <c r="D599" s="2">
+        <v>6245447</v>
+      </c>
+      <c r="E599" s="5">
+        <v>45537.916666666664</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G599" s="2">
+        <v>52</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I599" s="2"/>
+    </row>
+    <row r="600" spans="1:9" ht="15" thickBot="1">
+      <c r="A600" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C600" s="2">
+        <v>8700507</v>
+      </c>
+      <c r="D600" s="2">
+        <v>6257512</v>
+      </c>
+      <c r="E600" s="5">
+        <v>45543.416666666664</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G600" s="2">
+        <v>35</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I600" s="2"/>
+    </row>
+    <row r="601" spans="1:9" ht="15" thickBot="1">
+      <c r="A601" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C601" s="2">
+        <v>8680338</v>
+      </c>
+      <c r="D601" s="2">
+        <v>6257512</v>
+      </c>
+      <c r="E601" s="5">
+        <v>45536.416666666664</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G601" s="2">
+        <v>35</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I601" s="2"/>
+    </row>
+    <row r="602" spans="1:9" ht="15" thickBot="1">
+      <c r="A602" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C602" s="2">
+        <v>8655967</v>
+      </c>
+      <c r="D602" s="2">
+        <v>6256802</v>
+      </c>
+      <c r="E602" s="5">
+        <v>45536.916666666664</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G602" s="2">
+        <v>55</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I602" s="2"/>
+    </row>
+    <row r="603" spans="1:9" ht="15" thickBot="1">
+      <c r="A603" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C603" s="2">
+        <v>8728325</v>
+      </c>
+      <c r="D603" s="2">
+        <v>6263439</v>
+      </c>
+      <c r="E603" s="5">
+        <v>45552.916666666664</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G603" s="2">
+        <v>22</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I603" s="2"/>
+    </row>
+    <row r="604" spans="1:9" ht="15" thickBot="1">
+      <c r="A604" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C604" s="2">
+        <v>8707759</v>
+      </c>
+      <c r="D604" s="2">
+        <v>6275420</v>
+      </c>
+      <c r="E604" s="5">
+        <v>45549.416666666664</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G604" s="2">
+        <v>38</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I604" s="2"/>
+    </row>
+    <row r="605" spans="1:9" ht="15" thickBot="1">
+      <c r="A605" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C605" s="2">
+        <v>8685036</v>
+      </c>
+      <c r="D605" s="2">
+        <v>5743365</v>
+      </c>
+      <c r="E605" s="5">
+        <v>45537.916666666664</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" s="2">
+        <v>48</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I605" s="2"/>
+    </row>
+    <row r="606" spans="1:9" ht="15" thickBot="1">
+      <c r="A606" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C606" s="2">
+        <v>8690781</v>
+      </c>
+      <c r="D606" s="2">
+        <v>5325168</v>
+      </c>
+      <c r="E606" s="5">
+        <v>45542.916666666664</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G606" s="2">
+        <v>28</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I606" s="2"/>
+    </row>
+    <row r="607" spans="1:9" ht="15" thickBot="1">
+      <c r="A607" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C607" s="2">
+        <v>8751225</v>
+      </c>
+      <c r="D607" s="2">
+        <v>5866000</v>
+      </c>
+      <c r="E607" s="5">
+        <v>45560.916666666664</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G607" s="2">
+        <v>25</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I607" s="2"/>
+    </row>
+    <row r="608" spans="1:9" ht="15" thickBot="1">
+      <c r="A608" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C608" s="2">
+        <v>8685624</v>
+      </c>
+      <c r="D608" s="2">
+        <v>6285518</v>
+      </c>
+      <c r="E608" s="5">
+        <v>45539.916666666664</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G608" s="2">
+        <v>61</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I608" s="2"/>
+    </row>
+    <row r="609" spans="1:9" ht="15" thickBot="1">
+      <c r="A609" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C609" s="2">
+        <v>8706733</v>
+      </c>
+      <c r="D609" s="2">
+        <v>6217987</v>
+      </c>
+      <c r="E609" s="5">
+        <v>45545.416666666664</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G609" s="2">
+        <v>33</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I609" s="2"/>
+    </row>
+    <row r="610" spans="1:9" ht="15" thickBot="1">
+      <c r="A610" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C610" s="2">
+        <v>8763018</v>
+      </c>
+      <c r="D610" s="2">
+        <v>5970385</v>
+      </c>
+      <c r="E610" s="5">
+        <v>45564.416666666664</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G610" s="2">
+        <v>26</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I610" s="2"/>
+    </row>
+    <row r="611" spans="1:9" ht="15" thickBot="1">
+      <c r="A611" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C611" s="2">
+        <v>8703407</v>
+      </c>
+      <c r="D611" s="2">
+        <v>5233273</v>
+      </c>
+      <c r="E611" s="5">
+        <v>45544.416666666664</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G611" s="2">
+        <v>20</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I611" s="2"/>
+    </row>
+    <row r="612" spans="1:9" ht="15" thickBot="1">
+      <c r="A612" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C612" s="2">
+        <v>8715715</v>
+      </c>
+      <c r="D612" s="2">
+        <v>5244833</v>
+      </c>
+      <c r="E612" s="5">
+        <v>45551.916666666664</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G612" s="2">
+        <v>23</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I612" s="2"/>
+    </row>
+    <row r="613" spans="1:9" ht="15" thickBot="1">
+      <c r="A613" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C613" s="2">
+        <v>8723860</v>
+      </c>
+      <c r="D613" s="2">
+        <v>6326061</v>
+      </c>
+      <c r="E613" s="5">
+        <v>45551.416666666664</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G613" s="2">
+        <v>38</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I613" s="2"/>
+    </row>
+    <row r="614" spans="1:9" ht="15" thickBot="1">
+      <c r="A614" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C614" s="2">
+        <v>8731714</v>
+      </c>
+      <c r="D614" s="2">
+        <v>6334181</v>
+      </c>
+      <c r="E614" s="5">
+        <v>45553.916666666664</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G614" s="2">
+        <v>59</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I614" s="2"/>
+    </row>
+    <row r="615" spans="1:9" ht="15" thickBot="1">
+      <c r="A615" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C615" s="2">
+        <v>8732874</v>
+      </c>
+      <c r="D615" s="2">
+        <v>6335500</v>
+      </c>
+      <c r="E615" s="5">
+        <v>45554.416666666664</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G615" s="2">
+        <v>43</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I615" s="2"/>
+    </row>
+    <row r="616" spans="1:9" ht="15" thickBot="1">
       <c r="A616" s="1"/>
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
@@ -16121,7 +16799,7 @@
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
     </row>
-    <row r="617" spans="1:8" ht="15" thickBot="1">
+    <row r="617" spans="1:9" ht="15" thickBot="1">
       <c r="A617" s="1"/>
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
@@ -16130,7 +16808,7 @@
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
     </row>
-    <row r="618" spans="1:8" ht="15" thickBot="1">
+    <row r="618" spans="1:9" ht="15" thickBot="1">
       <c r="A618" s="1"/>
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
@@ -16139,7 +16817,7 @@
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
     </row>
-    <row r="619" spans="1:8" ht="15" thickBot="1">
+    <row r="619" spans="1:9" ht="15" thickBot="1">
       <c r="A619" s="1"/>
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
@@ -16148,7 +16826,7 @@
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
     </row>
-    <row r="620" spans="1:8" ht="15" thickBot="1">
+    <row r="620" spans="1:9" ht="15" thickBot="1">
       <c r="A620" s="1"/>
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
@@ -16157,7 +16835,7 @@
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
     </row>
-    <row r="621" spans="1:8" ht="15" thickBot="1">
+    <row r="621" spans="1:9" ht="15" thickBot="1">
       <c r="A621" s="1"/>
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
@@ -16166,7 +16844,7 @@
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
     </row>
-    <row r="622" spans="1:8" ht="15" thickBot="1">
+    <row r="622" spans="1:9" ht="15" thickBot="1">
       <c r="A622" s="1"/>
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
@@ -16175,7 +16853,7 @@
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
     </row>
-    <row r="623" spans="1:8" ht="15" thickBot="1">
+    <row r="623" spans="1:9" ht="15" thickBot="1">
       <c r="A623" s="1"/>
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
@@ -16184,7 +16862,7 @@
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
     </row>
-    <row r="624" spans="1:8" ht="15" thickBot="1">
+    <row r="624" spans="1:9" ht="15" thickBot="1">
       <c r="A624" s="1"/>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -23798,15 +24476,6 @@
       <c r="G1469" s="1"/>
       <c r="H1469" s="1"/>
     </row>
-    <row r="1470" spans="1:8" ht="15" thickBot="1">
-      <c r="A1470" s="1"/>
-      <c r="C1470" s="1"/>
-      <c r="D1470" s="1"/>
-      <c r="E1470" s="1"/>
-      <c r="F1470" s="1"/>
-      <c r="G1470" s="1"/>
-      <c r="H1470" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC45539-65C6-4673-A38E-039601779D90}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86A8567-D057-4F39-9F23-A83CD4DE6270}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="29010" windowHeight="15585" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="121">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -384,6 +384,21 @@
   </si>
   <si>
     <t>Göteborg</t>
+  </si>
+  <si>
+    <t>Snarøya</t>
+  </si>
+  <si>
+    <t>Straume</t>
+  </si>
+  <si>
+    <t>Sarpsborg</t>
+  </si>
+  <si>
+    <t>Hamar</t>
+  </si>
+  <si>
+    <t>Kristiansand</t>
   </si>
 </sst>
 </file>
@@ -806,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:I1469"/>
+  <dimension ref="A1:J1469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
-      <selection activeCell="A579" sqref="A579:XFD579"/>
+    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H641" sqref="H641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -16601,7 +16616,7 @@
       </c>
       <c r="I608" s="2"/>
     </row>
-    <row r="609" spans="1:9" ht="15" thickBot="1">
+    <row r="609" spans="1:10" ht="15" thickBot="1">
       <c r="A609" s="2">
         <v>978878</v>
       </c>
@@ -16628,7 +16643,7 @@
       </c>
       <c r="I609" s="2"/>
     </row>
-    <row r="610" spans="1:9" ht="15" thickBot="1">
+    <row r="610" spans="1:10" ht="15" thickBot="1">
       <c r="A610" s="2">
         <v>1346628</v>
       </c>
@@ -16655,7 +16670,7 @@
       </c>
       <c r="I610" s="2"/>
     </row>
-    <row r="611" spans="1:9" ht="15" thickBot="1">
+    <row r="611" spans="1:10" ht="15" thickBot="1">
       <c r="A611" s="2">
         <v>1167413</v>
       </c>
@@ -16682,7 +16697,7 @@
       </c>
       <c r="I611" s="2"/>
     </row>
-    <row r="612" spans="1:9" ht="15" thickBot="1">
+    <row r="612" spans="1:10" ht="15" thickBot="1">
       <c r="A612" s="2">
         <v>1425560</v>
       </c>
@@ -16709,7 +16724,7 @@
       </c>
       <c r="I612" s="2"/>
     </row>
-    <row r="613" spans="1:9" ht="15" thickBot="1">
+    <row r="613" spans="1:10" ht="15" thickBot="1">
       <c r="A613" s="2">
         <v>1087872</v>
       </c>
@@ -16736,7 +16751,7 @@
       </c>
       <c r="I613" s="2"/>
     </row>
-    <row r="614" spans="1:9" ht="15" thickBot="1">
+    <row r="614" spans="1:10" ht="15" thickBot="1">
       <c r="A614" s="2">
         <v>1087872</v>
       </c>
@@ -16763,7 +16778,7 @@
       </c>
       <c r="I614" s="2"/>
     </row>
-    <row r="615" spans="1:9" ht="15" thickBot="1">
+    <row r="615" spans="1:10" ht="15" thickBot="1">
       <c r="A615" s="2">
         <v>1346628</v>
       </c>
@@ -16790,349 +16805,1033 @@
       </c>
       <c r="I615" s="2"/>
     </row>
-    <row r="616" spans="1:9" ht="15" thickBot="1">
-      <c r="A616" s="1"/>
-      <c r="C616" s="1"/>
-      <c r="D616" s="1"/>
-      <c r="E616" s="1"/>
-      <c r="F616" s="1"/>
-      <c r="G616" s="1"/>
-      <c r="H616" s="1"/>
-    </row>
-    <row r="617" spans="1:9" ht="15" thickBot="1">
-      <c r="A617" s="1"/>
-      <c r="C617" s="1"/>
-      <c r="D617" s="1"/>
-      <c r="E617" s="1"/>
-      <c r="F617" s="1"/>
-      <c r="G617" s="1"/>
-      <c r="H617" s="1"/>
-    </row>
-    <row r="618" spans="1:9" ht="15" thickBot="1">
-      <c r="A618" s="1"/>
-      <c r="C618" s="1"/>
-      <c r="D618" s="1"/>
-      <c r="E618" s="1"/>
-      <c r="F618" s="1"/>
-      <c r="G618" s="1"/>
-      <c r="H618" s="1"/>
-    </row>
-    <row r="619" spans="1:9" ht="15" thickBot="1">
-      <c r="A619" s="1"/>
-      <c r="C619" s="1"/>
-      <c r="D619" s="1"/>
-      <c r="E619" s="1"/>
-      <c r="F619" s="1"/>
-      <c r="G619" s="1"/>
-      <c r="H619" s="1"/>
-    </row>
-    <row r="620" spans="1:9" ht="15" thickBot="1">
-      <c r="A620" s="1"/>
-      <c r="C620" s="1"/>
-      <c r="D620" s="1"/>
-      <c r="E620" s="1"/>
-      <c r="F620" s="1"/>
-      <c r="G620" s="1"/>
-      <c r="H620" s="1"/>
-    </row>
-    <row r="621" spans="1:9" ht="15" thickBot="1">
-      <c r="A621" s="1"/>
-      <c r="C621" s="1"/>
-      <c r="D621" s="1"/>
-      <c r="E621" s="1"/>
-      <c r="F621" s="1"/>
-      <c r="G621" s="1"/>
-      <c r="H621" s="1"/>
-    </row>
-    <row r="622" spans="1:9" ht="15" thickBot="1">
-      <c r="A622" s="1"/>
-      <c r="C622" s="1"/>
-      <c r="D622" s="1"/>
-      <c r="E622" s="1"/>
-      <c r="F622" s="1"/>
-      <c r="G622" s="1"/>
-      <c r="H622" s="1"/>
-    </row>
-    <row r="623" spans="1:9" ht="15" thickBot="1">
-      <c r="A623" s="1"/>
-      <c r="C623" s="1"/>
-      <c r="D623" s="1"/>
-      <c r="E623" s="1"/>
-      <c r="F623" s="1"/>
-      <c r="G623" s="1"/>
-      <c r="H623" s="1"/>
-    </row>
-    <row r="624" spans="1:9" ht="15" thickBot="1">
-      <c r="A624" s="1"/>
-      <c r="C624" s="1"/>
-      <c r="D624" s="1"/>
-      <c r="E624" s="1"/>
-      <c r="F624" s="1"/>
-      <c r="G624" s="1"/>
-      <c r="H624" s="1"/>
-    </row>
-    <row r="625" spans="1:8" ht="15" thickBot="1">
-      <c r="A625" s="1"/>
-      <c r="C625" s="1"/>
-      <c r="D625" s="1"/>
-      <c r="E625" s="1"/>
-      <c r="F625" s="1"/>
-      <c r="G625" s="1"/>
-      <c r="H625" s="1"/>
-    </row>
-    <row r="626" spans="1:8" ht="15" thickBot="1">
-      <c r="A626" s="1"/>
-      <c r="C626" s="1"/>
-      <c r="D626" s="1"/>
-      <c r="E626" s="1"/>
-      <c r="F626" s="1"/>
-      <c r="G626" s="1"/>
-      <c r="H626" s="1"/>
-    </row>
-    <row r="627" spans="1:8" ht="15" thickBot="1">
-      <c r="A627" s="1"/>
-      <c r="C627" s="1"/>
-      <c r="D627" s="1"/>
-      <c r="E627" s="1"/>
-      <c r="F627" s="1"/>
-      <c r="G627" s="1"/>
-      <c r="H627" s="1"/>
-    </row>
-    <row r="628" spans="1:8" ht="15" thickBot="1">
-      <c r="A628" s="1"/>
-      <c r="C628" s="1"/>
-      <c r="D628" s="1"/>
-      <c r="E628" s="1"/>
-      <c r="F628" s="1"/>
-      <c r="G628" s="1"/>
-      <c r="H628" s="1"/>
-    </row>
-    <row r="629" spans="1:8" ht="15" thickBot="1">
-      <c r="A629" s="1"/>
-      <c r="C629" s="1"/>
-      <c r="D629" s="1"/>
-      <c r="E629" s="1"/>
-      <c r="F629" s="1"/>
-      <c r="G629" s="1"/>
-      <c r="H629" s="1"/>
-    </row>
-    <row r="630" spans="1:8" ht="15" thickBot="1">
-      <c r="A630" s="1"/>
-      <c r="C630" s="1"/>
-      <c r="D630" s="1"/>
-      <c r="E630" s="1"/>
-      <c r="F630" s="1"/>
-      <c r="G630" s="1"/>
-      <c r="H630" s="1"/>
-    </row>
-    <row r="631" spans="1:8" ht="15" thickBot="1">
-      <c r="A631" s="1"/>
-      <c r="C631" s="1"/>
-      <c r="D631" s="1"/>
-      <c r="E631" s="1"/>
-      <c r="F631" s="1"/>
-      <c r="G631" s="1"/>
-      <c r="H631" s="1"/>
-    </row>
-    <row r="632" spans="1:8" ht="15" thickBot="1">
-      <c r="A632" s="1"/>
-      <c r="C632" s="1"/>
-      <c r="D632" s="1"/>
-      <c r="E632" s="1"/>
-      <c r="F632" s="1"/>
-      <c r="G632" s="1"/>
-      <c r="H632" s="1"/>
-    </row>
-    <row r="633" spans="1:8" ht="15" thickBot="1">
-      <c r="A633" s="1"/>
-      <c r="C633" s="1"/>
-      <c r="D633" s="1"/>
-      <c r="E633" s="1"/>
-      <c r="F633" s="1"/>
-      <c r="G633" s="1"/>
-      <c r="H633" s="1"/>
-    </row>
-    <row r="634" spans="1:8" ht="15" thickBot="1">
-      <c r="A634" s="1"/>
-      <c r="C634" s="1"/>
-      <c r="D634" s="1"/>
-      <c r="E634" s="1"/>
-      <c r="F634" s="1"/>
-      <c r="G634" s="1"/>
-      <c r="H634" s="1"/>
-    </row>
-    <row r="635" spans="1:8" ht="15" thickBot="1">
-      <c r="A635" s="1"/>
-      <c r="C635" s="1"/>
-      <c r="D635" s="1"/>
-      <c r="E635" s="1"/>
-      <c r="F635" s="1"/>
-      <c r="G635" s="1"/>
-      <c r="H635" s="1"/>
-    </row>
-    <row r="636" spans="1:8" ht="15" thickBot="1">
-      <c r="A636" s="1"/>
-      <c r="C636" s="1"/>
-      <c r="D636" s="1"/>
-      <c r="E636" s="1"/>
-      <c r="F636" s="1"/>
-      <c r="G636" s="1"/>
-      <c r="H636" s="1"/>
-    </row>
-    <row r="637" spans="1:8" ht="15" thickBot="1">
-      <c r="A637" s="1"/>
-      <c r="C637" s="1"/>
-      <c r="D637" s="1"/>
-      <c r="E637" s="1"/>
-      <c r="F637" s="1"/>
-      <c r="G637" s="1"/>
-      <c r="H637" s="1"/>
-    </row>
-    <row r="638" spans="1:8" ht="15" thickBot="1">
-      <c r="A638" s="1"/>
-      <c r="C638" s="1"/>
-      <c r="D638" s="1"/>
-      <c r="E638" s="1"/>
-      <c r="F638" s="1"/>
-      <c r="G638" s="1"/>
-      <c r="H638" s="1"/>
-    </row>
-    <row r="639" spans="1:8" ht="15" thickBot="1">
-      <c r="A639" s="1"/>
-      <c r="C639" s="1"/>
-      <c r="D639" s="1"/>
-      <c r="E639" s="1"/>
-      <c r="F639" s="1"/>
-      <c r="G639" s="1"/>
-      <c r="H639" s="1"/>
-    </row>
-    <row r="640" spans="1:8" ht="15" thickBot="1">
-      <c r="A640" s="1"/>
-      <c r="C640" s="1"/>
-      <c r="D640" s="1"/>
-      <c r="E640" s="1"/>
-      <c r="F640" s="1"/>
-      <c r="G640" s="1"/>
-      <c r="H640" s="1"/>
-    </row>
-    <row r="641" spans="1:8" ht="15" thickBot="1">
-      <c r="A641" s="1"/>
-      <c r="C641" s="1"/>
-      <c r="D641" s="1"/>
-      <c r="E641" s="1"/>
-      <c r="F641" s="1"/>
-      <c r="G641" s="1"/>
-      <c r="H641" s="1"/>
-    </row>
-    <row r="642" spans="1:8" ht="15" thickBot="1">
-      <c r="A642" s="1"/>
-      <c r="C642" s="1"/>
-      <c r="D642" s="1"/>
-      <c r="E642" s="1"/>
-      <c r="F642" s="1"/>
-      <c r="G642" s="1"/>
-      <c r="H642" s="1"/>
-    </row>
-    <row r="643" spans="1:8" ht="15" thickBot="1">
-      <c r="A643" s="1"/>
-      <c r="C643" s="1"/>
-      <c r="D643" s="1"/>
-      <c r="E643" s="1"/>
-      <c r="F643" s="1"/>
-      <c r="G643" s="1"/>
-      <c r="H643" s="1"/>
-    </row>
-    <row r="644" spans="1:8" ht="15" thickBot="1">
-      <c r="A644" s="1"/>
-      <c r="C644" s="1"/>
-      <c r="D644" s="1"/>
-      <c r="E644" s="1"/>
-      <c r="F644" s="1"/>
-      <c r="G644" s="1"/>
-      <c r="H644" s="1"/>
-    </row>
-    <row r="645" spans="1:8" ht="15" thickBot="1">
-      <c r="A645" s="1"/>
-      <c r="C645" s="1"/>
-      <c r="D645" s="1"/>
-      <c r="E645" s="1"/>
-      <c r="F645" s="1"/>
-      <c r="G645" s="1"/>
-      <c r="H645" s="1"/>
-    </row>
-    <row r="646" spans="1:8" ht="15" thickBot="1">
-      <c r="A646" s="1"/>
-      <c r="C646" s="1"/>
-      <c r="D646" s="1"/>
-      <c r="E646" s="1"/>
-      <c r="F646" s="1"/>
-      <c r="G646" s="1"/>
-      <c r="H646" s="1"/>
-    </row>
-    <row r="647" spans="1:8" ht="15" thickBot="1">
-      <c r="A647" s="1"/>
-      <c r="C647" s="1"/>
-      <c r="D647" s="1"/>
-      <c r="E647" s="1"/>
-      <c r="F647" s="1"/>
-      <c r="G647" s="1"/>
-      <c r="H647" s="1"/>
-    </row>
-    <row r="648" spans="1:8" ht="15" thickBot="1">
-      <c r="A648" s="1"/>
-      <c r="C648" s="1"/>
-      <c r="D648" s="1"/>
-      <c r="E648" s="1"/>
-      <c r="F648" s="1"/>
-      <c r="G648" s="1"/>
-      <c r="H648" s="1"/>
-    </row>
-    <row r="649" spans="1:8" ht="15" thickBot="1">
-      <c r="A649" s="1"/>
-      <c r="C649" s="1"/>
-      <c r="D649" s="1"/>
-      <c r="E649" s="1"/>
-      <c r="F649" s="1"/>
-      <c r="G649" s="1"/>
-      <c r="H649" s="1"/>
-    </row>
-    <row r="650" spans="1:8" ht="15" thickBot="1">
-      <c r="A650" s="1"/>
-      <c r="C650" s="1"/>
-      <c r="D650" s="1"/>
-      <c r="E650" s="1"/>
-      <c r="F650" s="1"/>
-      <c r="G650" s="1"/>
-      <c r="H650" s="1"/>
-    </row>
-    <row r="651" spans="1:8" ht="15" thickBot="1">
-      <c r="A651" s="1"/>
-      <c r="C651" s="1"/>
-      <c r="D651" s="1"/>
-      <c r="E651" s="1"/>
-      <c r="F651" s="1"/>
-      <c r="G651" s="1"/>
-      <c r="H651" s="1"/>
-    </row>
-    <row r="652" spans="1:8" ht="15" thickBot="1">
-      <c r="A652" s="1"/>
-      <c r="C652" s="1"/>
-      <c r="D652" s="1"/>
-      <c r="E652" s="1"/>
-      <c r="F652" s="1"/>
-      <c r="G652" s="1"/>
-      <c r="H652" s="1"/>
-    </row>
-    <row r="653" spans="1:8" ht="15" thickBot="1">
-      <c r="A653" s="1"/>
-      <c r="C653" s="1"/>
-      <c r="D653" s="1"/>
-      <c r="E653" s="1"/>
-      <c r="F653" s="1"/>
-      <c r="G653" s="1"/>
-      <c r="H653" s="1"/>
-    </row>
-    <row r="654" spans="1:8" ht="15" thickBot="1">
+    <row r="616" spans="1:10" ht="15" thickBot="1">
+      <c r="A616" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C616" s="2">
+        <v>8822443</v>
+      </c>
+      <c r="D616" s="2">
+        <v>5217531</v>
+      </c>
+      <c r="E616" s="5">
+        <v>45590.916666666664</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G616" s="2">
+        <v>57</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J616" s="2"/>
+    </row>
+    <row r="617" spans="1:10" ht="15" thickBot="1">
+      <c r="A617" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C617" s="2">
+        <v>8836051</v>
+      </c>
+      <c r="D617" s="2">
+        <v>4173483</v>
+      </c>
+      <c r="E617" s="5">
+        <v>45592.458333333336</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G617" s="2">
+        <v>41</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J617" s="2"/>
+    </row>
+    <row r="618" spans="1:10" ht="15" thickBot="1">
+      <c r="A618" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C618" s="2">
+        <v>8806628</v>
+      </c>
+      <c r="D618" s="2">
+        <v>4182910</v>
+      </c>
+      <c r="E618" s="5">
+        <v>45579.416666666664</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G618" s="2">
+        <v>52</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J618" s="2"/>
+    </row>
+    <row r="619" spans="1:10" ht="15" thickBot="1">
+      <c r="A619" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C619" s="2">
+        <v>8798501</v>
+      </c>
+      <c r="D619" s="2">
+        <v>5037292</v>
+      </c>
+      <c r="E619" s="5">
+        <v>45576.416666666664</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G619" s="2">
+        <v>32</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J619" s="2"/>
+    </row>
+    <row r="620" spans="1:10" ht="15" thickBot="1">
+      <c r="A620" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C620" s="2">
+        <v>8824667</v>
+      </c>
+      <c r="D620" s="2">
+        <v>6427423</v>
+      </c>
+      <c r="E620" s="5">
+        <v>45588.916666666664</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G620" s="2">
+        <v>25</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J620" s="2"/>
+    </row>
+    <row r="621" spans="1:10" ht="15" thickBot="1">
+      <c r="A621" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C621" s="2">
+        <v>8833346</v>
+      </c>
+      <c r="D621" s="2">
+        <v>6435983</v>
+      </c>
+      <c r="E621" s="5">
+        <v>45589.916666666664</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G621" s="2">
+        <v>37</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J621" s="2"/>
+    </row>
+    <row r="622" spans="1:10" ht="15" thickBot="1">
+      <c r="A622" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C622" s="2">
+        <v>8842751</v>
+      </c>
+      <c r="D622" s="2">
+        <v>6440947</v>
+      </c>
+      <c r="E622" s="5">
+        <v>45593.458333333336</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G622" s="2">
+        <v>59</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J622" s="2"/>
+    </row>
+    <row r="623" spans="1:10" ht="15" thickBot="1">
+      <c r="A623" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C623" s="2">
+        <v>8846322</v>
+      </c>
+      <c r="D623" s="2">
+        <v>6448293</v>
+      </c>
+      <c r="E623" s="5">
+        <v>45594.458333333336</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G623" s="2">
+        <v>22</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J623" s="2"/>
+    </row>
+    <row r="624" spans="1:10" ht="15" thickBot="1">
+      <c r="A624" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C624" s="2">
+        <v>8845951</v>
+      </c>
+      <c r="D624" s="2">
+        <v>6448060</v>
+      </c>
+      <c r="E624" s="5">
+        <v>45594.458333333336</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G624" s="2">
+        <v>34</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J624" s="2"/>
+    </row>
+    <row r="625" spans="1:10" ht="15" thickBot="1">
+      <c r="A625" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C625" s="2">
+        <v>8834196</v>
+      </c>
+      <c r="D625" s="2">
+        <v>4772851</v>
+      </c>
+      <c r="E625" s="5">
+        <v>45589.916666666664</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G625" s="2">
+        <v>32</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J625" s="2"/>
+    </row>
+    <row r="626" spans="1:10" ht="15" thickBot="1">
+      <c r="A626" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C626" s="2">
+        <v>8775404</v>
+      </c>
+      <c r="D626" s="2">
+        <v>4214719</v>
+      </c>
+      <c r="E626" s="5">
+        <v>45568.916666666664</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G626" s="2">
+        <v>36</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J626" s="2"/>
+    </row>
+    <row r="627" spans="1:10" ht="15" thickBot="1">
+      <c r="A627" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C627" s="2">
+        <v>8845175</v>
+      </c>
+      <c r="D627" s="2">
+        <v>4227331</v>
+      </c>
+      <c r="E627" s="5">
+        <v>45595.458333333336</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G627" s="2">
+        <v>36</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J627" s="2"/>
+    </row>
+    <row r="628" spans="1:10" ht="15" thickBot="1">
+      <c r="A628" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C628" s="2">
+        <v>8822187</v>
+      </c>
+      <c r="D628" s="2">
+        <v>5528359</v>
+      </c>
+      <c r="E628" s="5">
+        <v>45585.416666666664</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G628" s="2">
+        <v>55</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J628" s="2"/>
+    </row>
+    <row r="629" spans="1:10" ht="15" thickBot="1">
+      <c r="A629" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C629" s="2">
+        <v>8795434</v>
+      </c>
+      <c r="D629" s="2">
+        <v>5557117</v>
+      </c>
+      <c r="E629" s="5">
+        <v>45575.416666666664</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G629" s="2">
+        <v>29</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J629" s="2"/>
+    </row>
+    <row r="630" spans="1:10" ht="15" thickBot="1">
+      <c r="A630" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C630" s="2">
+        <v>8769123</v>
+      </c>
+      <c r="D630" s="2">
+        <v>6372138</v>
+      </c>
+      <c r="E630" s="5">
+        <v>45566.416666666664</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G630" s="2">
+        <v>23</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J630" s="2"/>
+    </row>
+    <row r="631" spans="1:10" ht="15" thickBot="1">
+      <c r="A631" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C631" s="2">
+        <v>8843438</v>
+      </c>
+      <c r="D631" s="2">
+        <v>5721412</v>
+      </c>
+      <c r="E631" s="5">
+        <v>45593.958333333336</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G631" s="2">
+        <v>37</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J631" s="2"/>
+    </row>
+    <row r="632" spans="1:10" ht="15" thickBot="1">
+      <c r="A632" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C632" s="2">
+        <v>8821938</v>
+      </c>
+      <c r="D632" s="2">
+        <v>5721412</v>
+      </c>
+      <c r="E632" s="5">
+        <v>45585.916666666664</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G632" s="2">
+        <v>37</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J632" s="2"/>
+    </row>
+    <row r="633" spans="1:10" ht="15" thickBot="1">
+      <c r="A633" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C633" s="2">
+        <v>8800877</v>
+      </c>
+      <c r="D633" s="2">
+        <v>5890859</v>
+      </c>
+      <c r="E633" s="5">
+        <v>45576.916666666664</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G633" s="2">
+        <v>22</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J633" s="2"/>
+    </row>
+    <row r="634" spans="1:10" ht="15" thickBot="1">
+      <c r="A634" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C634" s="2">
+        <v>8806128</v>
+      </c>
+      <c r="D634" s="2">
+        <v>6409171</v>
+      </c>
+      <c r="E634" s="5">
+        <v>45579.916666666664</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G634" s="2">
+        <v>55</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J634" s="2"/>
+    </row>
+    <row r="635" spans="1:10" ht="15" thickBot="1">
+      <c r="A635" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C635" s="2">
+        <v>8816242</v>
+      </c>
+      <c r="D635" s="2">
+        <v>6419219</v>
+      </c>
+      <c r="E635" s="5">
+        <v>45584.916666666664</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G635" s="2">
+        <v>65</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J635" s="2"/>
+    </row>
+    <row r="636" spans="1:10" ht="15" thickBot="1">
+      <c r="A636" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C636" s="2">
+        <v>8787703</v>
+      </c>
+      <c r="D636" s="2">
+        <v>5682641</v>
+      </c>
+      <c r="E636" s="5">
+        <v>45572.916666666664</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G636" s="2">
+        <v>51</v>
+      </c>
+      <c r="H636" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J636" s="2"/>
+    </row>
+    <row r="637" spans="1:10" ht="15" thickBot="1">
+      <c r="A637" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C637" s="2">
+        <v>8812841</v>
+      </c>
+      <c r="D637" s="2">
+        <v>5431735</v>
+      </c>
+      <c r="E637" s="5">
+        <v>45582.916666666664</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G637" s="2">
+        <v>33</v>
+      </c>
+      <c r="H637" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J637" s="2"/>
+    </row>
+    <row r="638" spans="1:10" ht="15" thickBot="1">
+      <c r="A638" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C638" s="2">
+        <v>8790837</v>
+      </c>
+      <c r="D638" s="2">
+        <v>5933816</v>
+      </c>
+      <c r="E638" s="5">
+        <v>45574.416666666664</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G638" s="2">
+        <v>43</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J638" s="2"/>
+    </row>
+    <row r="639" spans="1:10" ht="15" thickBot="1">
+      <c r="A639" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C639" s="2">
+        <v>8835503</v>
+      </c>
+      <c r="D639" s="2">
+        <v>5335119</v>
+      </c>
+      <c r="E639" s="5">
+        <v>45591.416666666664</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G639" s="2">
+        <v>45</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J639" s="2"/>
+    </row>
+    <row r="640" spans="1:10" ht="15" thickBot="1">
+      <c r="A640" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C640" s="2">
+        <v>8771272</v>
+      </c>
+      <c r="D640" s="2">
+        <v>5340253</v>
+      </c>
+      <c r="E640" s="5">
+        <v>45567.416666666664</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G640" s="2">
+        <v>29</v>
+      </c>
+      <c r="H640" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J640" s="2"/>
+    </row>
+    <row r="641" spans="1:10" ht="15" thickBot="1">
+      <c r="A641" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C641" s="2">
+        <v>8832426</v>
+      </c>
+      <c r="D641" s="2">
+        <v>5366182</v>
+      </c>
+      <c r="E641" s="5">
+        <v>45591.916666666664</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G641" s="2">
+        <v>69</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J641" s="2"/>
+    </row>
+    <row r="642" spans="1:10" ht="15" thickBot="1">
+      <c r="A642" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C642" s="2">
+        <v>8803533</v>
+      </c>
+      <c r="D642" s="2">
+        <v>6127047</v>
+      </c>
+      <c r="E642" s="5">
+        <v>45578.416666666664</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G642" s="2">
+        <v>20</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J642" s="2"/>
+    </row>
+    <row r="643" spans="1:10" ht="15" thickBot="1">
+      <c r="A643" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C643" s="2">
+        <v>8775726</v>
+      </c>
+      <c r="D643" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E643" s="5">
+        <v>45568.416666666664</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G643" s="2">
+        <v>29</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J643" s="2"/>
+    </row>
+    <row r="644" spans="1:10" ht="15" thickBot="1">
+      <c r="A644" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C644" s="2">
+        <v>8797737</v>
+      </c>
+      <c r="D644" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E644" s="5">
+        <v>45576.416666666664</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G644" s="2">
+        <v>29</v>
+      </c>
+      <c r="H644" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J644" s="2"/>
+    </row>
+    <row r="645" spans="1:10" ht="15" thickBot="1">
+      <c r="A645" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C645" s="2">
+        <v>8803531</v>
+      </c>
+      <c r="D645" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E645" s="5">
+        <v>45595.458333333336</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G645" s="2">
+        <v>29</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J645" s="2"/>
+    </row>
+    <row r="646" spans="1:10" ht="15" thickBot="1">
+      <c r="A646" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C646" s="2">
+        <v>8801378</v>
+      </c>
+      <c r="D646" s="2">
+        <v>6076443</v>
+      </c>
+      <c r="E646" s="5">
+        <v>45577.416666666664</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G646" s="2">
+        <v>45</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J646" s="2"/>
+    </row>
+    <row r="647" spans="1:10" ht="15" thickBot="1">
+      <c r="A647" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C647" s="2">
+        <v>8848416</v>
+      </c>
+      <c r="D647" s="2">
+        <v>4121086</v>
+      </c>
+      <c r="E647" s="5">
+        <v>45595.458333333336</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G647" s="2">
+        <v>39</v>
+      </c>
+      <c r="H647" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J647" s="2"/>
+    </row>
+    <row r="648" spans="1:10" ht="15" thickBot="1">
+      <c r="A648" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C648" s="2">
+        <v>8826783</v>
+      </c>
+      <c r="D648" s="2">
+        <v>6364023</v>
+      </c>
+      <c r="E648" s="5">
+        <v>45586.916666666664</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G648" s="2">
+        <v>28</v>
+      </c>
+      <c r="H648" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J648" s="2"/>
+    </row>
+    <row r="649" spans="1:10" ht="15" thickBot="1">
+      <c r="A649" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C649" s="2">
+        <v>8838435</v>
+      </c>
+      <c r="D649" s="2">
+        <v>4433060</v>
+      </c>
+      <c r="E649" s="5">
+        <v>45591.416666666664</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G649" s="2">
+        <v>36</v>
+      </c>
+      <c r="H649" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J649" s="2"/>
+    </row>
+    <row r="650" spans="1:10" ht="15" thickBot="1">
+      <c r="A650" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C650" s="2">
+        <v>8827731</v>
+      </c>
+      <c r="D650" s="2">
+        <v>4433060</v>
+      </c>
+      <c r="E650" s="5">
+        <v>45587.416666666664</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G650" s="2">
+        <v>36</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J650" s="2"/>
+    </row>
+    <row r="651" spans="1:10" ht="15" thickBot="1">
+      <c r="A651" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C651" s="2">
+        <v>8819402</v>
+      </c>
+      <c r="D651" s="2">
+        <v>4433060</v>
+      </c>
+      <c r="E651" s="5">
+        <v>45583.916666666664</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G651" s="2">
+        <v>36</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J651" s="2"/>
+    </row>
+    <row r="652" spans="1:10" ht="15" thickBot="1">
+      <c r="A652" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C652" s="2">
+        <v>8815487</v>
+      </c>
+      <c r="D652" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E652" s="5">
+        <v>45586.416666666664</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G652" s="2">
+        <v>38</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J652" s="2"/>
+    </row>
+    <row r="653" spans="1:10" ht="15" thickBot="1">
+      <c r="A653" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C653" s="2">
+        <v>8846400</v>
+      </c>
+      <c r="D653" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E653" s="5">
+        <v>45594.958333333336</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G653" s="2">
+        <v>38</v>
+      </c>
+      <c r="H653" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J653" s="2"/>
+    </row>
+    <row r="654" spans="1:10" ht="15" thickBot="1">
       <c r="A654" s="1"/>
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
@@ -17141,7 +17840,7 @@
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
     </row>
-    <row r="655" spans="1:8" ht="15" thickBot="1">
+    <row r="655" spans="1:10" ht="15" thickBot="1">
       <c r="A655" s="1"/>
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
@@ -17150,7 +17849,7 @@
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
     </row>
-    <row r="656" spans="1:8" ht="15" thickBot="1">
+    <row r="656" spans="1:10" ht="15" thickBot="1">
       <c r="A656" s="1"/>
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Vestfold/Vestfold/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A86A8567-D057-4F39-9F23-A83CD4DE6270}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9FD8550-0CA6-4413-AAAF-61700FE886D1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="136">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -399,6 +399,51 @@
   </si>
   <si>
     <t>Kristiansand</t>
+  </si>
+  <si>
+    <t>Nøyterøy</t>
+  </si>
+  <si>
+    <t>Fjellhamar</t>
+  </si>
+  <si>
+    <t>Råholt</t>
+  </si>
+  <si>
+    <t>Lørenskog</t>
+  </si>
+  <si>
+    <t>Borhaug</t>
+  </si>
+  <si>
+    <t>tolvsrød</t>
+  </si>
+  <si>
+    <t>Skoppum</t>
+  </si>
+  <si>
+    <t>revetal</t>
+  </si>
+  <si>
+    <t>Hunndalen</t>
+  </si>
+  <si>
+    <t>DRAMMEN</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Borre</t>
+  </si>
+  <si>
+    <t>Hagan</t>
+  </si>
+  <si>
+    <t>Nykirke</t>
+  </si>
+  <si>
+    <t>Sola</t>
   </si>
 </sst>
 </file>
@@ -821,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:J1469"/>
+  <dimension ref="A1:J1465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A603" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H641" sqref="H641"/>
+    <sheetView tabSelected="1" topLeftCell="A722" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A773" sqref="A773:XFD773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -17832,1219 +17877,3514 @@
       <c r="J653" s="2"/>
     </row>
     <row r="654" spans="1:10" ht="15" thickBot="1">
-      <c r="A654" s="1"/>
-      <c r="C654" s="1"/>
-      <c r="D654" s="1"/>
-      <c r="E654" s="1"/>
-      <c r="F654" s="1"/>
-      <c r="G654" s="1"/>
-      <c r="H654" s="1"/>
+      <c r="A654" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C654" s="2">
+        <v>8855459</v>
+      </c>
+      <c r="D654" s="2">
+        <v>6076443</v>
+      </c>
+      <c r="E654" s="5">
+        <v>45597.458333333336</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G654" s="2">
+        <v>45</v>
+      </c>
+      <c r="H654" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="655" spans="1:10" ht="15" thickBot="1">
-      <c r="A655" s="1"/>
-      <c r="C655" s="1"/>
-      <c r="D655" s="1"/>
-      <c r="E655" s="1"/>
-      <c r="F655" s="1"/>
-      <c r="G655" s="1"/>
-      <c r="H655" s="1"/>
+      <c r="A655" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C655" s="2">
+        <v>8872003</v>
+      </c>
+      <c r="D655" s="2">
+        <v>6076443</v>
+      </c>
+      <c r="E655" s="5">
+        <v>45604.458333333336</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G655" s="2">
+        <v>45</v>
+      </c>
+      <c r="H655" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="656" spans="1:10" ht="15" thickBot="1">
-      <c r="A656" s="1"/>
-      <c r="C656" s="1"/>
-      <c r="D656" s="1"/>
-      <c r="E656" s="1"/>
-      <c r="F656" s="1"/>
-      <c r="G656" s="1"/>
-      <c r="H656" s="1"/>
+      <c r="A656" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C656" s="2">
+        <v>8871850</v>
+      </c>
+      <c r="D656" s="2">
+        <v>4121086</v>
+      </c>
+      <c r="E656" s="5">
+        <v>45604.458333333336</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G656" s="2">
+        <v>39</v>
+      </c>
+      <c r="H656" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="657" spans="1:8" ht="15" thickBot="1">
-      <c r="A657" s="1"/>
-      <c r="C657" s="1"/>
-      <c r="D657" s="1"/>
-      <c r="E657" s="1"/>
-      <c r="F657" s="1"/>
-      <c r="G657" s="1"/>
-      <c r="H657" s="1"/>
+      <c r="A657" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C657" s="2">
+        <v>8854743</v>
+      </c>
+      <c r="D657" s="2">
+        <v>6427562</v>
+      </c>
+      <c r="E657" s="5">
+        <v>45597.458333333336</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G657" s="2">
+        <v>56</v>
+      </c>
+      <c r="H657" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="658" spans="1:8" ht="15" thickBot="1">
-      <c r="A658" s="1"/>
-      <c r="C658" s="1"/>
-      <c r="D658" s="1"/>
-      <c r="E658" s="1"/>
-      <c r="F658" s="1"/>
-      <c r="G658" s="1"/>
-      <c r="H658" s="1"/>
+      <c r="A658" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C658" s="2">
+        <v>8908904</v>
+      </c>
+      <c r="D658" s="2">
+        <v>4843929</v>
+      </c>
+      <c r="E658" s="5">
+        <v>45619.958333333336</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G658" s="2">
+        <v>25</v>
+      </c>
+      <c r="H658" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="659" spans="1:8" ht="15" thickBot="1">
-      <c r="A659" s="1"/>
-      <c r="C659" s="1"/>
-      <c r="D659" s="1"/>
-      <c r="E659" s="1"/>
-      <c r="F659" s="1"/>
-      <c r="G659" s="1"/>
-      <c r="H659" s="1"/>
+      <c r="A659" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C659" s="2">
+        <v>8902029</v>
+      </c>
+      <c r="D659" s="2">
+        <v>6498970</v>
+      </c>
+      <c r="E659" s="5">
+        <v>45619.458333333336</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G659" s="2">
+        <v>53</v>
+      </c>
+      <c r="H659" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="660" spans="1:8" ht="15" thickBot="1">
-      <c r="A660" s="1"/>
-      <c r="C660" s="1"/>
-      <c r="D660" s="1"/>
-      <c r="E660" s="1"/>
-      <c r="F660" s="1"/>
-      <c r="G660" s="1"/>
-      <c r="H660" s="1"/>
+      <c r="A660" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C660" s="2">
+        <v>8914187</v>
+      </c>
+      <c r="D660" s="2">
+        <v>5119601</v>
+      </c>
+      <c r="E660" s="5">
+        <v>45621.958333333336</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G660" s="2">
+        <v>42</v>
+      </c>
+      <c r="H660" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="661" spans="1:8" ht="15" thickBot="1">
-      <c r="A661" s="1"/>
-      <c r="C661" s="1"/>
-      <c r="D661" s="1"/>
-      <c r="E661" s="1"/>
-      <c r="F661" s="1"/>
-      <c r="G661" s="1"/>
-      <c r="H661" s="1"/>
+      <c r="A661" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C661" s="2">
+        <v>8863993</v>
+      </c>
+      <c r="D661" s="2">
+        <v>5831981</v>
+      </c>
+      <c r="E661" s="5">
+        <v>45601.958333333336</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G661" s="2">
+        <v>63</v>
+      </c>
+      <c r="H661" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="662" spans="1:8" ht="15" thickBot="1">
-      <c r="A662" s="1"/>
-      <c r="C662" s="1"/>
-      <c r="D662" s="1"/>
-      <c r="E662" s="1"/>
-      <c r="F662" s="1"/>
-      <c r="G662" s="1"/>
-      <c r="H662" s="1"/>
+      <c r="A662" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C662" s="2">
+        <v>8925065</v>
+      </c>
+      <c r="D662" s="2">
+        <v>5086185</v>
+      </c>
+      <c r="E662" s="5">
+        <v>45625.958333333336</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G662" s="2">
+        <v>70</v>
+      </c>
+      <c r="H662" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="663" spans="1:8" ht="15" thickBot="1">
-      <c r="A663" s="1"/>
-      <c r="C663" s="1"/>
-      <c r="D663" s="1"/>
-      <c r="E663" s="1"/>
-      <c r="F663" s="1"/>
-      <c r="G663" s="1"/>
-      <c r="H663" s="1"/>
+      <c r="A663" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C663" s="2">
+        <v>8877628</v>
+      </c>
+      <c r="D663" s="2">
+        <v>6326061</v>
+      </c>
+      <c r="E663" s="5">
+        <v>45606.958333333336</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G663" s="2">
+        <v>38</v>
+      </c>
+      <c r="H663" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="664" spans="1:8" ht="15" thickBot="1">
-      <c r="A664" s="1"/>
-      <c r="C664" s="1"/>
-      <c r="D664" s="1"/>
-      <c r="E664" s="1"/>
-      <c r="F664" s="1"/>
-      <c r="G664" s="1"/>
-      <c r="H664" s="1"/>
+      <c r="A664" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C664" s="2">
+        <v>8871491</v>
+      </c>
+      <c r="D664" s="2">
+        <v>5981499</v>
+      </c>
+      <c r="E664" s="5">
+        <v>45606.958333333336</v>
+      </c>
+      <c r="F664" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G664" s="2">
+        <v>39</v>
+      </c>
+      <c r="H664" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="665" spans="1:8" ht="15" thickBot="1">
-      <c r="A665" s="1"/>
-      <c r="C665" s="1"/>
-      <c r="D665" s="1"/>
-      <c r="E665" s="1"/>
-      <c r="F665" s="1"/>
-      <c r="G665" s="1"/>
-      <c r="H665" s="1"/>
+      <c r="A665" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C665" s="2">
+        <v>8859685</v>
+      </c>
+      <c r="D665" s="2">
+        <v>4480083</v>
+      </c>
+      <c r="E665" s="5">
+        <v>45604.458333333336</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G665" s="2">
+        <v>68</v>
+      </c>
+      <c r="H665" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="666" spans="1:8" ht="15" thickBot="1">
-      <c r="A666" s="1"/>
-      <c r="C666" s="1"/>
-      <c r="D666" s="1"/>
-      <c r="E666" s="1"/>
-      <c r="F666" s="1"/>
-      <c r="G666" s="1"/>
-      <c r="H666" s="1"/>
+      <c r="A666" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C666" s="2">
+        <v>8876544</v>
+      </c>
+      <c r="D666" s="2">
+        <v>4480083</v>
+      </c>
+      <c r="E666" s="5">
+        <v>45608.958333333336</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G666" s="2">
+        <v>68</v>
+      </c>
+      <c r="H666" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="667" spans="1:8" ht="15" thickBot="1">
-      <c r="A667" s="1"/>
-      <c r="C667" s="1"/>
-      <c r="D667" s="1"/>
-      <c r="E667" s="1"/>
-      <c r="F667" s="1"/>
-      <c r="G667" s="1"/>
-      <c r="H667" s="1"/>
+      <c r="A667" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C667" s="2">
+        <v>8867425</v>
+      </c>
+      <c r="D667" s="2">
+        <v>5215115</v>
+      </c>
+      <c r="E667" s="5">
+        <v>45602.958333333336</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G667" s="2">
+        <v>23</v>
+      </c>
+      <c r="H667" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="668" spans="1:8" ht="15" thickBot="1">
-      <c r="A668" s="1"/>
-      <c r="C668" s="1"/>
-      <c r="D668" s="1"/>
-      <c r="E668" s="1"/>
-      <c r="F668" s="1"/>
-      <c r="G668" s="1"/>
-      <c r="H668" s="1"/>
+      <c r="A668" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C668" s="2">
+        <v>8840342</v>
+      </c>
+      <c r="D668" s="2">
+        <v>4089428</v>
+      </c>
+      <c r="E668" s="5">
+        <v>45611.958333333336</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G668" s="2">
+        <v>32</v>
+      </c>
+      <c r="H668" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="669" spans="1:8" ht="15" thickBot="1">
-      <c r="A669" s="1"/>
-      <c r="C669" s="1"/>
-      <c r="D669" s="1"/>
-      <c r="E669" s="1"/>
-      <c r="F669" s="1"/>
-      <c r="G669" s="1"/>
-      <c r="H669" s="1"/>
+      <c r="A669" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C669" s="2">
+        <v>8909900</v>
+      </c>
+      <c r="D669" s="2">
+        <v>5721412</v>
+      </c>
+      <c r="E669" s="5">
+        <v>45620.958333333336</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G669" s="2">
+        <v>37</v>
+      </c>
+      <c r="H669" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="670" spans="1:8" ht="15" thickBot="1">
-      <c r="A670" s="1"/>
-      <c r="C670" s="1"/>
-      <c r="D670" s="1"/>
-      <c r="E670" s="1"/>
-      <c r="F670" s="1"/>
-      <c r="G670" s="1"/>
-      <c r="H670" s="1"/>
+      <c r="A670" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C670" s="2">
+        <v>8858838</v>
+      </c>
+      <c r="D670" s="2">
+        <v>5721412</v>
+      </c>
+      <c r="E670" s="5">
+        <v>45598.958333333336</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G670" s="2">
+        <v>37</v>
+      </c>
+      <c r="H670" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="671" spans="1:8" ht="15" thickBot="1">
-      <c r="A671" s="1"/>
-      <c r="C671" s="1"/>
-      <c r="D671" s="1"/>
-      <c r="E671" s="1"/>
-      <c r="F671" s="1"/>
-      <c r="G671" s="1"/>
-      <c r="H671" s="1"/>
+      <c r="A671" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C671" s="2">
+        <v>8896589</v>
+      </c>
+      <c r="D671" s="2">
+        <v>5721412</v>
+      </c>
+      <c r="E671" s="5">
+        <v>45614.958333333336</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G671" s="2">
+        <v>37</v>
+      </c>
+      <c r="H671" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="672" spans="1:8" ht="15" thickBot="1">
-      <c r="A672" s="1"/>
-      <c r="C672" s="1"/>
-      <c r="D672" s="1"/>
-      <c r="E672" s="1"/>
-      <c r="F672" s="1"/>
-      <c r="G672" s="1"/>
-      <c r="H672" s="1"/>
+      <c r="A672" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C672" s="2">
+        <v>8879103</v>
+      </c>
+      <c r="D672" s="2">
+        <v>5557095</v>
+      </c>
+      <c r="E672" s="5">
+        <v>45609.958333333336</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G672" s="2">
+        <v>49</v>
+      </c>
+      <c r="H672" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="673" spans="1:8" ht="15" thickBot="1">
-      <c r="A673" s="1"/>
-      <c r="C673" s="1"/>
-      <c r="D673" s="1"/>
-      <c r="E673" s="1"/>
-      <c r="F673" s="1"/>
-      <c r="G673" s="1"/>
-      <c r="H673" s="1"/>
+      <c r="A673" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C673" s="2">
+        <v>8878596</v>
+      </c>
+      <c r="D673" s="2">
+        <v>5744458</v>
+      </c>
+      <c r="E673" s="5">
+        <v>45607.958333333336</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G673" s="2">
+        <v>31</v>
+      </c>
+      <c r="H673" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="674" spans="1:8" ht="15" thickBot="1">
-      <c r="A674" s="1"/>
-      <c r="C674" s="1"/>
-      <c r="D674" s="1"/>
-      <c r="E674" s="1"/>
-      <c r="F674" s="1"/>
-      <c r="G674" s="1"/>
-      <c r="H674" s="1"/>
+      <c r="A674" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C674" s="2">
+        <v>8875112</v>
+      </c>
+      <c r="D674" s="2">
+        <v>4211818</v>
+      </c>
+      <c r="E674" s="5">
+        <v>45606.458333333336</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G674" s="2">
+        <v>36</v>
+      </c>
+      <c r="H674" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="675" spans="1:8" ht="15" thickBot="1">
-      <c r="A675" s="1"/>
-      <c r="C675" s="1"/>
-      <c r="D675" s="1"/>
-      <c r="E675" s="1"/>
-      <c r="F675" s="1"/>
-      <c r="G675" s="1"/>
-      <c r="H675" s="1"/>
+      <c r="A675" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C675" s="2">
+        <v>8921888</v>
+      </c>
+      <c r="D675" s="2">
+        <v>6513053</v>
+      </c>
+      <c r="E675" s="5">
+        <v>45625.458333333336</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G675" s="2">
+        <v>21</v>
+      </c>
+      <c r="H675" s="2">
+        <v>4163</v>
+      </c>
     </row>
     <row r="676" spans="1:8" ht="15" thickBot="1">
-      <c r="A676" s="1"/>
-      <c r="C676" s="1"/>
-      <c r="D676" s="1"/>
-      <c r="E676" s="1"/>
-      <c r="F676" s="1"/>
-      <c r="G676" s="1"/>
-      <c r="H676" s="1"/>
+      <c r="A676" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C676" s="2">
+        <v>8918157</v>
+      </c>
+      <c r="D676" s="2">
+        <v>6513053</v>
+      </c>
+      <c r="E676" s="5">
+        <v>45624.958333333336</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G676" s="2">
+        <v>21</v>
+      </c>
+      <c r="H676" s="2">
+        <v>4163</v>
+      </c>
     </row>
     <row r="677" spans="1:8" ht="15" thickBot="1">
-      <c r="A677" s="1"/>
-      <c r="C677" s="1"/>
-      <c r="D677" s="1"/>
-      <c r="E677" s="1"/>
-      <c r="F677" s="1"/>
-      <c r="G677" s="1"/>
-      <c r="H677" s="1"/>
+      <c r="A677" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C677" s="2">
+        <v>8856512</v>
+      </c>
+      <c r="D677" s="2">
+        <v>6458062</v>
+      </c>
+      <c r="E677" s="5">
+        <v>45605.458333333336</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G677" s="2">
+        <v>30</v>
+      </c>
+      <c r="H677" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="678" spans="1:8" ht="15" thickBot="1">
-      <c r="A678" s="1"/>
-      <c r="C678" s="1"/>
-      <c r="D678" s="1"/>
-      <c r="E678" s="1"/>
-      <c r="F678" s="1"/>
-      <c r="G678" s="1"/>
-      <c r="H678" s="1"/>
+      <c r="A678" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C678" s="2">
+        <v>8915789</v>
+      </c>
+      <c r="D678" s="2">
+        <v>6427423</v>
+      </c>
+      <c r="E678" s="5">
+        <v>45623.458333333336</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G678" s="2">
+        <v>25</v>
+      </c>
+      <c r="H678" s="2">
+        <v>3126</v>
+      </c>
     </row>
     <row r="679" spans="1:8" ht="15" thickBot="1">
-      <c r="A679" s="1"/>
-      <c r="C679" s="1"/>
-      <c r="D679" s="1"/>
-      <c r="E679" s="1"/>
-      <c r="F679" s="1"/>
-      <c r="G679" s="1"/>
-      <c r="H679" s="1"/>
+      <c r="A679" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C679" s="2">
+        <v>8894781</v>
+      </c>
+      <c r="D679" s="2">
+        <v>6464900</v>
+      </c>
+      <c r="E679" s="5">
+        <v>45614.458333333336</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G679" s="2">
+        <v>27</v>
+      </c>
+      <c r="H679" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="680" spans="1:8" ht="15" thickBot="1">
-      <c r="A680" s="1"/>
-      <c r="C680" s="1"/>
-      <c r="D680" s="1"/>
-      <c r="E680" s="1"/>
-      <c r="F680" s="1"/>
-      <c r="G680" s="1"/>
-      <c r="H680" s="1"/>
+      <c r="A680" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C680" s="2">
+        <v>8863481</v>
+      </c>
+      <c r="D680" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E680" s="5">
+        <v>45601.958333333336</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G680" s="2">
+        <v>38</v>
+      </c>
+      <c r="H680" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="681" spans="1:8" ht="15" thickBot="1">
-      <c r="A681" s="1"/>
-      <c r="C681" s="1"/>
-      <c r="D681" s="1"/>
-      <c r="E681" s="1"/>
-      <c r="F681" s="1"/>
-      <c r="G681" s="1"/>
-      <c r="H681" s="1"/>
+      <c r="A681" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C681" s="2">
+        <v>8878478</v>
+      </c>
+      <c r="D681" s="2">
+        <v>4252619</v>
+      </c>
+      <c r="E681" s="5">
+        <v>45606.958333333336</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G681" s="2">
+        <v>48</v>
+      </c>
+      <c r="H681" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="682" spans="1:8" ht="15" thickBot="1">
-      <c r="A682" s="1"/>
-      <c r="C682" s="1"/>
-      <c r="D682" s="1"/>
-      <c r="E682" s="1"/>
-      <c r="F682" s="1"/>
-      <c r="G682" s="1"/>
-      <c r="H682" s="1"/>
+      <c r="A682" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C682" s="2">
+        <v>8872125</v>
+      </c>
+      <c r="D682" s="2">
+        <v>5890859</v>
+      </c>
+      <c r="E682" s="5">
+        <v>45604.458333333336</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G682" s="2">
+        <v>23</v>
+      </c>
+      <c r="H682" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="683" spans="1:8" ht="15" thickBot="1">
-      <c r="A683" s="1"/>
-      <c r="C683" s="1"/>
-      <c r="D683" s="1"/>
-      <c r="E683" s="1"/>
-      <c r="F683" s="1"/>
-      <c r="G683" s="1"/>
-      <c r="H683" s="1"/>
+      <c r="A683" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C683" s="2">
+        <v>8906257</v>
+      </c>
+      <c r="D683" s="2">
+        <v>4433060</v>
+      </c>
+      <c r="E683" s="5">
+        <v>45618.458333333336</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G683" s="2">
+        <v>36</v>
+      </c>
+      <c r="H683" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="684" spans="1:8" ht="15" thickBot="1">
-      <c r="A684" s="1"/>
-      <c r="C684" s="1"/>
-      <c r="D684" s="1"/>
-      <c r="E684" s="1"/>
-      <c r="F684" s="1"/>
-      <c r="G684" s="1"/>
-      <c r="H684" s="1"/>
+      <c r="A684" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C684" s="2">
+        <v>8897050</v>
+      </c>
+      <c r="D684" s="2">
+        <v>4433060</v>
+      </c>
+      <c r="E684" s="5">
+        <v>45614.458333333336</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G684" s="2">
+        <v>36</v>
+      </c>
+      <c r="H684" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="685" spans="1:8" ht="15" thickBot="1">
-      <c r="A685" s="1"/>
-      <c r="C685" s="1"/>
-      <c r="D685" s="1"/>
-      <c r="E685" s="1"/>
-      <c r="F685" s="1"/>
-      <c r="G685" s="1"/>
-      <c r="H685" s="1"/>
+      <c r="A685" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C685" s="2">
+        <v>8924301</v>
+      </c>
+      <c r="D685" s="2">
+        <v>4433060</v>
+      </c>
+      <c r="E685" s="5">
+        <v>45625.958333333336</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G685" s="2">
+        <v>36</v>
+      </c>
+      <c r="H685" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="686" spans="1:8" ht="15" thickBot="1">
-      <c r="A686" s="1"/>
-      <c r="C686" s="1"/>
-      <c r="D686" s="1"/>
-      <c r="E686" s="1"/>
-      <c r="F686" s="1"/>
-      <c r="G686" s="1"/>
-      <c r="H686" s="1"/>
+      <c r="A686" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C686" s="2">
+        <v>8859367</v>
+      </c>
+      <c r="D686" s="2">
+        <v>6460731</v>
+      </c>
+      <c r="E686" s="5">
+        <v>45604.958333333336</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G686" s="2">
+        <v>28</v>
+      </c>
+      <c r="H686" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="687" spans="1:8" ht="15" thickBot="1">
-      <c r="A687" s="1"/>
-      <c r="C687" s="1"/>
-      <c r="D687" s="1"/>
-      <c r="E687" s="1"/>
-      <c r="F687" s="1"/>
-      <c r="G687" s="1"/>
-      <c r="H687" s="1"/>
+      <c r="A687" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C687" s="2">
+        <v>8888812</v>
+      </c>
+      <c r="D687" s="2">
+        <v>6489062</v>
+      </c>
+      <c r="E687" s="5">
+        <v>45611.458333333336</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G687" s="2">
+        <v>31</v>
+      </c>
+      <c r="H687" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="688" spans="1:8" ht="15" thickBot="1">
-      <c r="A688" s="1"/>
-      <c r="C688" s="1"/>
-      <c r="D688" s="1"/>
-      <c r="E688" s="1"/>
-      <c r="F688" s="1"/>
-      <c r="G688" s="1"/>
-      <c r="H688" s="1"/>
+      <c r="A688" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C688" s="2">
+        <v>8915571</v>
+      </c>
+      <c r="D688" s="2">
+        <v>6489062</v>
+      </c>
+      <c r="E688" s="5">
+        <v>45622.458333333336</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G688" s="2">
+        <v>31</v>
+      </c>
+      <c r="H688" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="689" spans="1:8" ht="15" thickBot="1">
-      <c r="A689" s="1"/>
-      <c r="C689" s="1"/>
-      <c r="D689" s="1"/>
-      <c r="E689" s="1"/>
-      <c r="F689" s="1"/>
-      <c r="G689" s="1"/>
-      <c r="H689" s="1"/>
+      <c r="A689" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C689" s="2">
+        <v>8904827</v>
+      </c>
+      <c r="D689" s="2">
+        <v>6489062</v>
+      </c>
+      <c r="E689" s="5">
+        <v>45617.958333333336</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" s="2">
+        <v>31</v>
+      </c>
+      <c r="H689" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="690" spans="1:8" ht="15" thickBot="1">
-      <c r="A690" s="1"/>
-      <c r="C690" s="1"/>
-      <c r="D690" s="1"/>
-      <c r="E690" s="1"/>
-      <c r="F690" s="1"/>
-      <c r="G690" s="1"/>
-      <c r="H690" s="1"/>
+      <c r="A690" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C690" s="2">
+        <v>8873737</v>
+      </c>
+      <c r="D690" s="2">
+        <v>4102096</v>
+      </c>
+      <c r="E690" s="5">
+        <v>45604.958333333336</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G690" s="2">
+        <v>57</v>
+      </c>
+      <c r="H690" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="691" spans="1:8" ht="15" thickBot="1">
-      <c r="A691" s="1"/>
-      <c r="C691" s="1"/>
-      <c r="D691" s="1"/>
-      <c r="E691" s="1"/>
-      <c r="F691" s="1"/>
-      <c r="G691" s="1"/>
-      <c r="H691" s="1"/>
+      <c r="A691" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C691" s="2">
+        <v>8891974</v>
+      </c>
+      <c r="D691" s="2">
+        <v>6478579</v>
+      </c>
+      <c r="E691" s="5">
+        <v>45618.458333333336</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G691" s="2">
+        <v>33</v>
+      </c>
+      <c r="H691" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="692" spans="1:8" ht="15" thickBot="1">
-      <c r="A692" s="1"/>
-      <c r="C692" s="1"/>
-      <c r="D692" s="1"/>
-      <c r="E692" s="1"/>
-      <c r="F692" s="1"/>
-      <c r="G692" s="1"/>
-      <c r="H692" s="1"/>
+      <c r="A692" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C692" s="2">
+        <v>8862117</v>
+      </c>
+      <c r="D692" s="2">
+        <v>4290162</v>
+      </c>
+      <c r="E692" s="5">
+        <v>45605.458333333336</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G692" s="2">
+        <v>51</v>
+      </c>
+      <c r="H692" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="693" spans="1:8" ht="15" thickBot="1">
-      <c r="A693" s="1"/>
-      <c r="C693" s="1"/>
-      <c r="D693" s="1"/>
-      <c r="E693" s="1"/>
-      <c r="F693" s="1"/>
-      <c r="G693" s="1"/>
-      <c r="H693" s="1"/>
+      <c r="A693" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C693" s="2">
+        <v>8907567</v>
+      </c>
+      <c r="D693" s="2">
+        <v>6044587</v>
+      </c>
+      <c r="E693" s="5">
+        <v>45619.458333333336</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G693" s="2">
+        <v>27</v>
+      </c>
+      <c r="H693" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="694" spans="1:8" ht="15" thickBot="1">
-      <c r="A694" s="1"/>
-      <c r="C694" s="1"/>
-      <c r="D694" s="1"/>
-      <c r="E694" s="1"/>
-      <c r="F694" s="1"/>
-      <c r="G694" s="1"/>
-      <c r="H694" s="1"/>
+      <c r="A694" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C694" s="2">
+        <v>8903446</v>
+      </c>
+      <c r="D694" s="2">
+        <v>6503001</v>
+      </c>
+      <c r="E694" s="5">
+        <v>45618.458333333336</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G694" s="2">
+        <v>31</v>
+      </c>
+      <c r="H694" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="695" spans="1:8" ht="15" thickBot="1">
-      <c r="A695" s="1"/>
-      <c r="C695" s="1"/>
-      <c r="D695" s="1"/>
-      <c r="E695" s="1"/>
-      <c r="F695" s="1"/>
-      <c r="G695" s="1"/>
-      <c r="H695" s="1"/>
+      <c r="A695" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C695" s="2">
+        <v>8886159</v>
+      </c>
+      <c r="D695" s="2">
+        <v>6227119</v>
+      </c>
+      <c r="E695" s="5">
+        <v>45617.958333333336</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G695" s="2">
+        <v>33</v>
+      </c>
+      <c r="H695" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="696" spans="1:8" ht="15" thickBot="1">
-      <c r="A696" s="1"/>
-      <c r="C696" s="1"/>
-      <c r="D696" s="1"/>
-      <c r="E696" s="1"/>
-      <c r="F696" s="1"/>
-      <c r="G696" s="1"/>
-      <c r="H696" s="1"/>
+      <c r="A696" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C696" s="2">
+        <v>8901534</v>
+      </c>
+      <c r="D696" s="2">
+        <v>6080776</v>
+      </c>
+      <c r="E696" s="5">
+        <v>45616.958333333336</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G696" s="2">
+        <v>21</v>
+      </c>
+      <c r="H696" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="697" spans="1:8" ht="15" thickBot="1">
-      <c r="A697" s="1"/>
-      <c r="C697" s="1"/>
-      <c r="D697" s="1"/>
-      <c r="E697" s="1"/>
-      <c r="F697" s="1"/>
-      <c r="G697" s="1"/>
-      <c r="H697" s="1"/>
+      <c r="A697" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C697" s="2">
+        <v>8899456</v>
+      </c>
+      <c r="D697" s="2">
+        <v>6498232</v>
+      </c>
+      <c r="E697" s="5">
+        <v>45617.458333333336</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G697" s="2">
+        <v>43</v>
+      </c>
+      <c r="H697" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="698" spans="1:8" ht="15" thickBot="1">
-      <c r="A698" s="1"/>
-      <c r="C698" s="1"/>
-      <c r="D698" s="1"/>
-      <c r="E698" s="1"/>
-      <c r="F698" s="1"/>
-      <c r="G698" s="1"/>
-      <c r="H698" s="1"/>
+      <c r="A698" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C698" s="2">
+        <v>8902854</v>
+      </c>
+      <c r="D698" s="2">
+        <v>5244833</v>
+      </c>
+      <c r="E698" s="5">
+        <v>45621.458333333336</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G698" s="2">
+        <v>23</v>
+      </c>
+      <c r="H698" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="699" spans="1:8" ht="15" thickBot="1">
-      <c r="A699" s="1"/>
-      <c r="C699" s="1"/>
-      <c r="D699" s="1"/>
-      <c r="E699" s="1"/>
-      <c r="F699" s="1"/>
-      <c r="G699" s="1"/>
-      <c r="H699" s="1"/>
+      <c r="A699" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C699" s="2">
+        <v>8914703</v>
+      </c>
+      <c r="D699" s="2">
+        <v>5244833</v>
+      </c>
+      <c r="E699" s="5">
+        <v>45622.458333333336</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G699" s="2">
+        <v>23</v>
+      </c>
+      <c r="H699" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="700" spans="1:8" ht="15" thickBot="1">
-      <c r="A700" s="1"/>
-      <c r="C700" s="1"/>
-      <c r="D700" s="1"/>
-      <c r="E700" s="1"/>
-      <c r="F700" s="1"/>
-      <c r="G700" s="1"/>
-      <c r="H700" s="1"/>
+      <c r="A700" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C700" s="2">
+        <v>8971984</v>
+      </c>
+      <c r="D700" s="2">
+        <v>4362502</v>
+      </c>
+      <c r="E700" s="5">
+        <v>45645.458333333336</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G700" s="2">
+        <v>38</v>
+      </c>
+      <c r="H700" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="701" spans="1:8" ht="15" thickBot="1">
-      <c r="A701" s="1"/>
-      <c r="C701" s="1"/>
-      <c r="D701" s="1"/>
-      <c r="E701" s="1"/>
-      <c r="F701" s="1"/>
-      <c r="G701" s="1"/>
-      <c r="H701" s="1"/>
+      <c r="A701" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C701" s="2">
+        <v>8947632</v>
+      </c>
+      <c r="D701" s="2">
+        <v>4362502</v>
+      </c>
+      <c r="E701" s="5">
+        <v>45634.958333333336</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G701" s="2">
+        <v>38</v>
+      </c>
+      <c r="H701" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="702" spans="1:8" ht="15" thickBot="1">
-      <c r="A702" s="1"/>
-      <c r="C702" s="1"/>
-      <c r="D702" s="1"/>
-      <c r="E702" s="1"/>
-      <c r="F702" s="1"/>
-      <c r="G702" s="1"/>
-      <c r="H702" s="1"/>
+      <c r="A702" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C702" s="2">
+        <v>8985063</v>
+      </c>
+      <c r="D702" s="2">
+        <v>4362502</v>
+      </c>
+      <c r="E702" s="5">
+        <v>45651.458333333336</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G702" s="2">
+        <v>38</v>
+      </c>
+      <c r="H702" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="703" spans="1:8" ht="15" thickBot="1">
-      <c r="A703" s="1"/>
-      <c r="C703" s="1"/>
-      <c r="D703" s="1"/>
-      <c r="E703" s="1"/>
-      <c r="F703" s="1"/>
-      <c r="G703" s="1"/>
-      <c r="H703" s="1"/>
+      <c r="A703" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C703" s="2">
+        <v>8955446</v>
+      </c>
+      <c r="D703" s="2">
+        <v>4362502</v>
+      </c>
+      <c r="E703" s="5">
+        <v>45638.458333333336</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G703" s="2">
+        <v>38</v>
+      </c>
+      <c r="H703" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="704" spans="1:8" ht="15" thickBot="1">
-      <c r="A704" s="1"/>
-      <c r="C704" s="1"/>
-      <c r="D704" s="1"/>
-      <c r="E704" s="1"/>
-      <c r="F704" s="1"/>
-      <c r="G704" s="1"/>
-      <c r="H704" s="1"/>
+      <c r="A704" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C704" s="2">
+        <v>8935941</v>
+      </c>
+      <c r="D704" s="2">
+        <v>4362502</v>
+      </c>
+      <c r="E704" s="5">
+        <v>45630.458333333336</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G704" s="2">
+        <v>38</v>
+      </c>
+      <c r="H704" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="705" spans="1:8" ht="15" thickBot="1">
-      <c r="A705" s="1"/>
-      <c r="C705" s="1"/>
-      <c r="D705" s="1"/>
-      <c r="E705" s="1"/>
-      <c r="F705" s="1"/>
-      <c r="G705" s="1"/>
-      <c r="H705" s="1"/>
+      <c r="A705" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C705" s="2">
+        <v>8943073</v>
+      </c>
+      <c r="D705" s="2">
+        <v>4362502</v>
+      </c>
+      <c r="E705" s="5">
+        <v>45632.958333333336</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G705" s="2">
+        <v>38</v>
+      </c>
+      <c r="H705" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="706" spans="1:8" ht="15" thickBot="1">
-      <c r="A706" s="1"/>
-      <c r="C706" s="1"/>
-      <c r="D706" s="1"/>
-      <c r="E706" s="1"/>
-      <c r="F706" s="1"/>
-      <c r="G706" s="1"/>
-      <c r="H706" s="1"/>
+      <c r="A706" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C706" s="2">
+        <v>8866079</v>
+      </c>
+      <c r="D706" s="2">
+        <v>5876316</v>
+      </c>
+      <c r="E706" s="5">
+        <v>45645.958333333336</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G706" s="2">
+        <v>22</v>
+      </c>
+      <c r="H706" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="707" spans="1:8" ht="15" thickBot="1">
-      <c r="A707" s="1"/>
-      <c r="C707" s="1"/>
-      <c r="D707" s="1"/>
-      <c r="E707" s="1"/>
-      <c r="F707" s="1"/>
-      <c r="G707" s="1"/>
-      <c r="H707" s="1"/>
+      <c r="A707" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C707" s="2">
+        <v>8943036</v>
+      </c>
+      <c r="D707" s="2">
+        <v>5528359</v>
+      </c>
+      <c r="E707" s="5">
+        <v>45632.958333333336</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G707" s="2">
+        <v>55</v>
+      </c>
+      <c r="H707" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="708" spans="1:8" ht="15" thickBot="1">
-      <c r="A708" s="1"/>
-      <c r="C708" s="1"/>
-      <c r="D708" s="1"/>
-      <c r="E708" s="1"/>
-      <c r="F708" s="1"/>
-      <c r="G708" s="1"/>
-      <c r="H708" s="1"/>
+      <c r="A708" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C708" s="2">
+        <v>8991643</v>
+      </c>
+      <c r="D708" s="2">
+        <v>6591078</v>
+      </c>
+      <c r="E708" s="5">
+        <v>45654.458333333336</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G708" s="2">
+        <v>47</v>
+      </c>
+      <c r="H708" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="709" spans="1:8" ht="15" thickBot="1">
-      <c r="A709" s="1"/>
-      <c r="C709" s="1"/>
-      <c r="D709" s="1"/>
-      <c r="E709" s="1"/>
-      <c r="F709" s="1"/>
-      <c r="G709" s="1"/>
-      <c r="H709" s="1"/>
+      <c r="A709" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C709" s="2">
+        <v>8950034</v>
+      </c>
+      <c r="D709" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E709" s="5">
+        <v>45635.958333333336</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G709" s="2">
+        <v>29</v>
+      </c>
+      <c r="H709" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="710" spans="1:8" ht="15" thickBot="1">
-      <c r="A710" s="1"/>
-      <c r="C710" s="1"/>
-      <c r="D710" s="1"/>
-      <c r="E710" s="1"/>
-      <c r="F710" s="1"/>
-      <c r="G710" s="1"/>
-      <c r="H710" s="1"/>
+      <c r="A710" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C710" s="2">
+        <v>8948097</v>
+      </c>
+      <c r="D710" s="2">
+        <v>5576941</v>
+      </c>
+      <c r="E710" s="5">
+        <v>45638.458333333336</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G710" s="2">
+        <v>64</v>
+      </c>
+      <c r="H710" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="711" spans="1:8" ht="15" thickBot="1">
-      <c r="A711" s="1"/>
-      <c r="C711" s="1"/>
-      <c r="D711" s="1"/>
-      <c r="E711" s="1"/>
-      <c r="F711" s="1"/>
-      <c r="G711" s="1"/>
-      <c r="H711" s="1"/>
+      <c r="A711" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C711" s="2">
+        <v>8945663</v>
+      </c>
+      <c r="D711" s="2">
+        <v>4140323</v>
+      </c>
+      <c r="E711" s="5">
+        <v>45634.958333333336</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G711" s="2">
+        <v>44</v>
+      </c>
+      <c r="H711" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="712" spans="1:8" ht="15" thickBot="1">
-      <c r="A712" s="1"/>
-      <c r="C712" s="1"/>
-      <c r="D712" s="1"/>
-      <c r="E712" s="1"/>
-      <c r="F712" s="1"/>
-      <c r="G712" s="1"/>
-      <c r="H712" s="1"/>
+      <c r="A712" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C712" s="2">
+        <v>8964559</v>
+      </c>
+      <c r="D712" s="2">
+        <v>4946607</v>
+      </c>
+      <c r="E712" s="5">
+        <v>45641.958333333336</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G712" s="2">
+        <v>53</v>
+      </c>
+      <c r="H712" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="713" spans="1:8" ht="15" thickBot="1">
-      <c r="A713" s="1"/>
-      <c r="C713" s="1"/>
-      <c r="D713" s="1"/>
-      <c r="E713" s="1"/>
-      <c r="F713" s="1"/>
-      <c r="G713" s="1"/>
-      <c r="H713" s="1"/>
+      <c r="A713" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C713" s="2">
+        <v>8951093</v>
+      </c>
+      <c r="D713" s="2">
+        <v>4424391</v>
+      </c>
+      <c r="E713" s="5">
+        <v>45636.458333333336</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G713" s="2">
+        <v>36</v>
+      </c>
+      <c r="H713" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="714" spans="1:8" ht="15" thickBot="1">
-      <c r="A714" s="1"/>
-      <c r="C714" s="1"/>
-      <c r="D714" s="1"/>
-      <c r="E714" s="1"/>
-      <c r="F714" s="1"/>
-      <c r="G714" s="1"/>
-      <c r="H714" s="1"/>
+      <c r="A714" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C714" s="2">
+        <v>8931342</v>
+      </c>
+      <c r="D714" s="2">
+        <v>4145467</v>
+      </c>
+      <c r="E714" s="5">
+        <v>45633.458333333336</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G714" s="2">
+        <v>53</v>
+      </c>
+      <c r="H714" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="715" spans="1:8" ht="15" thickBot="1">
-      <c r="A715" s="1"/>
-      <c r="C715" s="1"/>
-      <c r="D715" s="1"/>
-      <c r="E715" s="1"/>
-      <c r="F715" s="1"/>
-      <c r="G715" s="1"/>
-      <c r="H715" s="1"/>
+      <c r="A715" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C715" s="2">
+        <v>8985863</v>
+      </c>
+      <c r="D715" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E715" s="5">
+        <v>45651.958333333336</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G715" s="2">
+        <v>35</v>
+      </c>
+      <c r="H715" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="716" spans="1:8" ht="15" thickBot="1">
-      <c r="A716" s="1"/>
-      <c r="C716" s="1"/>
-      <c r="D716" s="1"/>
-      <c r="E716" s="1"/>
-      <c r="F716" s="1"/>
-      <c r="G716" s="1"/>
-      <c r="H716" s="1"/>
+      <c r="A716" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C716" s="2">
+        <v>8920989</v>
+      </c>
+      <c r="D716" s="2">
+        <v>5308796</v>
+      </c>
+      <c r="E716" s="5">
+        <v>45647.458333333336</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G716" s="2">
+        <v>37</v>
+      </c>
+      <c r="H716" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="717" spans="1:8" ht="15" thickBot="1">
-      <c r="A717" s="1"/>
-      <c r="C717" s="1"/>
-      <c r="D717" s="1"/>
-      <c r="E717" s="1"/>
-      <c r="F717" s="1"/>
-      <c r="G717" s="1"/>
-      <c r="H717" s="1"/>
+      <c r="A717" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C717" s="2">
+        <v>8934661</v>
+      </c>
+      <c r="D717" s="2">
+        <v>6532418</v>
+      </c>
+      <c r="E717" s="5">
+        <v>45629.958333333336</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G717" s="2">
+        <v>46</v>
+      </c>
+      <c r="H717" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="718" spans="1:8" ht="15" thickBot="1">
-      <c r="A718" s="1"/>
-      <c r="C718" s="1"/>
-      <c r="D718" s="1"/>
-      <c r="E718" s="1"/>
-      <c r="F718" s="1"/>
-      <c r="G718" s="1"/>
-      <c r="H718" s="1"/>
+      <c r="A718" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C718" s="2">
+        <v>8907551</v>
+      </c>
+      <c r="D718" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E718" s="5">
+        <v>45627.458333333336</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G718" s="2">
+        <v>26</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="719" spans="1:8" ht="15" thickBot="1">
-      <c r="A719" s="1"/>
-      <c r="C719" s="1"/>
-      <c r="D719" s="1"/>
-      <c r="E719" s="1"/>
-      <c r="F719" s="1"/>
-      <c r="G719" s="1"/>
-      <c r="H719" s="1"/>
+      <c r="A719" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C719" s="2">
+        <v>8950552</v>
+      </c>
+      <c r="D719" s="2">
+        <v>6326061</v>
+      </c>
+      <c r="E719" s="5">
+        <v>45636.458333333336</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G719" s="2">
+        <v>38</v>
+      </c>
+      <c r="H719" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="720" spans="1:8" ht="15" thickBot="1">
-      <c r="A720" s="1"/>
-      <c r="C720" s="1"/>
-      <c r="D720" s="1"/>
-      <c r="E720" s="1"/>
-      <c r="F720" s="1"/>
-      <c r="G720" s="1"/>
-      <c r="H720" s="1"/>
+      <c r="A720" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C720" s="2">
+        <v>8947252</v>
+      </c>
+      <c r="D720" s="2">
+        <v>5244833</v>
+      </c>
+      <c r="E720" s="5">
+        <v>45635.458333333336</v>
+      </c>
+      <c r="F720" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G720" s="2">
+        <v>23</v>
+      </c>
+      <c r="H720" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="721" spans="1:8" ht="15" thickBot="1">
-      <c r="A721" s="1"/>
-      <c r="C721" s="1"/>
-      <c r="D721" s="1"/>
-      <c r="E721" s="1"/>
-      <c r="F721" s="1"/>
-      <c r="G721" s="1"/>
-      <c r="H721" s="1"/>
+      <c r="A721" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C721" s="2">
+        <v>8978165</v>
+      </c>
+      <c r="D721" s="2">
+        <v>5244833</v>
+      </c>
+      <c r="E721" s="5">
+        <v>45647.458333333336</v>
+      </c>
+      <c r="F721" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G721" s="2">
+        <v>23</v>
+      </c>
+      <c r="H721" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="722" spans="1:8" ht="15" thickBot="1">
-      <c r="A722" s="1"/>
-      <c r="C722" s="1"/>
-      <c r="D722" s="1"/>
-      <c r="E722" s="1"/>
-      <c r="F722" s="1"/>
-      <c r="G722" s="1"/>
-      <c r="H722" s="1"/>
+      <c r="A722" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C722" s="2">
+        <v>8965925</v>
+      </c>
+      <c r="D722" s="2">
+        <v>6561594</v>
+      </c>
+      <c r="E722" s="5">
+        <v>45642.458333333336</v>
+      </c>
+      <c r="F722" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G722" s="2">
+        <v>20</v>
+      </c>
+      <c r="H722" s="2">
+        <v>3227</v>
+      </c>
     </row>
     <row r="723" spans="1:8" ht="15" thickBot="1">
-      <c r="A723" s="1"/>
-      <c r="C723" s="1"/>
-      <c r="D723" s="1"/>
-      <c r="E723" s="1"/>
-      <c r="F723" s="1"/>
-      <c r="G723" s="1"/>
-      <c r="H723" s="1"/>
+      <c r="A723" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C723" s="2">
+        <v>8956590</v>
+      </c>
+      <c r="D723" s="2">
+        <v>6024072</v>
+      </c>
+      <c r="E723" s="5">
+        <v>45640.458333333336</v>
+      </c>
+      <c r="F723" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G723" s="2">
+        <v>24</v>
+      </c>
+      <c r="H723" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="724" spans="1:8" ht="15" thickBot="1">
-      <c r="A724" s="1"/>
-      <c r="C724" s="1"/>
-      <c r="D724" s="1"/>
-      <c r="E724" s="1"/>
-      <c r="F724" s="1"/>
-      <c r="G724" s="1"/>
-      <c r="H724" s="1"/>
+      <c r="A724" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C724" s="2">
+        <v>8899092</v>
+      </c>
+      <c r="D724" s="2">
+        <v>5424898</v>
+      </c>
+      <c r="E724" s="5">
+        <v>45652.958333333336</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G724" s="2">
+        <v>33</v>
+      </c>
+      <c r="H724" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="725" spans="1:8" ht="15" thickBot="1">
-      <c r="A725" s="1"/>
-      <c r="C725" s="1"/>
-      <c r="D725" s="1"/>
-      <c r="E725" s="1"/>
-      <c r="F725" s="1"/>
-      <c r="G725" s="1"/>
-      <c r="H725" s="1"/>
+      <c r="A725" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C725" s="2">
+        <v>8977949</v>
+      </c>
+      <c r="D725" s="2">
+        <v>6242892</v>
+      </c>
+      <c r="E725" s="5">
+        <v>45647.458333333336</v>
+      </c>
+      <c r="F725" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G725" s="2">
+        <v>61</v>
+      </c>
+      <c r="H725" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="726" spans="1:8" ht="15" thickBot="1">
-      <c r="A726" s="1"/>
-      <c r="C726" s="1"/>
-      <c r="D726" s="1"/>
-      <c r="E726" s="1"/>
-      <c r="F726" s="1"/>
-      <c r="G726" s="1"/>
-      <c r="H726" s="1"/>
+      <c r="A726" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C726" s="2">
+        <v>8928262</v>
+      </c>
+      <c r="D726" s="2">
+        <v>4553140</v>
+      </c>
+      <c r="E726" s="5">
+        <v>45627.458333333336</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G726" s="2">
+        <v>22</v>
+      </c>
+      <c r="H726" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="727" spans="1:8" ht="15" thickBot="1">
-      <c r="A727" s="1"/>
-      <c r="C727" s="1"/>
-      <c r="D727" s="1"/>
-      <c r="E727" s="1"/>
-      <c r="F727" s="1"/>
-      <c r="G727" s="1"/>
-      <c r="H727" s="1"/>
+      <c r="A727" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C727" s="2">
+        <v>8982748</v>
+      </c>
+      <c r="D727" s="2">
+        <v>5581512</v>
+      </c>
+      <c r="E727" s="5">
+        <v>45649.958333333336</v>
+      </c>
+      <c r="F727" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G727" s="2">
+        <v>31</v>
+      </c>
+      <c r="H727" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="728" spans="1:8" ht="15" thickBot="1">
-      <c r="A728" s="1"/>
-      <c r="C728" s="1"/>
-      <c r="D728" s="1"/>
-      <c r="E728" s="1"/>
-      <c r="F728" s="1"/>
-      <c r="G728" s="1"/>
-      <c r="H728" s="1"/>
+      <c r="A728" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C728" s="2">
+        <v>8995795</v>
+      </c>
+      <c r="D728" s="2">
+        <v>5581512</v>
+      </c>
+      <c r="E728" s="5">
+        <v>45656.958333333336</v>
+      </c>
+      <c r="F728" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G728" s="2">
+        <v>31</v>
+      </c>
+      <c r="H728" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="729" spans="1:8" ht="15" thickBot="1">
-      <c r="A729" s="1"/>
-      <c r="C729" s="1"/>
-      <c r="D729" s="1"/>
-      <c r="E729" s="1"/>
-      <c r="F729" s="1"/>
-      <c r="G729" s="1"/>
-      <c r="H729" s="1"/>
+      <c r="A729" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C729" s="2">
+        <v>8946402</v>
+      </c>
+      <c r="D729" s="2">
+        <v>6542842</v>
+      </c>
+      <c r="E729" s="5">
+        <v>45636.958333333336</v>
+      </c>
+      <c r="F729" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G729" s="2">
+        <v>35</v>
+      </c>
+      <c r="H729" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="730" spans="1:8" ht="15" thickBot="1">
-      <c r="A730" s="1"/>
-      <c r="C730" s="1"/>
-      <c r="D730" s="1"/>
-      <c r="E730" s="1"/>
-      <c r="F730" s="1"/>
-      <c r="G730" s="1"/>
-      <c r="H730" s="1"/>
+      <c r="A730" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C730" s="2">
+        <v>8934056</v>
+      </c>
+      <c r="D730" s="2">
+        <v>6531399</v>
+      </c>
+      <c r="E730" s="5">
+        <v>45631.458333333336</v>
+      </c>
+      <c r="F730" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G730" s="2">
+        <v>62</v>
+      </c>
+      <c r="H730" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="731" spans="1:8" ht="15" thickBot="1">
-      <c r="A731" s="1"/>
-      <c r="C731" s="1"/>
-      <c r="D731" s="1"/>
-      <c r="E731" s="1"/>
-      <c r="F731" s="1"/>
-      <c r="G731" s="1"/>
-      <c r="H731" s="1"/>
+      <c r="A731" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C731" s="2">
+        <v>8982231</v>
+      </c>
+      <c r="D731" s="2">
+        <v>6489062</v>
+      </c>
+      <c r="E731" s="5">
+        <v>45649.458333333336</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G731" s="2">
+        <v>31</v>
+      </c>
+      <c r="H731" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="732" spans="1:8" ht="15" thickBot="1">
-      <c r="A732" s="1"/>
-      <c r="C732" s="1"/>
-      <c r="D732" s="1"/>
-      <c r="E732" s="1"/>
-      <c r="F732" s="1"/>
-      <c r="G732" s="1"/>
-      <c r="H732" s="1"/>
+      <c r="A732" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C732" s="2">
+        <v>8946467</v>
+      </c>
+      <c r="D732" s="2">
+        <v>4173483</v>
+      </c>
+      <c r="E732" s="5">
+        <v>45649.458333333336</v>
+      </c>
+      <c r="F732" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G732" s="2">
+        <v>41</v>
+      </c>
+      <c r="H732" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="733" spans="1:8" ht="15" thickBot="1">
-      <c r="A733" s="1"/>
-      <c r="C733" s="1"/>
-      <c r="D733" s="1"/>
-      <c r="E733" s="1"/>
-      <c r="F733" s="1"/>
-      <c r="G733" s="1"/>
-      <c r="H733" s="1"/>
+      <c r="A733" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C733" s="2">
+        <v>8970375</v>
+      </c>
+      <c r="D733" s="2">
+        <v>6566371</v>
+      </c>
+      <c r="E733" s="5">
+        <v>45644.458333333336</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G733" s="2">
+        <v>38</v>
+      </c>
+      <c r="H733" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="734" spans="1:8" ht="15" thickBot="1">
-      <c r="A734" s="1"/>
-      <c r="C734" s="1"/>
-      <c r="D734" s="1"/>
-      <c r="E734" s="1"/>
-      <c r="F734" s="1"/>
-      <c r="G734" s="1"/>
-      <c r="H734" s="1"/>
+      <c r="A734" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C734" s="2">
+        <v>8956579</v>
+      </c>
+      <c r="D734" s="2">
+        <v>5837342</v>
+      </c>
+      <c r="E734" s="5">
+        <v>45638.458333333336</v>
+      </c>
+      <c r="F734" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G734" s="2">
+        <v>24</v>
+      </c>
+      <c r="H734" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="735" spans="1:8" ht="15" thickBot="1">
-      <c r="A735" s="1"/>
-      <c r="C735" s="1"/>
-      <c r="D735" s="1"/>
-      <c r="E735" s="1"/>
-      <c r="F735" s="1"/>
-      <c r="G735" s="1"/>
-      <c r="H735" s="1"/>
+      <c r="A735" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C735" s="2">
+        <v>8929846</v>
+      </c>
+      <c r="D735" s="2">
+        <v>5721412</v>
+      </c>
+      <c r="E735" s="5">
+        <v>45629.958333333336</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G735" s="2">
+        <v>37</v>
+      </c>
+      <c r="H735" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="736" spans="1:8" ht="15" thickBot="1">
-      <c r="A736" s="1"/>
-      <c r="C736" s="1"/>
-      <c r="D736" s="1"/>
-      <c r="E736" s="1"/>
-      <c r="F736" s="1"/>
-      <c r="G736" s="1"/>
-      <c r="H736" s="1"/>
+      <c r="A736" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C736" s="2">
+        <v>8944774</v>
+      </c>
+      <c r="D736" s="2">
+        <v>4225773</v>
+      </c>
+      <c r="E736" s="5">
+        <v>45633.958333333336</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G736" s="2">
+        <v>40</v>
+      </c>
+      <c r="H736" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="737" spans="1:8" ht="15" thickBot="1">
-      <c r="A737" s="1"/>
-      <c r="C737" s="1"/>
-      <c r="D737" s="1"/>
-      <c r="E737" s="1"/>
-      <c r="F737" s="1"/>
-      <c r="G737" s="1"/>
-      <c r="H737" s="1"/>
+      <c r="A737" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C737" s="2">
+        <v>8973834</v>
+      </c>
+      <c r="D737" s="2">
+        <v>6380831</v>
+      </c>
+      <c r="E737" s="5">
+        <v>45645.958333333336</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G737" s="2">
+        <v>45</v>
+      </c>
+      <c r="H737" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="738" spans="1:8" ht="15" thickBot="1">
-      <c r="A738" s="1"/>
-      <c r="C738" s="1"/>
-      <c r="D738" s="1"/>
-      <c r="E738" s="1"/>
-      <c r="F738" s="1"/>
-      <c r="G738" s="1"/>
-      <c r="H738" s="1"/>
+      <c r="A738" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C738" s="2">
+        <v>8935464</v>
+      </c>
+      <c r="D738" s="2">
+        <v>4480083</v>
+      </c>
+      <c r="E738" s="5">
+        <v>45637.458333333336</v>
+      </c>
+      <c r="F738" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G738" s="2">
+        <v>68</v>
+      </c>
+      <c r="H738" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="739" spans="1:8" ht="15" thickBot="1">
-      <c r="A739" s="1"/>
-      <c r="C739" s="1"/>
-      <c r="D739" s="1"/>
-      <c r="E739" s="1"/>
-      <c r="F739" s="1"/>
-      <c r="G739" s="1"/>
-      <c r="H739" s="1"/>
+      <c r="A739" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C739" s="2">
+        <v>9004914</v>
+      </c>
+      <c r="D739" s="2">
+        <v>4362502</v>
+      </c>
+      <c r="E739" s="5">
+        <v>45660.958333333336</v>
+      </c>
+      <c r="F739" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G739" s="2">
+        <v>39</v>
+      </c>
+      <c r="H739" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="740" spans="1:8" ht="15" thickBot="1">
-      <c r="A740" s="1"/>
-      <c r="C740" s="1"/>
-      <c r="D740" s="1"/>
-      <c r="E740" s="1"/>
-      <c r="F740" s="1"/>
-      <c r="G740" s="1"/>
-      <c r="H740" s="1"/>
+      <c r="A740" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C740" s="2">
+        <v>9020304</v>
+      </c>
+      <c r="D740" s="2">
+        <v>4328463</v>
+      </c>
+      <c r="E740" s="5">
+        <v>45668.458333333336</v>
+      </c>
+      <c r="F740" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G740" s="2">
+        <v>33</v>
+      </c>
+      <c r="H740" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="741" spans="1:8" ht="15" thickBot="1">
-      <c r="A741" s="1"/>
-      <c r="C741" s="1"/>
-      <c r="D741" s="1"/>
-      <c r="E741" s="1"/>
-      <c r="F741" s="1"/>
-      <c r="G741" s="1"/>
-      <c r="H741" s="1"/>
+      <c r="A741" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C741" s="2">
+        <v>9028675</v>
+      </c>
+      <c r="D741" s="2">
+        <v>4289281</v>
+      </c>
+      <c r="E741" s="5">
+        <v>45673.458333333336</v>
+      </c>
+      <c r="F741" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G741" s="2">
+        <v>26</v>
+      </c>
+      <c r="H741" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="742" spans="1:8" ht="15" thickBot="1">
-      <c r="A742" s="1"/>
-      <c r="C742" s="1"/>
-      <c r="D742" s="1"/>
-      <c r="E742" s="1"/>
-      <c r="F742" s="1"/>
-      <c r="G742" s="1"/>
-      <c r="H742" s="1"/>
+      <c r="A742" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C742" s="2">
+        <v>9012480</v>
+      </c>
+      <c r="D742" s="2">
+        <v>4289281</v>
+      </c>
+      <c r="E742" s="5">
+        <v>45667.458333333336</v>
+      </c>
+      <c r="F742" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G742" s="2">
+        <v>26</v>
+      </c>
+      <c r="H742" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="743" spans="1:8" ht="15" thickBot="1">
-      <c r="A743" s="1"/>
-      <c r="C743" s="1"/>
-      <c r="D743" s="1"/>
-      <c r="E743" s="1"/>
-      <c r="F743" s="1"/>
-      <c r="G743" s="1"/>
-      <c r="H743" s="1"/>
+      <c r="A743" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C743" s="2">
+        <v>9034539</v>
+      </c>
+      <c r="D743" s="2">
+        <v>6633106</v>
+      </c>
+      <c r="E743" s="5">
+        <v>45675.458333333336</v>
+      </c>
+      <c r="F743" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G743" s="2">
+        <v>55</v>
+      </c>
+      <c r="H743" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="744" spans="1:8" ht="15" thickBot="1">
-      <c r="A744" s="1"/>
-      <c r="C744" s="1"/>
-      <c r="D744" s="1"/>
-      <c r="E744" s="1"/>
-      <c r="F744" s="1"/>
-      <c r="G744" s="1"/>
-      <c r="H744" s="1"/>
+      <c r="A744" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C744" s="2">
+        <v>9038769</v>
+      </c>
+      <c r="D744" s="2">
+        <v>6275420</v>
+      </c>
+      <c r="E744" s="5">
+        <v>45678.458333333336</v>
+      </c>
+      <c r="F744" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G744" s="2">
+        <v>39</v>
+      </c>
+      <c r="H744" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="745" spans="1:8" ht="15" thickBot="1">
-      <c r="A745" s="1"/>
-      <c r="C745" s="1"/>
-      <c r="D745" s="1"/>
-      <c r="E745" s="1"/>
-      <c r="F745" s="1"/>
-      <c r="G745" s="1"/>
-      <c r="H745" s="1"/>
+      <c r="A745" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C745" s="2">
+        <v>9006855</v>
+      </c>
+      <c r="D745" s="2">
+        <v>6606811</v>
+      </c>
+      <c r="E745" s="5">
+        <v>45666.958333333336</v>
+      </c>
+      <c r="F745" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G745" s="2">
+        <v>23</v>
+      </c>
+      <c r="H745" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="746" spans="1:8" ht="15" thickBot="1">
-      <c r="A746" s="1"/>
-      <c r="C746" s="1"/>
-      <c r="D746" s="1"/>
-      <c r="E746" s="1"/>
-      <c r="F746" s="1"/>
-      <c r="G746" s="1"/>
-      <c r="H746" s="1"/>
+      <c r="A746" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C746" s="2">
+        <v>9005578</v>
+      </c>
+      <c r="D746" s="2">
+        <v>6605798</v>
+      </c>
+      <c r="E746" s="5">
+        <v>45662.458333333336</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G746" s="2">
+        <v>36</v>
+      </c>
+      <c r="H746" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="747" spans="1:8" ht="15" thickBot="1">
-      <c r="A747" s="1"/>
-      <c r="C747" s="1"/>
-      <c r="D747" s="1"/>
-      <c r="E747" s="1"/>
-      <c r="F747" s="1"/>
-      <c r="G747" s="1"/>
-      <c r="H747" s="1"/>
+      <c r="A747" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C747" s="2">
+        <v>9027901</v>
+      </c>
+      <c r="D747" s="2">
+        <v>5638445</v>
+      </c>
+      <c r="E747" s="5">
+        <v>45672.958333333336</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G747" s="2">
+        <v>39</v>
+      </c>
+      <c r="H747" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="748" spans="1:8" ht="15" thickBot="1">
-      <c r="A748" s="1"/>
-      <c r="C748" s="1"/>
-      <c r="D748" s="1"/>
-      <c r="E748" s="1"/>
-      <c r="F748" s="1"/>
-      <c r="G748" s="1"/>
-      <c r="H748" s="1"/>
+      <c r="A748" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C748" s="2">
+        <v>9009407</v>
+      </c>
+      <c r="D748" s="2">
+        <v>5682641</v>
+      </c>
+      <c r="E748" s="5">
+        <v>45664.458333333336</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G748" s="2">
+        <v>51</v>
+      </c>
+      <c r="H748" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="749" spans="1:8" ht="15" thickBot="1">
-      <c r="A749" s="1"/>
-      <c r="C749" s="1"/>
-      <c r="D749" s="1"/>
-      <c r="E749" s="1"/>
-      <c r="F749" s="1"/>
-      <c r="G749" s="1"/>
-      <c r="H749" s="1"/>
+      <c r="A749" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C749" s="2">
+        <v>9053404</v>
+      </c>
+      <c r="D749" s="2">
+        <v>4266477</v>
+      </c>
+      <c r="E749" s="5">
+        <v>45684.958333333336</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G749" s="2">
+        <v>26</v>
+      </c>
+      <c r="H749" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="750" spans="1:8" ht="15" thickBot="1">
-      <c r="A750" s="1"/>
-      <c r="C750" s="1"/>
-      <c r="D750" s="1"/>
-      <c r="E750" s="1"/>
-      <c r="F750" s="1"/>
-      <c r="G750" s="1"/>
-      <c r="H750" s="1"/>
+      <c r="A750" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C750" s="2">
+        <v>9005616</v>
+      </c>
+      <c r="D750" s="2">
+        <v>6590522</v>
+      </c>
+      <c r="E750" s="5">
+        <v>45661.458333333336</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G750" s="2">
+        <v>33</v>
+      </c>
+      <c r="H750" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="751" spans="1:8" ht="15" thickBot="1">
-      <c r="A751" s="1"/>
-      <c r="C751" s="1"/>
-      <c r="D751" s="1"/>
-      <c r="E751" s="1"/>
-      <c r="F751" s="1"/>
-      <c r="G751" s="1"/>
-      <c r="H751" s="1"/>
+      <c r="A751" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C751" s="2">
+        <v>9020230</v>
+      </c>
+      <c r="D751" s="2">
+        <v>6619469</v>
+      </c>
+      <c r="E751" s="5">
+        <v>45668.458333333336</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G751" s="2">
+        <v>22</v>
+      </c>
+      <c r="H751" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="752" spans="1:8" ht="15" thickBot="1">
-      <c r="A752" s="1"/>
-      <c r="C752" s="1"/>
-      <c r="D752" s="1"/>
-      <c r="E752" s="1"/>
-      <c r="F752" s="1"/>
-      <c r="G752" s="1"/>
-      <c r="H752" s="1"/>
+      <c r="A752" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C752" s="2">
+        <v>9002974</v>
+      </c>
+      <c r="D752" s="2">
+        <v>4285706</v>
+      </c>
+      <c r="E752" s="5">
+        <v>45660.458333333336</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G752" s="2">
+        <v>41</v>
+      </c>
+      <c r="H752" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="753" spans="1:8" ht="15" thickBot="1">
-      <c r="A753" s="1"/>
-      <c r="C753" s="1"/>
-      <c r="D753" s="1"/>
-      <c r="E753" s="1"/>
-      <c r="F753" s="1"/>
-      <c r="G753" s="1"/>
-      <c r="H753" s="1"/>
+      <c r="A753" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C753" s="2">
+        <v>9027017</v>
+      </c>
+      <c r="D753" s="2">
+        <v>4285706</v>
+      </c>
+      <c r="E753" s="5">
+        <v>45672.458333333336</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G753" s="2">
+        <v>41</v>
+      </c>
+      <c r="H753" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="754" spans="1:8" ht="15" thickBot="1">
-      <c r="A754" s="1"/>
-      <c r="C754" s="1"/>
-      <c r="D754" s="1"/>
-      <c r="E754" s="1"/>
-      <c r="F754" s="1"/>
-      <c r="G754" s="1"/>
-      <c r="H754" s="1"/>
+      <c r="A754" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C754" s="2">
+        <v>9012979</v>
+      </c>
+      <c r="D754" s="2">
+        <v>5215115</v>
+      </c>
+      <c r="E754" s="5">
+        <v>45664.958333333336</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G754" s="2">
+        <v>24</v>
+      </c>
+      <c r="H754" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="755" spans="1:8" ht="15" thickBot="1">
-      <c r="A755" s="1"/>
-      <c r="C755" s="1"/>
-      <c r="D755" s="1"/>
-      <c r="E755" s="1"/>
-      <c r="F755" s="1"/>
-      <c r="G755" s="1"/>
-      <c r="H755" s="1"/>
+      <c r="A755" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C755" s="2">
+        <v>9038014</v>
+      </c>
+      <c r="D755" s="2">
+        <v>6364177</v>
+      </c>
+      <c r="E755" s="5">
+        <v>45676.958333333336</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G755" s="2">
+        <v>29</v>
+      </c>
+      <c r="H755" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="756" spans="1:8" ht="15" thickBot="1">
-      <c r="A756" s="1"/>
-      <c r="C756" s="1"/>
-      <c r="D756" s="1"/>
-      <c r="E756" s="1"/>
-      <c r="F756" s="1"/>
-      <c r="G756" s="1"/>
-      <c r="H756" s="1"/>
+      <c r="A756" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C756" s="2">
+        <v>9009292</v>
+      </c>
+      <c r="D756" s="2">
+        <v>5581970</v>
+      </c>
+      <c r="E756" s="5">
+        <v>45664.458333333336</v>
+      </c>
+      <c r="F756" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G756" s="2">
+        <v>62</v>
+      </c>
+      <c r="H756" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="757" spans="1:8" ht="15" thickBot="1">
-      <c r="A757" s="1"/>
-      <c r="C757" s="1"/>
-      <c r="D757" s="1"/>
-      <c r="E757" s="1"/>
-      <c r="F757" s="1"/>
-      <c r="G757" s="1"/>
-      <c r="H757" s="1"/>
+      <c r="A757" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C757" s="2">
+        <v>9023402</v>
+      </c>
+      <c r="D757" s="2">
+        <v>6622590</v>
+      </c>
+      <c r="E757" s="5">
+        <v>45677.458333333336</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G757" s="2">
+        <v>31</v>
+      </c>
+      <c r="H757" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="758" spans="1:8" ht="15" thickBot="1">
-      <c r="A758" s="1"/>
-      <c r="C758" s="1"/>
-      <c r="D758" s="1"/>
-      <c r="E758" s="1"/>
-      <c r="F758" s="1"/>
-      <c r="G758" s="1"/>
-      <c r="H758" s="1"/>
+      <c r="A758" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C758" s="2">
+        <v>9041112</v>
+      </c>
+      <c r="D758" s="2">
+        <v>6587679</v>
+      </c>
+      <c r="E758" s="5">
+        <v>45680.958333333336</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G758" s="2">
+        <v>51</v>
+      </c>
+      <c r="H758" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="759" spans="1:8" ht="15" thickBot="1">
-      <c r="A759" s="1"/>
-      <c r="C759" s="1"/>
-      <c r="D759" s="1"/>
-      <c r="E759" s="1"/>
-      <c r="F759" s="1"/>
-      <c r="G759" s="1"/>
-      <c r="H759" s="1"/>
+      <c r="A759" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C759" s="2">
+        <v>9021494</v>
+      </c>
+      <c r="D759" s="2">
+        <v>6620770</v>
+      </c>
+      <c r="E759" s="5">
+        <v>45669.458333333336</v>
+      </c>
+      <c r="F759" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G759" s="2">
+        <v>29</v>
+      </c>
+      <c r="H759" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="760" spans="1:8" ht="15" thickBot="1">
-      <c r="A760" s="1"/>
-      <c r="C760" s="1"/>
-      <c r="D760" s="1"/>
-      <c r="E760" s="1"/>
-      <c r="F760" s="1"/>
-      <c r="G760" s="1"/>
-      <c r="H760" s="1"/>
+      <c r="A760" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C760" s="2">
+        <v>9033703</v>
+      </c>
+      <c r="D760" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E760" s="5">
+        <v>45687.458333333336</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G760" s="2">
+        <v>35</v>
+      </c>
+      <c r="H760" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="761" spans="1:8" ht="15" thickBot="1">
-      <c r="A761" s="1"/>
-      <c r="C761" s="1"/>
-      <c r="D761" s="1"/>
-      <c r="E761" s="1"/>
-      <c r="F761" s="1"/>
-      <c r="G761" s="1"/>
-      <c r="H761" s="1"/>
+      <c r="A761" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C761" s="2">
+        <v>9017481</v>
+      </c>
+      <c r="D761" s="2">
+        <v>6614992</v>
+      </c>
+      <c r="E761" s="5">
+        <v>45667.458333333336</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G761" s="2">
+        <v>26</v>
+      </c>
+      <c r="H761" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="762" spans="1:8" ht="15" thickBot="1">
-      <c r="A762" s="1"/>
-      <c r="C762" s="1"/>
-      <c r="D762" s="1"/>
-      <c r="E762" s="1"/>
-      <c r="F762" s="1"/>
-      <c r="G762" s="1"/>
-      <c r="H762" s="1"/>
+      <c r="A762" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C762" s="2">
+        <v>9044765</v>
+      </c>
+      <c r="D762" s="2">
+        <v>6642848</v>
+      </c>
+      <c r="E762" s="5">
+        <v>45682.458333333336</v>
+      </c>
+      <c r="F762" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G762" s="2">
+        <v>33</v>
+      </c>
+      <c r="H762" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="763" spans="1:8" ht="15" thickBot="1">
-      <c r="A763" s="1"/>
-      <c r="C763" s="1"/>
-      <c r="D763" s="1"/>
-      <c r="E763" s="1"/>
-      <c r="F763" s="1"/>
-      <c r="G763" s="1"/>
-      <c r="H763" s="1"/>
+      <c r="A763" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C763" s="2">
+        <v>9027305</v>
+      </c>
+      <c r="D763" s="2">
+        <v>5270250</v>
+      </c>
+      <c r="E763" s="5">
+        <v>45674.458333333336</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G763" s="2">
+        <v>23</v>
+      </c>
+      <c r="H763" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="764" spans="1:8" ht="15" thickBot="1">
-      <c r="A764" s="1"/>
-      <c r="C764" s="1"/>
-      <c r="D764" s="1"/>
-      <c r="E764" s="1"/>
-      <c r="F764" s="1"/>
-      <c r="G764" s="1"/>
-      <c r="H764" s="1"/>
+      <c r="A764" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C764" s="2">
+        <v>9038111</v>
+      </c>
+      <c r="D764" s="2">
+        <v>6326061</v>
+      </c>
+      <c r="E764" s="5">
+        <v>45677.458333333336</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G764" s="2">
+        <v>39</v>
+      </c>
+      <c r="H764" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="765" spans="1:8" ht="15" thickBot="1">
-      <c r="A765" s="1"/>
-      <c r="C765" s="1"/>
-      <c r="D765" s="1"/>
-      <c r="E765" s="1"/>
-      <c r="F765" s="1"/>
-      <c r="G765" s="1"/>
-      <c r="H765" s="1"/>
+      <c r="A765" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C765" s="2">
+        <v>9028496</v>
+      </c>
+      <c r="D765" s="2">
+        <v>4029015</v>
+      </c>
+      <c r="E765" s="5">
+        <v>45678.458333333336</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G765" s="2">
+        <v>37</v>
+      </c>
+      <c r="H765" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="766" spans="1:8" ht="15" thickBot="1">
-      <c r="A766" s="1"/>
-      <c r="C766" s="1"/>
-      <c r="D766" s="1"/>
-      <c r="E766" s="1"/>
-      <c r="F766" s="1"/>
-      <c r="G766" s="1"/>
-      <c r="H766" s="1"/>
+      <c r="A766" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C766" s="2">
+        <v>9028462</v>
+      </c>
+      <c r="D766" s="2">
+        <v>5859958</v>
+      </c>
+      <c r="E766" s="5">
+        <v>45673.458333333336</v>
+      </c>
+      <c r="F766" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G766" s="2">
+        <v>22</v>
+      </c>
+      <c r="H766" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="767" spans="1:8" ht="15" thickBot="1">
-      <c r="A767" s="1"/>
-      <c r="C767" s="1"/>
-      <c r="D767" s="1"/>
-      <c r="E767" s="1"/>
-      <c r="F767" s="1"/>
-      <c r="G767" s="1"/>
-      <c r="H767" s="1"/>
+      <c r="A767" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C767" s="2">
+        <v>9014019</v>
+      </c>
+      <c r="D767" s="2">
+        <v>6489062</v>
+      </c>
+      <c r="E767" s="5">
+        <v>45665.458333333336</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G767" s="2">
+        <v>31</v>
+      </c>
+      <c r="H767" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="768" spans="1:8" ht="15" thickBot="1">
-      <c r="A768" s="1"/>
-      <c r="C768" s="1"/>
-      <c r="D768" s="1"/>
-      <c r="E768" s="1"/>
-      <c r="F768" s="1"/>
-      <c r="G768" s="1"/>
-      <c r="H768" s="1"/>
+      <c r="A768" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C768" s="2">
+        <v>9023724</v>
+      </c>
+      <c r="D768" s="2">
+        <v>6489062</v>
+      </c>
+      <c r="E768" s="5">
+        <v>45670.458333333336</v>
+      </c>
+      <c r="F768" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G768" s="2">
+        <v>31</v>
+      </c>
+      <c r="H768" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="769" spans="1:8" ht="15" thickBot="1">
-      <c r="A769" s="1"/>
-      <c r="C769" s="1"/>
-      <c r="D769" s="1"/>
-      <c r="E769" s="1"/>
-      <c r="F769" s="1"/>
-      <c r="G769" s="1"/>
-      <c r="H769" s="1"/>
+      <c r="A769" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C769" s="2">
+        <v>9017593</v>
+      </c>
+      <c r="D769" s="2">
+        <v>5417908</v>
+      </c>
+      <c r="E769" s="5">
+        <v>45667.458333333336</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G769" s="2">
+        <v>44</v>
+      </c>
+      <c r="H769" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="770" spans="1:8" ht="15" thickBot="1">
-      <c r="A770" s="1"/>
-      <c r="C770" s="1"/>
-      <c r="D770" s="1"/>
-      <c r="E770" s="1"/>
-      <c r="F770" s="1"/>
-      <c r="G770" s="1"/>
-      <c r="H770" s="1"/>
+      <c r="A770" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C770" s="2">
+        <v>9015501</v>
+      </c>
+      <c r="D770" s="2">
+        <v>6498970</v>
+      </c>
+      <c r="E770" s="5">
+        <v>45667.458333333336</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G770" s="2">
+        <v>53</v>
+      </c>
+      <c r="H770" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="771" spans="1:8" ht="15" thickBot="1">
-      <c r="A771" s="1"/>
-      <c r="C771" s="1"/>
-      <c r="D771" s="1"/>
-      <c r="E771" s="1"/>
-      <c r="F771" s="1"/>
-      <c r="G771" s="1"/>
-      <c r="H771" s="1"/>
+      <c r="A771" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C771" s="2">
+        <v>9034738</v>
+      </c>
+      <c r="D771" s="2">
+        <v>4183804</v>
+      </c>
+      <c r="E771" s="5">
+        <v>45675.458333333336</v>
+      </c>
+      <c r="F771" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G771" s="2">
+        <v>30</v>
+      </c>
+      <c r="H771" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="772" spans="1:8" ht="15" thickBot="1">
-      <c r="A772" s="1"/>
-      <c r="C772" s="1"/>
-      <c r="D772" s="1"/>
-      <c r="E772" s="1"/>
-      <c r="F772" s="1"/>
-      <c r="G772" s="1"/>
-      <c r="H772" s="1"/>
+      <c r="A772" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C772" s="2">
+        <v>9003744</v>
+      </c>
+      <c r="D772" s="2">
+        <v>5861099</v>
+      </c>
+      <c r="E772" s="5">
+        <v>45661.458333333336</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G772" s="2">
+        <v>29</v>
+      </c>
+      <c r="H772" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="773" spans="1:8" ht="15" thickBot="1">
-      <c r="A773" s="1"/>
-      <c r="C773" s="1"/>
-      <c r="D773" s="1"/>
-      <c r="E773" s="1"/>
-      <c r="F773" s="1"/>
-      <c r="G773" s="1"/>
-      <c r="H773" s="1"/>
+      <c r="A773" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C773" s="2">
+        <v>9082754</v>
+      </c>
+      <c r="D773" s="2">
+        <v>4078722</v>
+      </c>
+      <c r="E773" s="5">
+        <v>45696.458333333336</v>
+      </c>
+      <c r="F773" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G773" s="2">
+        <v>26</v>
+      </c>
+      <c r="H773" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="774" spans="1:8" ht="15" thickBot="1">
-      <c r="A774" s="1"/>
-      <c r="C774" s="1"/>
-      <c r="D774" s="1"/>
-      <c r="E774" s="1"/>
-      <c r="F774" s="1"/>
-      <c r="G774" s="1"/>
-      <c r="H774" s="1"/>
+      <c r="A774" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C774" s="2">
+        <v>9098440</v>
+      </c>
+      <c r="D774" s="2">
+        <v>4078722</v>
+      </c>
+      <c r="E774" s="5">
+        <v>45703.958333333336</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G774" s="2">
+        <v>26</v>
+      </c>
+      <c r="H774" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="775" spans="1:8" ht="15" thickBot="1">
-      <c r="A775" s="1"/>
-      <c r="C775" s="1"/>
-      <c r="D775" s="1"/>
-      <c r="E775" s="1"/>
-      <c r="F775" s="1"/>
-      <c r="G775" s="1"/>
-      <c r="H775" s="1"/>
+      <c r="A775" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C775" s="2">
+        <v>9063692</v>
+      </c>
+      <c r="D775" s="2">
+        <v>4078722</v>
+      </c>
+      <c r="E775" s="5">
+        <v>45689.458333333336</v>
+      </c>
+      <c r="F775" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G775" s="2">
+        <v>26</v>
+      </c>
+      <c r="H775" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="776" spans="1:8" ht="15" thickBot="1">
-      <c r="A776" s="1"/>
-      <c r="C776" s="1"/>
-      <c r="D776" s="1"/>
-      <c r="E776" s="1"/>
-      <c r="F776" s="1"/>
-      <c r="G776" s="1"/>
-      <c r="H776" s="1"/>
+      <c r="A776" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C776" s="2">
+        <v>9068182</v>
+      </c>
+      <c r="D776" s="2">
+        <v>4078722</v>
+      </c>
+      <c r="E776" s="5">
+        <v>45690.458333333336</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G776" s="2">
+        <v>26</v>
+      </c>
+      <c r="H776" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="777" spans="1:8" ht="15" thickBot="1">
-      <c r="A777" s="1"/>
-      <c r="C777" s="1"/>
-      <c r="D777" s="1"/>
-      <c r="E777" s="1"/>
-      <c r="F777" s="1"/>
-      <c r="G777" s="1"/>
-      <c r="H777" s="1"/>
+      <c r="A777" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C777" s="2">
+        <v>9107742</v>
+      </c>
+      <c r="D777" s="2">
+        <v>6700277</v>
+      </c>
+      <c r="E777" s="5">
+        <v>45707.458333333336</v>
+      </c>
+      <c r="F777" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G777" s="2">
+        <v>39</v>
+      </c>
+      <c r="H777" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="778" spans="1:8" ht="15" thickBot="1">
-      <c r="A778" s="1"/>
-      <c r="C778" s="1"/>
-      <c r="D778" s="1"/>
-      <c r="E778" s="1"/>
-      <c r="F778" s="1"/>
-      <c r="G778" s="1"/>
-      <c r="H778" s="1"/>
+      <c r="A778" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C778" s="2">
+        <v>9105761</v>
+      </c>
+      <c r="D778" s="2">
+        <v>6700277</v>
+      </c>
+      <c r="E778" s="5">
+        <v>45706.458333333336</v>
+      </c>
+      <c r="F778" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G778" s="2">
+        <v>39</v>
+      </c>
+      <c r="H778" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="779" spans="1:8" ht="15" thickBot="1">
-      <c r="A779" s="1"/>
-      <c r="C779" s="1"/>
-      <c r="D779" s="1"/>
-      <c r="E779" s="1"/>
-      <c r="F779" s="1"/>
-      <c r="G779" s="1"/>
-      <c r="H779" s="1"/>
+      <c r="A779" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C779" s="2">
+        <v>9074145</v>
+      </c>
+      <c r="D779" s="2">
+        <v>4378938</v>
+      </c>
+      <c r="E779" s="5">
+        <v>45696.958333333336</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G779" s="2">
+        <v>55</v>
+      </c>
+      <c r="H779" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="780" spans="1:8" ht="15" thickBot="1">
-      <c r="A780" s="1"/>
-      <c r="C780" s="1"/>
-      <c r="D780" s="1"/>
-      <c r="E780" s="1"/>
-      <c r="F780" s="1"/>
-      <c r="G780" s="1"/>
-      <c r="H780" s="1"/>
+      <c r="A780" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C780" s="2">
+        <v>9109793</v>
+      </c>
+      <c r="D780" s="2">
+        <v>6607546</v>
+      </c>
+      <c r="E780" s="5">
+        <v>45708.458333333336</v>
+      </c>
+      <c r="F780" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G780" s="2">
+        <v>29</v>
+      </c>
+      <c r="H780" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="781" spans="1:8" ht="15" thickBot="1">
-      <c r="A781" s="1"/>
-      <c r="C781" s="1"/>
-      <c r="D781" s="1"/>
-      <c r="E781" s="1"/>
-      <c r="F781" s="1"/>
-      <c r="G781" s="1"/>
-      <c r="H781" s="1"/>
+      <c r="A781" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C781" s="2">
+        <v>9069169</v>
+      </c>
+      <c r="D781" s="2">
+        <v>6655857</v>
+      </c>
+      <c r="E781" s="5">
+        <v>45699.458333333336</v>
+      </c>
+      <c r="F781" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G781" s="2">
+        <v>30</v>
+      </c>
+      <c r="H781" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="782" spans="1:8" ht="15" thickBot="1">
-      <c r="A782" s="1"/>
-      <c r="C782" s="1"/>
-      <c r="D782" s="1"/>
-      <c r="E782" s="1"/>
-      <c r="F782" s="1"/>
-      <c r="G782" s="1"/>
-      <c r="H782" s="1"/>
+      <c r="A782" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C782" s="2">
+        <v>9084016</v>
+      </c>
+      <c r="D782" s="2">
+        <v>6535865</v>
+      </c>
+      <c r="E782" s="5">
+        <v>45709.958333333336</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G782" s="2">
+        <v>24</v>
+      </c>
+      <c r="H782" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="783" spans="1:8" ht="15" thickBot="1">
-      <c r="A783" s="1"/>
-      <c r="C783" s="1"/>
-      <c r="D783" s="1"/>
-      <c r="E783" s="1"/>
-      <c r="F783" s="1"/>
-      <c r="G783" s="1"/>
-      <c r="H783" s="1"/>
+      <c r="A783" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C783" s="2">
+        <v>9101837</v>
+      </c>
+      <c r="D783" s="2">
+        <v>6535865</v>
+      </c>
+      <c r="E783" s="5">
+        <v>45709.958333333336</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G783" s="2">
+        <v>24</v>
+      </c>
+      <c r="H783" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="784" spans="1:8" ht="15" thickBot="1">
-      <c r="A784" s="1"/>
-      <c r="C784" s="1"/>
-      <c r="D784" s="1"/>
-      <c r="E784" s="1"/>
-      <c r="F784" s="1"/>
-      <c r="G784" s="1"/>
-      <c r="H784" s="1"/>
+      <c r="A784" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C784" s="2">
+        <v>9119497</v>
+      </c>
+      <c r="D784" s="2">
+        <v>5129986</v>
+      </c>
+      <c r="E784" s="5">
+        <v>45714.458333333336</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G784" s="2">
+        <v>48</v>
+      </c>
+      <c r="H784" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="785" spans="1:8" ht="15" thickBot="1">
-      <c r="A785" s="1"/>
-      <c r="C785" s="1"/>
-      <c r="D785" s="1"/>
-      <c r="E785" s="1"/>
-      <c r="F785" s="1"/>
-      <c r="G785" s="1"/>
-      <c r="H785" s="1"/>
+      <c r="A785" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C785" s="2">
+        <v>9075859</v>
+      </c>
+      <c r="D785" s="2">
+        <v>5747979</v>
+      </c>
+      <c r="E785" s="5">
+        <v>45698.958333333336</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G785" s="2">
+        <v>34</v>
+      </c>
+      <c r="H785" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="786" spans="1:8" ht="15" thickBot="1">
-      <c r="A786" s="1"/>
-      <c r="C786" s="1"/>
-      <c r="D786" s="1"/>
-      <c r="E786" s="1"/>
-      <c r="F786" s="1"/>
-      <c r="G786" s="1"/>
-      <c r="H786" s="1"/>
+      <c r="A786" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C786" s="2">
+        <v>9069576</v>
+      </c>
+      <c r="D786" s="2">
+        <v>5872135</v>
+      </c>
+      <c r="E786" s="5">
+        <v>45692.958333333336</v>
+      </c>
+      <c r="F786" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G786" s="2">
+        <v>29</v>
+      </c>
+      <c r="H786" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="787" spans="1:8" ht="15" thickBot="1">
-      <c r="A787" s="1"/>
-      <c r="C787" s="1"/>
-      <c r="D787" s="1"/>
-      <c r="E787" s="1"/>
-      <c r="F787" s="1"/>
-      <c r="G787" s="1"/>
-      <c r="H787" s="1"/>
+      <c r="A787" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C787" s="2">
+        <v>9088400</v>
+      </c>
+      <c r="D787" s="2">
+        <v>4173483</v>
+      </c>
+      <c r="E787" s="5">
+        <v>45701.458333333336</v>
+      </c>
+      <c r="F787" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G787" s="2">
+        <v>41</v>
+      </c>
+      <c r="H787" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="788" spans="1:8" ht="15" thickBot="1">
-      <c r="A788" s="1"/>
-      <c r="C788" s="1"/>
-      <c r="D788" s="1"/>
-      <c r="E788" s="1"/>
-      <c r="F788" s="1"/>
-      <c r="G788" s="1"/>
-      <c r="H788" s="1"/>
+      <c r="A788" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C788" s="2">
+        <v>9079409</v>
+      </c>
+      <c r="D788" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E788" s="5">
+        <v>45705.958333333336</v>
+      </c>
+      <c r="F788" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G788" s="2">
+        <v>38</v>
+      </c>
+      <c r="H788" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="789" spans="1:8" ht="15" thickBot="1">
       <c r="A789" s="1"/>
@@ -25139,42 +27479,6 @@
       <c r="G1465" s="1"/>
       <c r="H1465" s="1"/>
     </row>
-    <row r="1466" spans="1:8" ht="15" thickBot="1">
-      <c r="A1466" s="1"/>
-      <c r="C1466" s="1"/>
-      <c r="D1466" s="1"/>
-      <c r="E1466" s="1"/>
-      <c r="F1466" s="1"/>
-      <c r="G1466" s="1"/>
-      <c r="H1466" s="1"/>
-    </row>
-    <row r="1467" spans="1:8" ht="15" thickBot="1">
-      <c r="A1467" s="1"/>
-      <c r="C1467" s="1"/>
-      <c r="D1467" s="1"/>
-      <c r="E1467" s="1"/>
-      <c r="F1467" s="1"/>
-      <c r="G1467" s="1"/>
-      <c r="H1467" s="1"/>
-    </row>
-    <row r="1468" spans="1:8" ht="15" thickBot="1">
-      <c r="A1468" s="1"/>
-      <c r="C1468" s="1"/>
-      <c r="D1468" s="1"/>
-      <c r="E1468" s="1"/>
-      <c r="F1468" s="1"/>
-      <c r="G1468" s="1"/>
-      <c r="H1468" s="1"/>
-    </row>
-    <row r="1469" spans="1:8" ht="15" thickBot="1">
-      <c r="A1469" s="1"/>
-      <c r="C1469" s="1"/>
-      <c r="D1469" s="1"/>
-      <c r="E1469" s="1"/>
-      <c r="F1469" s="1"/>
-      <c r="G1469" s="1"/>
-      <c r="H1469" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BD7AA59-CC8B-469B-B305-A0CD92F305CB}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB5BC80-73B3-4227-9D6D-0CFCBA2C7435}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="138">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>Sola</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Langesund</t>
   </si>
 </sst>
 </file>
@@ -868,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
   <dimension ref="A1:J1465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A777" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C798" sqref="C798"/>
+    <sheetView tabSelected="1" topLeftCell="A800" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F839" sqref="F839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21751,382 +21757,1096 @@
       </c>
     </row>
     <row r="803" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A803" s="1"/>
-      <c r="C803" s="1"/>
-      <c r="D803" s="1"/>
-      <c r="E803" s="1"/>
-      <c r="F803" s="1"/>
-      <c r="G803" s="1"/>
-      <c r="H803" s="1"/>
+      <c r="A803" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C803" s="2">
+        <v>9252743</v>
+      </c>
+      <c r="D803" s="2">
+        <v>4268108</v>
+      </c>
+      <c r="E803" s="5">
+        <v>45771.916666666664</v>
+      </c>
+      <c r="F803" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G803" s="2">
+        <v>33</v>
+      </c>
+      <c r="H803" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="804" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A804" s="1"/>
-      <c r="C804" s="1"/>
-      <c r="D804" s="1"/>
-      <c r="E804" s="1"/>
-      <c r="F804" s="1"/>
-      <c r="G804" s="1"/>
-      <c r="H804" s="1"/>
+      <c r="A804" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C804" s="2">
+        <v>9263890</v>
+      </c>
+      <c r="D804" s="2">
+        <v>4268108</v>
+      </c>
+      <c r="E804" s="5">
+        <v>45775.416666666664</v>
+      </c>
+      <c r="F804" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G804" s="2">
+        <v>33</v>
+      </c>
+      <c r="H804" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="805" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A805" s="1"/>
-      <c r="C805" s="1"/>
-      <c r="D805" s="1"/>
-      <c r="E805" s="1"/>
-      <c r="F805" s="1"/>
-      <c r="G805" s="1"/>
-      <c r="H805" s="1"/>
+      <c r="A805" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C805" s="2">
+        <v>9220736</v>
+      </c>
+      <c r="D805" s="2">
+        <v>6815476</v>
+      </c>
+      <c r="E805" s="5">
+        <v>45759.416666666664</v>
+      </c>
+      <c r="F805" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G805" s="2">
+        <v>53</v>
+      </c>
+      <c r="H805" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="806" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A806" s="1"/>
-      <c r="C806" s="1"/>
-      <c r="D806" s="1"/>
-      <c r="E806" s="1"/>
-      <c r="F806" s="1"/>
-      <c r="G806" s="1"/>
-      <c r="H806" s="1"/>
+      <c r="A806" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C806" s="2">
+        <v>9216536</v>
+      </c>
+      <c r="D806" s="2">
+        <v>6816083</v>
+      </c>
+      <c r="E806" s="5">
+        <v>45757.416666666664</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G806" s="2">
+        <v>75</v>
+      </c>
+      <c r="H806" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="807" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A807" s="1"/>
-      <c r="C807" s="1"/>
-      <c r="D807" s="1"/>
-      <c r="E807" s="1"/>
-      <c r="F807" s="1"/>
-      <c r="G807" s="1"/>
-      <c r="H807" s="1"/>
+      <c r="A807" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C807" s="2">
+        <v>9242952</v>
+      </c>
+      <c r="D807" s="2">
+        <v>6208089</v>
+      </c>
+      <c r="E807" s="5">
+        <v>45770.916666666664</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G807" s="2">
+        <v>24</v>
+      </c>
+      <c r="H807" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="808" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A808" s="1"/>
-      <c r="C808" s="1"/>
-      <c r="D808" s="1"/>
-      <c r="E808" s="1"/>
-      <c r="F808" s="1"/>
-      <c r="G808" s="1"/>
-      <c r="H808" s="1"/>
+      <c r="A808" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C808" s="2">
+        <v>9249233</v>
+      </c>
+      <c r="D808" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E808" s="5">
+        <v>45769.416666666664</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G808" s="2">
+        <v>30</v>
+      </c>
+      <c r="H808" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="809" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A809" s="1"/>
-      <c r="C809" s="1"/>
-      <c r="D809" s="1"/>
-      <c r="E809" s="1"/>
-      <c r="F809" s="1"/>
-      <c r="G809" s="1"/>
-      <c r="H809" s="1"/>
+      <c r="A809" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C809" s="2">
+        <v>9228265</v>
+      </c>
+      <c r="D809" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E809" s="5">
+        <v>45760.416666666664</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G809" s="2">
+        <v>30</v>
+      </c>
+      <c r="H809" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="810" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A810" s="1"/>
-      <c r="C810" s="1"/>
-      <c r="D810" s="1"/>
-      <c r="E810" s="1"/>
-      <c r="F810" s="1"/>
-      <c r="G810" s="1"/>
-      <c r="H810" s="1"/>
+      <c r="A810" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C810" s="2">
+        <v>9251496</v>
+      </c>
+      <c r="D810" s="2">
+        <v>6858584</v>
+      </c>
+      <c r="E810" s="5">
+        <v>45770.416666666664</v>
+      </c>
+      <c r="F810" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G810" s="2">
+        <v>28</v>
+      </c>
+      <c r="H810" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="811" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A811" s="1"/>
-      <c r="C811" s="1"/>
-      <c r="D811" s="1"/>
-      <c r="E811" s="1"/>
-      <c r="F811" s="1"/>
-      <c r="G811" s="1"/>
-      <c r="H811" s="1"/>
+      <c r="A811" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C811" s="2">
+        <v>9206697</v>
+      </c>
+      <c r="D811" s="2">
+        <v>6801437</v>
+      </c>
+      <c r="E811" s="5">
+        <v>45754.916666666664</v>
+      </c>
+      <c r="F811" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G811" s="2">
+        <v>21</v>
+      </c>
+      <c r="H811" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="812" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A812" s="1"/>
-      <c r="C812" s="1"/>
-      <c r="D812" s="1"/>
-      <c r="E812" s="1"/>
-      <c r="F812" s="1"/>
-      <c r="G812" s="1"/>
-      <c r="H812" s="1"/>
+      <c r="A812" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C812" s="2">
+        <v>9199963</v>
+      </c>
+      <c r="D812" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E812" s="5">
+        <v>45748.916666666664</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G812" s="2">
+        <v>32</v>
+      </c>
+      <c r="H812" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="813" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A813" s="1"/>
-      <c r="C813" s="1"/>
-      <c r="D813" s="1"/>
-      <c r="E813" s="1"/>
-      <c r="F813" s="1"/>
-      <c r="G813" s="1"/>
-      <c r="H813" s="1"/>
+      <c r="A813" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C813" s="2">
+        <v>9239076</v>
+      </c>
+      <c r="D813" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E813" s="5">
+        <v>45764.416666666664</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G813" s="2">
+        <v>32</v>
+      </c>
+      <c r="H813" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="814" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A814" s="1"/>
-      <c r="C814" s="1"/>
-      <c r="D814" s="1"/>
-      <c r="E814" s="1"/>
-      <c r="F814" s="1"/>
-      <c r="G814" s="1"/>
-      <c r="H814" s="1"/>
+      <c r="A814" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C814" s="2">
+        <v>9257836</v>
+      </c>
+      <c r="D814" s="2">
+        <v>6528513</v>
+      </c>
+      <c r="E814" s="5">
+        <v>45772.916666666664</v>
+      </c>
+      <c r="F814" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G814" s="2">
+        <v>29</v>
+      </c>
+      <c r="H814" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="815" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A815" s="1"/>
-      <c r="C815" s="1"/>
-      <c r="D815" s="1"/>
-      <c r="E815" s="1"/>
-      <c r="F815" s="1"/>
-      <c r="G815" s="1"/>
-      <c r="H815" s="1"/>
+      <c r="A815" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C815" s="2">
+        <v>9226638</v>
+      </c>
+      <c r="D815" s="2">
+        <v>6831291</v>
+      </c>
+      <c r="E815" s="5">
+        <v>45759.416666666664</v>
+      </c>
+      <c r="F815" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G815" s="2">
+        <v>35</v>
+      </c>
+      <c r="H815" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="816" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A816" s="1"/>
-      <c r="C816" s="1"/>
-      <c r="D816" s="1"/>
-      <c r="E816" s="1"/>
-      <c r="F816" s="1"/>
-      <c r="G816" s="1"/>
-      <c r="H816" s="1"/>
+      <c r="A816" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C816" s="2">
+        <v>9033803</v>
+      </c>
+      <c r="D816" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E816" s="5">
+        <v>45762.916666666664</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G816" s="2">
+        <v>35</v>
+      </c>
+      <c r="H816" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="817" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A817" s="1"/>
-      <c r="C817" s="1"/>
-      <c r="D817" s="1"/>
-      <c r="E817" s="1"/>
-      <c r="F817" s="1"/>
-      <c r="G817" s="1"/>
-      <c r="H817" s="1"/>
+      <c r="A817" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C817" s="2">
+        <v>9101722</v>
+      </c>
+      <c r="D817" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E817" s="5">
+        <v>45750.416666666664</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G817" s="2">
+        <v>35</v>
+      </c>
+      <c r="H817" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="818" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A818" s="1"/>
-      <c r="C818" s="1"/>
-      <c r="D818" s="1"/>
-      <c r="E818" s="1"/>
-      <c r="F818" s="1"/>
-      <c r="G818" s="1"/>
-      <c r="H818" s="1"/>
+      <c r="A818" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C818" s="2">
+        <v>9219830</v>
+      </c>
+      <c r="D818" s="2">
+        <v>6821081</v>
+      </c>
+      <c r="E818" s="5">
+        <v>45756.916666666664</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G818" s="2">
+        <v>48</v>
+      </c>
+      <c r="H818" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="819" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A819" s="1"/>
-      <c r="C819" s="1"/>
-      <c r="D819" s="1"/>
-      <c r="E819" s="1"/>
-      <c r="F819" s="1"/>
-      <c r="G819" s="1"/>
-      <c r="H819" s="1"/>
+      <c r="A819" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C819" s="2">
+        <v>9226854</v>
+      </c>
+      <c r="D819" s="2">
+        <v>6364177</v>
+      </c>
+      <c r="E819" s="5">
+        <v>45759.916666666664</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G819" s="2">
+        <v>29</v>
+      </c>
+      <c r="H819" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="820" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A820" s="1"/>
-      <c r="C820" s="1"/>
-      <c r="D820" s="1"/>
-      <c r="E820" s="1"/>
-      <c r="F820" s="1"/>
-      <c r="G820" s="1"/>
-      <c r="H820" s="1"/>
+      <c r="A820" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C820" s="2">
+        <v>9253438</v>
+      </c>
+      <c r="D820" s="2">
+        <v>4843929</v>
+      </c>
+      <c r="E820" s="5">
+        <v>45772.416666666664</v>
+      </c>
+      <c r="F820" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G820" s="2">
+        <v>25</v>
+      </c>
+      <c r="H820" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="821" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A821" s="1"/>
-      <c r="C821" s="1"/>
-      <c r="D821" s="1"/>
-      <c r="E821" s="1"/>
-      <c r="F821" s="1"/>
-      <c r="G821" s="1"/>
-      <c r="H821" s="1"/>
+      <c r="A821" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C821" s="2">
+        <v>9254195</v>
+      </c>
+      <c r="D821" s="2">
+        <v>6830817</v>
+      </c>
+      <c r="E821" s="5">
+        <v>45771.416666666664</v>
+      </c>
+      <c r="F821" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G821" s="2">
+        <v>36</v>
+      </c>
+      <c r="H821" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="822" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A822" s="1"/>
-      <c r="C822" s="1"/>
-      <c r="D822" s="1"/>
-      <c r="E822" s="1"/>
-      <c r="F822" s="1"/>
-      <c r="G822" s="1"/>
-      <c r="H822" s="1"/>
+      <c r="A822" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C822" s="2">
+        <v>9226151</v>
+      </c>
+      <c r="D822" s="2">
+        <v>6830817</v>
+      </c>
+      <c r="E822" s="5">
+        <v>45758.916666666664</v>
+      </c>
+      <c r="F822" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G822" s="2">
+        <v>36</v>
+      </c>
+      <c r="H822" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="823" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A823" s="1"/>
-      <c r="C823" s="1"/>
-      <c r="D823" s="1"/>
-      <c r="E823" s="1"/>
-      <c r="F823" s="1"/>
-      <c r="G823" s="1"/>
-      <c r="H823" s="1"/>
+      <c r="A823" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C823" s="2">
+        <v>9234119</v>
+      </c>
+      <c r="D823" s="2">
+        <v>4211818</v>
+      </c>
+      <c r="E823" s="5">
+        <v>45763.416666666664</v>
+      </c>
+      <c r="F823" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G823" s="2">
+        <v>36</v>
+      </c>
+      <c r="H823" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="824" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A824" s="1"/>
-      <c r="C824" s="1"/>
-      <c r="D824" s="1"/>
-      <c r="E824" s="1"/>
-      <c r="F824" s="1"/>
-      <c r="G824" s="1"/>
-      <c r="H824" s="1"/>
+      <c r="A824" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C824" s="2">
+        <v>9260090</v>
+      </c>
+      <c r="D824" s="2">
+        <v>4211818</v>
+      </c>
+      <c r="E824" s="5">
+        <v>45773.916666666664</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G824" s="2">
+        <v>36</v>
+      </c>
+      <c r="H824" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="825" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A825" s="1"/>
-      <c r="C825" s="1"/>
-      <c r="D825" s="1"/>
-      <c r="E825" s="1"/>
-      <c r="F825" s="1"/>
-      <c r="G825" s="1"/>
-      <c r="H825" s="1"/>
+      <c r="A825" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C825" s="2">
+        <v>9260106</v>
+      </c>
+      <c r="D825" s="2">
+        <v>4211818</v>
+      </c>
+      <c r="E825" s="5">
+        <v>45773.916666666664</v>
+      </c>
+      <c r="F825" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G825" s="2">
+        <v>36</v>
+      </c>
+      <c r="H825" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="826" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A826" s="1"/>
-      <c r="C826" s="1"/>
-      <c r="D826" s="1"/>
-      <c r="E826" s="1"/>
-      <c r="F826" s="1"/>
-      <c r="G826" s="1"/>
-      <c r="H826" s="1"/>
+      <c r="A826" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C826" s="2">
+        <v>9257956</v>
+      </c>
+      <c r="D826" s="2">
+        <v>6862171</v>
+      </c>
+      <c r="E826" s="5">
+        <v>45774.916666666664</v>
+      </c>
+      <c r="F826" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G826" s="2">
+        <v>34</v>
+      </c>
+      <c r="H826" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="827" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A827" s="1"/>
-      <c r="C827" s="1"/>
-      <c r="D827" s="1"/>
-      <c r="E827" s="1"/>
-      <c r="F827" s="1"/>
-      <c r="G827" s="1"/>
-      <c r="H827" s="1"/>
+      <c r="A827" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C827" s="2">
+        <v>9235941</v>
+      </c>
+      <c r="D827" s="2">
+        <v>4759102</v>
+      </c>
+      <c r="E827" s="5">
+        <v>45763.416666666664</v>
+      </c>
+      <c r="F827" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G827" s="2">
+        <v>54</v>
+      </c>
+      <c r="H827" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="828" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A828" s="1"/>
-      <c r="C828" s="1"/>
-      <c r="D828" s="1"/>
-      <c r="E828" s="1"/>
-      <c r="F828" s="1"/>
-      <c r="G828" s="1"/>
-      <c r="H828" s="1"/>
+      <c r="A828" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C828" s="2">
+        <v>9239033</v>
+      </c>
+      <c r="D828" s="2">
+        <v>4148417</v>
+      </c>
+      <c r="E828" s="5">
+        <v>45771.916666666664</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G828" s="2">
+        <v>49</v>
+      </c>
+      <c r="H828" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="829" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A829" s="1"/>
-      <c r="C829" s="1"/>
-      <c r="D829" s="1"/>
-      <c r="E829" s="1"/>
-      <c r="F829" s="1"/>
-      <c r="G829" s="1"/>
-      <c r="H829" s="1"/>
+      <c r="A829" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C829" s="2">
+        <v>9213136</v>
+      </c>
+      <c r="D829" s="2">
+        <v>5894401</v>
+      </c>
+      <c r="E829" s="5">
+        <v>45758.916666666664</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G829" s="2">
+        <v>26</v>
+      </c>
+      <c r="H829" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="830" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A830" s="1"/>
-      <c r="C830" s="1"/>
-      <c r="D830" s="1"/>
-      <c r="E830" s="1"/>
-      <c r="F830" s="1"/>
-      <c r="G830" s="1"/>
-      <c r="H830" s="1"/>
+      <c r="A830" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C830" s="2">
+        <v>9240631</v>
+      </c>
+      <c r="D830" s="2">
+        <v>5894401</v>
+      </c>
+      <c r="E830" s="5">
+        <v>45764.916666666664</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G830" s="2">
+        <v>26</v>
+      </c>
+      <c r="H830" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="831" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A831" s="1"/>
-      <c r="C831" s="1"/>
-      <c r="D831" s="1"/>
-      <c r="E831" s="1"/>
-      <c r="F831" s="1"/>
-      <c r="G831" s="1"/>
-      <c r="H831" s="1"/>
+      <c r="A831" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C831" s="2">
+        <v>9230530</v>
+      </c>
+      <c r="D831" s="2">
+        <v>6636037</v>
+      </c>
+      <c r="E831" s="5">
+        <v>45760.916666666664</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G831" s="2">
+        <v>31</v>
+      </c>
+      <c r="H831" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="832" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A832" s="1"/>
-      <c r="C832" s="1"/>
-      <c r="D832" s="1"/>
-      <c r="E832" s="1"/>
-      <c r="F832" s="1"/>
-      <c r="G832" s="1"/>
-      <c r="H832" s="1"/>
+      <c r="A832" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C832" s="2">
+        <v>9242973</v>
+      </c>
+      <c r="D832" s="2">
+        <v>6427423</v>
+      </c>
+      <c r="E832" s="5">
+        <v>45766.416666666664</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G832" s="2">
+        <v>26</v>
+      </c>
+      <c r="H832" s="2">
+        <v>3126</v>
+      </c>
     </row>
     <row r="833" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A833" s="1"/>
-      <c r="C833" s="1"/>
-      <c r="D833" s="1"/>
-      <c r="E833" s="1"/>
-      <c r="F833" s="1"/>
-      <c r="G833" s="1"/>
-      <c r="H833" s="1"/>
+      <c r="A833" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C833" s="2">
+        <v>9254549</v>
+      </c>
+      <c r="D833" s="2">
+        <v>4049071</v>
+      </c>
+      <c r="E833" s="5">
+        <v>45773.416666666664</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G833" s="2">
+        <v>60</v>
+      </c>
+      <c r="H833" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="834" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A834" s="1"/>
-      <c r="C834" s="1"/>
-      <c r="D834" s="1"/>
-      <c r="E834" s="1"/>
-      <c r="F834" s="1"/>
-      <c r="G834" s="1"/>
-      <c r="H834" s="1"/>
+      <c r="A834" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C834" s="2">
+        <v>9227017</v>
+      </c>
+      <c r="D834" s="2">
+        <v>6831914</v>
+      </c>
+      <c r="E834" s="5">
+        <v>45761.916666666664</v>
+      </c>
+      <c r="F834" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G834" s="2">
+        <v>48</v>
+      </c>
+      <c r="H834" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="835" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A835" s="1"/>
-      <c r="C835" s="1"/>
-      <c r="D835" s="1"/>
-      <c r="E835" s="1"/>
-      <c r="F835" s="1"/>
-      <c r="G835" s="1"/>
-      <c r="H835" s="1"/>
+      <c r="A835" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C835" s="2">
+        <v>9210014</v>
+      </c>
+      <c r="D835" s="2">
+        <v>5244833</v>
+      </c>
+      <c r="E835" s="5">
+        <v>45753.416666666664</v>
+      </c>
+      <c r="F835" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G835" s="2">
+        <v>23</v>
+      </c>
+      <c r="H835" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="836" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A836" s="1"/>
-      <c r="C836" s="1"/>
-      <c r="D836" s="1"/>
-      <c r="E836" s="1"/>
-      <c r="F836" s="1"/>
-      <c r="G836" s="1"/>
-      <c r="H836" s="1"/>
+      <c r="A836" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C836" s="2">
+        <v>9252160</v>
+      </c>
+      <c r="D836" s="2">
+        <v>6859020</v>
+      </c>
+      <c r="E836" s="5">
+        <v>45772.416666666664</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G836" s="2">
+        <v>57</v>
+      </c>
+      <c r="H836" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="837" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A837" s="1"/>
-      <c r="C837" s="1"/>
-      <c r="D837" s="1"/>
-      <c r="E837" s="1"/>
-      <c r="F837" s="1"/>
-      <c r="G837" s="1"/>
-      <c r="H837" s="1"/>
+      <c r="A837" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C837" s="2">
+        <v>9247096</v>
+      </c>
+      <c r="D837" s="2">
+        <v>6680658</v>
+      </c>
+      <c r="E837" s="5">
+        <v>45768.416666666664</v>
+      </c>
+      <c r="F837" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G837" s="2">
+        <v>24</v>
+      </c>
+      <c r="H837" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="838" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A838" s="1"/>
-      <c r="C838" s="1"/>
-      <c r="D838" s="1"/>
-      <c r="E838" s="1"/>
-      <c r="F838" s="1"/>
-      <c r="G838" s="1"/>
-      <c r="H838" s="1"/>
+      <c r="A838" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C838" s="2">
+        <v>9252973</v>
+      </c>
+      <c r="D838" s="2">
+        <v>6859467</v>
+      </c>
+      <c r="E838" s="5">
+        <v>45770.916666666664</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G838" s="2">
+        <v>20</v>
+      </c>
+      <c r="H838" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="839" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A839" s="1"/>
-      <c r="C839" s="1"/>
-      <c r="D839" s="1"/>
-      <c r="E839" s="1"/>
-      <c r="F839" s="1"/>
-      <c r="G839" s="1"/>
-      <c r="H839" s="1"/>
+      <c r="A839" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C839" s="2">
+        <v>9261477</v>
+      </c>
+      <c r="D839" s="2">
+        <v>6866465</v>
+      </c>
+      <c r="E839" s="5">
+        <v>45774.416666666664</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G839" s="2">
+        <v>44</v>
+      </c>
+      <c r="H839" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="840" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A840" s="1"/>
-      <c r="C840" s="1"/>
-      <c r="D840" s="1"/>
-      <c r="E840" s="1"/>
-      <c r="F840" s="1"/>
-      <c r="G840" s="1"/>
-      <c r="H840" s="1"/>
+      <c r="A840" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C840" s="2">
+        <v>9262021</v>
+      </c>
+      <c r="D840" s="2">
+        <v>6866465</v>
+      </c>
+      <c r="E840" s="5">
+        <v>45774.416666666664</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G840" s="2">
+        <v>44</v>
+      </c>
+      <c r="H840" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="841" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A841" s="1"/>
-      <c r="C841" s="1"/>
-      <c r="D841" s="1"/>
-      <c r="E841" s="1"/>
-      <c r="F841" s="1"/>
-      <c r="G841" s="1"/>
-      <c r="H841" s="1"/>
+      <c r="A841" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C841" s="2">
+        <v>9257149</v>
+      </c>
+      <c r="D841" s="2">
+        <v>5095886</v>
+      </c>
+      <c r="E841" s="5">
+        <v>45772.916666666664</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G841" s="2">
+        <v>47</v>
+      </c>
+      <c r="H841" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="842" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A842" s="1"/>
-      <c r="C842" s="1"/>
-      <c r="D842" s="1"/>
-      <c r="E842" s="1"/>
-      <c r="F842" s="1"/>
-      <c r="G842" s="1"/>
-      <c r="H842" s="1"/>
+      <c r="A842" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C842" s="2">
+        <v>9238945</v>
+      </c>
+      <c r="D842" s="2">
+        <v>6847236</v>
+      </c>
+      <c r="E842" s="5">
+        <v>45764.416666666664</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G842" s="2">
+        <v>27</v>
+      </c>
+      <c r="H842" s="2">
+        <v>3110</v>
+      </c>
     </row>
     <row r="843" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A843" s="1"/>
-      <c r="C843" s="1"/>
-      <c r="D843" s="1"/>
-      <c r="E843" s="1"/>
-      <c r="F843" s="1"/>
-      <c r="G843" s="1"/>
-      <c r="H843" s="1"/>
+      <c r="A843" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C843" s="2">
+        <v>9218797</v>
+      </c>
+      <c r="D843" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E843" s="5">
+        <v>45756.416666666664</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G843" s="2">
+        <v>26</v>
+      </c>
+      <c r="H843" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="844" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A844" s="1"/>
-      <c r="C844" s="1"/>
-      <c r="D844" s="1"/>
-      <c r="E844" s="1"/>
-      <c r="F844" s="1"/>
-      <c r="G844" s="1"/>
-      <c r="H844" s="1"/>
+      <c r="A844" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C844" s="2">
+        <v>9259040</v>
+      </c>
+      <c r="D844" s="2">
+        <v>4740911</v>
+      </c>
+      <c r="E844" s="5">
+        <v>45773.916666666664</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G844" s="2">
+        <v>71</v>
+      </c>
+      <c r="H844" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="845" spans="1:8" ht="15.75" thickBot="1">
       <c r="A845" s="1"/>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBB5BC80-73B3-4227-9D6D-0CFCBA2C7435}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3269319B-750F-4BC0-B11C-8887799D27F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="141">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>Langesund</t>
+  </si>
+  <si>
+    <t>Hvide Sande</t>
+  </si>
+  <si>
+    <t>Røros</t>
+  </si>
+  <si>
+    <t>Lillehammer</t>
   </si>
 </sst>
 </file>
@@ -872,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:J1465"/>
+  <dimension ref="A1:J1464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A800" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F839" sqref="F839"/>
+    <sheetView tabSelected="1" topLeftCell="A765" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A845" sqref="A845:XFD845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22849,292 +22858,836 @@
       </c>
     </row>
     <row r="845" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A845" s="1"/>
-      <c r="C845" s="1"/>
-      <c r="D845" s="1"/>
-      <c r="E845" s="1"/>
-      <c r="F845" s="1"/>
-      <c r="G845" s="1"/>
-      <c r="H845" s="1"/>
+      <c r="A845" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C845" s="2">
+        <v>9274966</v>
+      </c>
+      <c r="D845" s="2">
+        <v>6427423</v>
+      </c>
+      <c r="E845" s="5">
+        <v>45792.916666666664</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G845" s="2">
+        <v>26</v>
+      </c>
+      <c r="H845" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="846" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A846" s="1"/>
-      <c r="C846" s="1"/>
-      <c r="D846" s="1"/>
-      <c r="E846" s="1"/>
-      <c r="F846" s="1"/>
-      <c r="G846" s="1"/>
-      <c r="H846" s="1"/>
+      <c r="A846" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C846" s="2">
+        <v>9290805</v>
+      </c>
+      <c r="D846" s="2">
+        <v>5317184</v>
+      </c>
+      <c r="E846" s="5">
+        <v>45795.416666666664</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G846" s="2">
+        <v>27</v>
+      </c>
+      <c r="H846" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="847" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A847" s="1"/>
-      <c r="C847" s="1"/>
-      <c r="D847" s="1"/>
-      <c r="E847" s="1"/>
-      <c r="F847" s="1"/>
-      <c r="G847" s="1"/>
-      <c r="H847" s="1"/>
+      <c r="A847" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C847" s="2">
+        <v>9276998</v>
+      </c>
+      <c r="D847" s="2">
+        <v>6873891</v>
+      </c>
+      <c r="E847" s="5">
+        <v>45780.416666666664</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G847" s="2">
+        <v>22</v>
+      </c>
+      <c r="H847" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="848" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A848" s="1"/>
-      <c r="C848" s="1"/>
-      <c r="D848" s="1"/>
-      <c r="E848" s="1"/>
-      <c r="F848" s="1"/>
-      <c r="G848" s="1"/>
-      <c r="H848" s="1"/>
+      <c r="A848" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C848" s="2">
+        <v>9325998</v>
+      </c>
+      <c r="D848" s="2">
+        <v>6535865</v>
+      </c>
+      <c r="E848" s="5">
+        <v>45800.916666666664</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G848" s="2">
+        <v>24</v>
+      </c>
+      <c r="H848" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="849" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A849" s="1"/>
-      <c r="C849" s="1"/>
-      <c r="D849" s="1"/>
-      <c r="E849" s="1"/>
-      <c r="F849" s="1"/>
-      <c r="G849" s="1"/>
-      <c r="H849" s="1"/>
+      <c r="A849" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C849" s="2">
+        <v>9272226</v>
+      </c>
+      <c r="D849" s="2">
+        <v>5141995</v>
+      </c>
+      <c r="E849" s="5">
+        <v>45778.416666666664</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G849" s="2">
+        <v>31</v>
+      </c>
+      <c r="H849" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="850" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A850" s="1"/>
-      <c r="C850" s="1"/>
-      <c r="D850" s="1"/>
-      <c r="E850" s="1"/>
-      <c r="F850" s="1"/>
-      <c r="G850" s="1"/>
-      <c r="H850" s="1"/>
+      <c r="A850" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C850" s="2">
+        <v>9274106</v>
+      </c>
+      <c r="D850" s="2">
+        <v>4029015</v>
+      </c>
+      <c r="E850" s="5">
+        <v>45781.416666666664</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G850" s="2">
+        <v>37</v>
+      </c>
+      <c r="H850" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="851" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A851" s="1"/>
-      <c r="C851" s="1"/>
-      <c r="D851" s="1"/>
-      <c r="E851" s="1"/>
-      <c r="F851" s="1"/>
-      <c r="G851" s="1"/>
-      <c r="H851" s="1"/>
+      <c r="A851" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C851" s="2">
+        <v>9324878</v>
+      </c>
+      <c r="D851" s="2">
+        <v>5219896</v>
+      </c>
+      <c r="E851" s="5">
+        <v>45802.416666666664</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G851" s="2">
+        <v>31</v>
+      </c>
+      <c r="H851" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="852" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A852" s="1"/>
-      <c r="C852" s="1"/>
-      <c r="D852" s="1"/>
-      <c r="E852" s="1"/>
-      <c r="F852" s="1"/>
-      <c r="G852" s="1"/>
-      <c r="H852" s="1"/>
+      <c r="A852" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C852" s="2">
+        <v>9291768</v>
+      </c>
+      <c r="D852" s="2">
+        <v>4740911</v>
+      </c>
+      <c r="E852" s="5">
+        <v>45787.916666666664</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G852" s="2">
+        <v>71</v>
+      </c>
+      <c r="H852" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="853" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A853" s="1"/>
-      <c r="C853" s="1"/>
-      <c r="D853" s="1"/>
-      <c r="E853" s="1"/>
-      <c r="F853" s="1"/>
-      <c r="G853" s="1"/>
-      <c r="H853" s="1"/>
+      <c r="A853" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C853" s="2">
+        <v>9292732</v>
+      </c>
+      <c r="D853" s="2">
+        <v>6892161</v>
+      </c>
+      <c r="E853" s="5">
+        <v>45786.416666666664</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G853" s="2">
+        <v>23</v>
+      </c>
+      <c r="H853" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="854" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A854" s="1"/>
-      <c r="C854" s="1"/>
-      <c r="D854" s="1"/>
-      <c r="E854" s="1"/>
-      <c r="F854" s="1"/>
-      <c r="G854" s="1"/>
-      <c r="H854" s="1"/>
+      <c r="A854" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C854" s="2">
+        <v>9319164</v>
+      </c>
+      <c r="D854" s="2">
+        <v>6914629</v>
+      </c>
+      <c r="E854" s="5">
+        <v>45800.416666666664</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G854" s="2">
+        <v>29</v>
+      </c>
+      <c r="H854" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="855" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A855" s="1"/>
-      <c r="C855" s="1"/>
-      <c r="D855" s="1"/>
-      <c r="E855" s="1"/>
-      <c r="F855" s="1"/>
-      <c r="G855" s="1"/>
-      <c r="H855" s="1"/>
+      <c r="A855" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C855" s="2">
+        <v>9267268</v>
+      </c>
+      <c r="D855" s="2">
+        <v>6870798</v>
+      </c>
+      <c r="E855" s="5">
+        <v>45778.916666666664</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G855" s="2">
+        <v>65</v>
+      </c>
+      <c r="H855" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="856" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A856" s="1"/>
-      <c r="C856" s="1"/>
-      <c r="D856" s="1"/>
-      <c r="E856" s="1"/>
-      <c r="F856" s="1"/>
-      <c r="G856" s="1"/>
-      <c r="H856" s="1"/>
+      <c r="A856" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C856" s="2">
+        <v>9272228</v>
+      </c>
+      <c r="D856" s="2">
+        <v>6680658</v>
+      </c>
+      <c r="E856" s="5">
+        <v>45778.416666666664</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G856" s="2">
+        <v>24</v>
+      </c>
+      <c r="H856" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="857" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A857" s="1"/>
-      <c r="C857" s="1"/>
-      <c r="D857" s="1"/>
-      <c r="E857" s="1"/>
-      <c r="F857" s="1"/>
-      <c r="G857" s="1"/>
-      <c r="H857" s="1"/>
+      <c r="A857" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C857" s="2">
+        <v>9273550</v>
+      </c>
+      <c r="D857" s="2">
+        <v>6875874</v>
+      </c>
+      <c r="E857" s="5">
+        <v>45779.916666666664</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G857" s="2">
+        <v>30</v>
+      </c>
+      <c r="H857" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="858" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A858" s="1"/>
-      <c r="C858" s="1"/>
-      <c r="D858" s="1"/>
-      <c r="E858" s="1"/>
-      <c r="F858" s="1"/>
-      <c r="G858" s="1"/>
-      <c r="H858" s="1"/>
+      <c r="A858" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C858" s="2">
+        <v>9276883</v>
+      </c>
+      <c r="D858" s="2">
+        <v>5913784</v>
+      </c>
+      <c r="E858" s="5">
+        <v>45780.916666666664</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G858" s="2">
+        <v>47</v>
+      </c>
+      <c r="H858" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="859" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A859" s="1"/>
-      <c r="C859" s="1"/>
-      <c r="D859" s="1"/>
-      <c r="E859" s="1"/>
-      <c r="F859" s="1"/>
-      <c r="G859" s="1"/>
-      <c r="H859" s="1"/>
+      <c r="A859" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C859" s="2">
+        <v>9239142</v>
+      </c>
+      <c r="D859" s="2">
+        <v>5985917</v>
+      </c>
+      <c r="E859" s="5">
+        <v>45786.416666666664</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G859" s="2">
+        <v>49</v>
+      </c>
+      <c r="H859" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="860" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A860" s="1"/>
-      <c r="C860" s="1"/>
-      <c r="D860" s="1"/>
-      <c r="E860" s="1"/>
-      <c r="F860" s="1"/>
-      <c r="G860" s="1"/>
-      <c r="H860" s="1"/>
+      <c r="A860" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C860" s="2">
+        <v>9336519</v>
+      </c>
+      <c r="D860" s="2">
+        <v>5861099</v>
+      </c>
+      <c r="E860" s="5">
+        <v>45806.416666666664</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G860" s="2">
+        <v>30</v>
+      </c>
+      <c r="H860" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="861" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A861" s="1"/>
-      <c r="C861" s="1"/>
-      <c r="D861" s="1"/>
-      <c r="E861" s="1"/>
-      <c r="F861" s="1"/>
-      <c r="G861" s="1"/>
-      <c r="H861" s="1"/>
+      <c r="A861" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C861" s="2">
+        <v>9274509</v>
+      </c>
+      <c r="D861" s="2">
+        <v>4154275</v>
+      </c>
+      <c r="E861" s="5">
+        <v>45779.416666666664</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G861" s="2">
+        <v>55</v>
+      </c>
+      <c r="H861" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="862" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A862" s="1"/>
-      <c r="C862" s="1"/>
-      <c r="D862" s="1"/>
-      <c r="E862" s="1"/>
-      <c r="F862" s="1"/>
-      <c r="G862" s="1"/>
-      <c r="H862" s="1"/>
+      <c r="A862" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C862" s="2">
+        <v>9321979</v>
+      </c>
+      <c r="D862" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E862" s="5">
+        <v>45805.416666666664</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G862" s="2">
+        <v>30</v>
+      </c>
+      <c r="H862" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="863" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A863" s="1"/>
-      <c r="C863" s="1"/>
-      <c r="D863" s="1"/>
-      <c r="E863" s="1"/>
-      <c r="F863" s="1"/>
-      <c r="G863" s="1"/>
-      <c r="H863" s="1"/>
+      <c r="A863" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C863" s="2">
+        <v>9306219</v>
+      </c>
+      <c r="D863" s="2">
+        <v>6903626</v>
+      </c>
+      <c r="E863" s="5">
+        <v>45792.916666666664</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G863" s="2">
+        <v>20</v>
+      </c>
+      <c r="H863" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="864" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A864" s="1"/>
-      <c r="C864" s="1"/>
-      <c r="D864" s="1"/>
-      <c r="E864" s="1"/>
-      <c r="F864" s="1"/>
-      <c r="G864" s="1"/>
-      <c r="H864" s="1"/>
+      <c r="A864" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C864" s="2">
+        <v>9314257</v>
+      </c>
+      <c r="D864" s="2">
+        <v>6712139</v>
+      </c>
+      <c r="E864" s="5">
+        <v>45796.416666666664</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G864" s="2">
+        <v>25</v>
+      </c>
+      <c r="H864" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="865" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A865" s="1"/>
-      <c r="C865" s="1"/>
-      <c r="D865" s="1"/>
-      <c r="E865" s="1"/>
-      <c r="F865" s="1"/>
-      <c r="G865" s="1"/>
-      <c r="H865" s="1"/>
+      <c r="A865" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C865" s="2">
+        <v>9195738</v>
+      </c>
+      <c r="D865" s="2">
+        <v>6227119</v>
+      </c>
+      <c r="E865" s="5">
+        <v>45782.916666666664</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G865" s="2">
+        <v>34</v>
+      </c>
+      <c r="H865" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="866" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A866" s="1"/>
-      <c r="C866" s="1"/>
-      <c r="D866" s="1"/>
-      <c r="E866" s="1"/>
-      <c r="F866" s="1"/>
-      <c r="G866" s="1"/>
-      <c r="H866" s="1"/>
+      <c r="A866" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C866" s="2">
+        <v>9330567</v>
+      </c>
+      <c r="D866" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E866" s="5">
+        <v>45802.916666666664</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G866" s="2">
+        <v>32</v>
+      </c>
+      <c r="H866" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="867" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A867" s="1"/>
-      <c r="C867" s="1"/>
-      <c r="D867" s="1"/>
-      <c r="E867" s="1"/>
-      <c r="F867" s="1"/>
-      <c r="G867" s="1"/>
-      <c r="H867" s="1"/>
+      <c r="A867" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C867" s="2">
+        <v>9275902</v>
+      </c>
+      <c r="D867" s="2">
+        <v>6877623</v>
+      </c>
+      <c r="E867" s="5">
+        <v>45779.916666666664</v>
+      </c>
+      <c r="F867" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G867" s="2">
+        <v>29</v>
+      </c>
+      <c r="H867" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="868" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A868" s="1"/>
-      <c r="C868" s="1"/>
-      <c r="D868" s="1"/>
-      <c r="E868" s="1"/>
-      <c r="F868" s="1"/>
-      <c r="G868" s="1"/>
-      <c r="H868" s="1"/>
+      <c r="A868" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C868" s="2">
+        <v>9277844</v>
+      </c>
+      <c r="D868" s="2">
+        <v>6334181</v>
+      </c>
+      <c r="E868" s="5">
+        <v>45783.916666666664</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G868" s="2">
+        <v>60</v>
+      </c>
+      <c r="H868" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="869" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A869" s="1"/>
-      <c r="C869" s="1"/>
-      <c r="D869" s="1"/>
-      <c r="E869" s="1"/>
-      <c r="F869" s="1"/>
-      <c r="G869" s="1"/>
-      <c r="H869" s="1"/>
+      <c r="A869" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C869" s="2">
+        <v>9265184</v>
+      </c>
+      <c r="D869" s="2">
+        <v>5894401</v>
+      </c>
+      <c r="E869" s="5">
+        <v>45778.916666666664</v>
+      </c>
+      <c r="F869" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G869" s="2">
+        <v>26</v>
+      </c>
+      <c r="H869" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="870" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A870" s="1"/>
-      <c r="C870" s="1"/>
-      <c r="D870" s="1"/>
-      <c r="E870" s="1"/>
-      <c r="F870" s="1"/>
-      <c r="G870" s="1"/>
-      <c r="H870" s="1"/>
+      <c r="A870" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C870" s="2">
+        <v>9262441</v>
+      </c>
+      <c r="D870" s="2">
+        <v>6275420</v>
+      </c>
+      <c r="E870" s="5">
+        <v>45778.416666666664</v>
+      </c>
+      <c r="F870" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G870" s="2">
+        <v>39</v>
+      </c>
+      <c r="H870" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="871" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A871" s="1"/>
-      <c r="C871" s="1"/>
-      <c r="D871" s="1"/>
-      <c r="E871" s="1"/>
-      <c r="F871" s="1"/>
-      <c r="G871" s="1"/>
-      <c r="H871" s="1"/>
+      <c r="A871" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C871" s="2">
+        <v>9338382</v>
+      </c>
+      <c r="D871" s="2">
+        <v>6275420</v>
+      </c>
+      <c r="E871" s="5">
+        <v>45806.416666666664</v>
+      </c>
+      <c r="F871" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G871" s="2">
+        <v>39</v>
+      </c>
+      <c r="H871" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="872" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A872" s="1"/>
-      <c r="C872" s="1"/>
-      <c r="D872" s="1"/>
-      <c r="E872" s="1"/>
-      <c r="F872" s="1"/>
-      <c r="G872" s="1"/>
-      <c r="H872" s="1"/>
+      <c r="A872" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C872" s="2">
+        <v>9310962</v>
+      </c>
+      <c r="D872" s="2">
+        <v>6208089</v>
+      </c>
+      <c r="E872" s="5">
+        <v>45796.916666666664</v>
+      </c>
+      <c r="F872" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G872" s="2">
+        <v>24</v>
+      </c>
+      <c r="H872" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="873" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A873" s="1"/>
-      <c r="C873" s="1"/>
-      <c r="D873" s="1"/>
-      <c r="E873" s="1"/>
-      <c r="F873" s="1"/>
-      <c r="G873" s="1"/>
-      <c r="H873" s="1"/>
+      <c r="A873" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C873" s="2">
+        <v>9288150</v>
+      </c>
+      <c r="D873" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E873" s="5">
+        <v>45785.416666666664</v>
+      </c>
+      <c r="F873" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G873" s="2">
+        <v>38</v>
+      </c>
+      <c r="H873" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="874" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A874" s="1"/>
-      <c r="C874" s="1"/>
-      <c r="D874" s="1"/>
-      <c r="E874" s="1"/>
-      <c r="F874" s="1"/>
-      <c r="G874" s="1"/>
-      <c r="H874" s="1"/>
+      <c r="A874" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C874" s="2">
+        <v>9284978</v>
+      </c>
+      <c r="D874" s="2">
+        <v>6885754</v>
+      </c>
+      <c r="E874" s="5">
+        <v>45806.916666666664</v>
+      </c>
+      <c r="F874" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G874" s="2">
+        <v>24</v>
+      </c>
+      <c r="H874" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="875" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A875" s="1"/>
-      <c r="C875" s="1"/>
-      <c r="D875" s="1"/>
-      <c r="E875" s="1"/>
-      <c r="F875" s="1"/>
-      <c r="G875" s="1"/>
-      <c r="H875" s="1"/>
+      <c r="A875" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C875" s="2">
+        <v>9289887</v>
+      </c>
+      <c r="D875" s="2">
+        <v>6874941</v>
+      </c>
+      <c r="E875" s="5">
+        <v>45785.416666666664</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G875" s="2">
+        <v>27</v>
+      </c>
+      <c r="H875" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="876" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A876" s="1"/>
-      <c r="C876" s="1"/>
-      <c r="D876" s="1"/>
-      <c r="E876" s="1"/>
-      <c r="F876" s="1"/>
-      <c r="G876" s="1"/>
-      <c r="H876" s="1"/>
+      <c r="A876" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C876" s="2">
+        <v>9272696</v>
+      </c>
+      <c r="D876" s="2">
+        <v>6874941</v>
+      </c>
+      <c r="E876" s="5">
+        <v>45778.416666666664</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G876" s="2">
+        <v>27</v>
+      </c>
+      <c r="H876" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="877" spans="1:8" ht="15.75" thickBot="1">
       <c r="A877" s="1"/>
@@ -28428,15 +28981,6 @@
       <c r="G1464" s="1"/>
       <c r="H1464" s="1"/>
     </row>
-    <row r="1465" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1465" s="1"/>
-      <c r="C1465" s="1"/>
-      <c r="D1465" s="1"/>
-      <c r="E1465" s="1"/>
-      <c r="F1465" s="1"/>
-      <c r="G1465" s="1"/>
-      <c r="H1465" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3269319B-750F-4BC0-B11C-8887799D27F7}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05131B76-3612-42E1-89EF-6B80C677181F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2600" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="148">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -460,6 +460,27 @@
   <si>
     <t>Lillehammer</t>
   </si>
+  <si>
+    <t>DUKEN</t>
+  </si>
+  <si>
+    <t>Ballstad</t>
+  </si>
+  <si>
+    <t>Liepaja</t>
+  </si>
+  <si>
+    <t>Øverbygd</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Melsomvik</t>
+  </si>
 </sst>
 </file>
 
@@ -881,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:J1464"/>
+  <dimension ref="A1:J1462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A765" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A845" sqref="A845:XFD845"/>
+    <sheetView tabSelected="1" topLeftCell="A878" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A915" sqref="A915:XFD915"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -23690,526 +23711,1512 @@
       </c>
     </row>
     <row r="877" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A877" s="1"/>
-      <c r="C877" s="1"/>
-      <c r="D877" s="1"/>
-      <c r="E877" s="1"/>
-      <c r="F877" s="1"/>
-      <c r="G877" s="1"/>
-      <c r="H877" s="1"/>
+      <c r="A877" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C877" s="2">
+        <v>9364614</v>
+      </c>
+      <c r="D877" s="2">
+        <v>6874941</v>
+      </c>
+      <c r="E877" s="5">
+        <v>45815.416666666664</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G877" s="2">
+        <v>27</v>
+      </c>
+      <c r="H877" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="878" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A878" s="1"/>
-      <c r="C878" s="1"/>
-      <c r="D878" s="1"/>
-      <c r="E878" s="1"/>
-      <c r="F878" s="1"/>
-      <c r="G878" s="1"/>
-      <c r="H878" s="1"/>
+      <c r="A878" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C878" s="2">
+        <v>9415154</v>
+      </c>
+      <c r="D878" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E878" s="5">
+        <v>45835.916666666664</v>
+      </c>
+      <c r="F878" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G878" s="2">
+        <v>36</v>
+      </c>
+      <c r="H878" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="879" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A879" s="1"/>
-      <c r="C879" s="1"/>
-      <c r="D879" s="1"/>
-      <c r="E879" s="1"/>
-      <c r="F879" s="1"/>
-      <c r="G879" s="1"/>
-      <c r="H879" s="1"/>
+      <c r="A879" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C879" s="2">
+        <v>9386789</v>
+      </c>
+      <c r="D879" s="2">
+        <v>4893534</v>
+      </c>
+      <c r="E879" s="5">
+        <v>45824.416666666664</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G879" s="2">
+        <v>22</v>
+      </c>
+      <c r="H879" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="880" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A880" s="1"/>
-      <c r="C880" s="1"/>
-      <c r="D880" s="1"/>
-      <c r="E880" s="1"/>
-      <c r="F880" s="1"/>
-      <c r="G880" s="1"/>
-      <c r="H880" s="1"/>
+      <c r="A880" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C880" s="2">
+        <v>9371958</v>
+      </c>
+      <c r="D880" s="2">
+        <v>5913784</v>
+      </c>
+      <c r="E880" s="5">
+        <v>45824.416666666664</v>
+      </c>
+      <c r="F880" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G880" s="2">
+        <v>48</v>
+      </c>
+      <c r="H880" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="881" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A881" s="1"/>
-      <c r="C881" s="1"/>
-      <c r="D881" s="1"/>
-      <c r="E881" s="1"/>
-      <c r="F881" s="1"/>
-      <c r="G881" s="1"/>
-      <c r="H881" s="1"/>
+      <c r="A881" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C881" s="2">
+        <v>9377180</v>
+      </c>
+      <c r="D881" s="2">
+        <v>5913784</v>
+      </c>
+      <c r="E881" s="5">
+        <v>45820.416666666664</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G881" s="2">
+        <v>48</v>
+      </c>
+      <c r="H881" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="882" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A882" s="1"/>
-      <c r="C882" s="1"/>
-      <c r="D882" s="1"/>
-      <c r="E882" s="1"/>
-      <c r="F882" s="1"/>
-      <c r="G882" s="1"/>
-      <c r="H882" s="1"/>
+      <c r="A882" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C882" s="2">
+        <v>9371947</v>
+      </c>
+      <c r="D882" s="2">
+        <v>5913784</v>
+      </c>
+      <c r="E882" s="5">
+        <v>45820.916666666664</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G882" s="2">
+        <v>48</v>
+      </c>
+      <c r="H882" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="883" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A883" s="1"/>
-      <c r="C883" s="1"/>
-      <c r="D883" s="1"/>
-      <c r="E883" s="1"/>
-      <c r="F883" s="1"/>
-      <c r="G883" s="1"/>
-      <c r="H883" s="1"/>
+      <c r="A883" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C883" s="2">
+        <v>9387566</v>
+      </c>
+      <c r="D883" s="2">
+        <v>6978700</v>
+      </c>
+      <c r="E883" s="5">
+        <v>45828.416666666664</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G883" s="2">
+        <v>42</v>
+      </c>
+      <c r="H883" s="2">
+        <v>7054</v>
+      </c>
     </row>
     <row r="884" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A884" s="1"/>
-      <c r="C884" s="1"/>
-      <c r="D884" s="1"/>
-      <c r="E884" s="1"/>
-      <c r="F884" s="1"/>
-      <c r="G884" s="1"/>
-      <c r="H884" s="1"/>
+      <c r="A884" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C884" s="2">
+        <v>9370885</v>
+      </c>
+      <c r="D884" s="2">
+        <v>4135418</v>
+      </c>
+      <c r="E884" s="5">
+        <v>45818.416666666664</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G884" s="2">
+        <v>28</v>
+      </c>
+      <c r="H884" s="2">
+        <v>3257</v>
+      </c>
     </row>
     <row r="885" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A885" s="1"/>
-      <c r="C885" s="1"/>
-      <c r="D885" s="1"/>
-      <c r="E885" s="1"/>
-      <c r="F885" s="1"/>
-      <c r="G885" s="1"/>
-      <c r="H885" s="1"/>
+      <c r="A885" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C885" s="2">
+        <v>9385261</v>
+      </c>
+      <c r="D885" s="2">
+        <v>4166518</v>
+      </c>
+      <c r="E885" s="5">
+        <v>45823.416666666664</v>
+      </c>
+      <c r="F885" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G885" s="2">
+        <v>28</v>
+      </c>
+      <c r="H885" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="886" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A886" s="1"/>
-      <c r="C886" s="1"/>
-      <c r="D886" s="1"/>
-      <c r="E886" s="1"/>
-      <c r="F886" s="1"/>
-      <c r="G886" s="1"/>
-      <c r="H886" s="1"/>
+      <c r="A886" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C886" s="2">
+        <v>9362269</v>
+      </c>
+      <c r="D886" s="2">
+        <v>6885754</v>
+      </c>
+      <c r="E886" s="5">
+        <v>45821.416666666664</v>
+      </c>
+      <c r="F886" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G886" s="2">
+        <v>24</v>
+      </c>
+      <c r="H886" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="887" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A887" s="1"/>
-      <c r="C887" s="1"/>
-      <c r="D887" s="1"/>
-      <c r="E887" s="1"/>
-      <c r="F887" s="1"/>
-      <c r="G887" s="1"/>
-      <c r="H887" s="1"/>
+      <c r="A887" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C887" s="2">
+        <v>9383882</v>
+      </c>
+      <c r="D887" s="2">
+        <v>5431735</v>
+      </c>
+      <c r="E887" s="5">
+        <v>45823.416666666664</v>
+      </c>
+      <c r="F887" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G887" s="2">
+        <v>34</v>
+      </c>
+      <c r="H887" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="888" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A888" s="1"/>
-      <c r="C888" s="1"/>
-      <c r="D888" s="1"/>
-      <c r="E888" s="1"/>
-      <c r="F888" s="1"/>
-      <c r="G888" s="1"/>
-      <c r="H888" s="1"/>
+      <c r="A888" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C888" s="2">
+        <v>9352606</v>
+      </c>
+      <c r="D888" s="2">
+        <v>5431735</v>
+      </c>
+      <c r="E888" s="5">
+        <v>45811.416666666664</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G888" s="2">
+        <v>34</v>
+      </c>
+      <c r="H888" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="889" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A889" s="1"/>
-      <c r="C889" s="1"/>
-      <c r="D889" s="1"/>
-      <c r="E889" s="1"/>
-      <c r="F889" s="1"/>
-      <c r="G889" s="1"/>
-      <c r="H889" s="1"/>
+      <c r="A889" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C889" s="2">
+        <v>9385826</v>
+      </c>
+      <c r="D889" s="2">
+        <v>4173483</v>
+      </c>
+      <c r="E889" s="5">
+        <v>45827.416666666664</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G889" s="2">
+        <v>41</v>
+      </c>
+      <c r="H889" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="890" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A890" s="1"/>
-      <c r="C890" s="1"/>
-      <c r="D890" s="1"/>
-      <c r="E890" s="1"/>
-      <c r="F890" s="1"/>
-      <c r="G890" s="1"/>
-      <c r="H890" s="1"/>
+      <c r="A890" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C890" s="2">
+        <v>9338177</v>
+      </c>
+      <c r="D890" s="2">
+        <v>6931962</v>
+      </c>
+      <c r="E890" s="5">
+        <v>45812.916666666664</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G890" s="2">
+        <v>60</v>
+      </c>
+      <c r="H890" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="891" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A891" s="1"/>
-      <c r="C891" s="1"/>
-      <c r="D891" s="1"/>
-      <c r="E891" s="1"/>
-      <c r="F891" s="1"/>
-      <c r="G891" s="1"/>
-      <c r="H891" s="1"/>
+      <c r="A891" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C891" s="2">
+        <v>9342507</v>
+      </c>
+      <c r="D891" s="2">
+        <v>4814884</v>
+      </c>
+      <c r="E891" s="5">
+        <v>45809.916666666664</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G891" s="2">
+        <v>34</v>
+      </c>
+      <c r="H891" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="892" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A892" s="1"/>
-      <c r="C892" s="1"/>
-      <c r="D892" s="1"/>
-      <c r="E892" s="1"/>
-      <c r="F892" s="1"/>
-      <c r="G892" s="1"/>
-      <c r="H892" s="1"/>
+      <c r="A892" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C892" s="2">
+        <v>9413162</v>
+      </c>
+      <c r="D892" s="2">
+        <v>4814884</v>
+      </c>
+      <c r="E892" s="5">
+        <v>45832.916666666664</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G892" s="2">
+        <v>34</v>
+      </c>
+      <c r="H892" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="893" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A893" s="1"/>
-      <c r="C893" s="1"/>
-      <c r="D893" s="1"/>
-      <c r="E893" s="1"/>
-      <c r="F893" s="1"/>
-      <c r="G893" s="1"/>
-      <c r="H893" s="1"/>
+      <c r="A893" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C893" s="2">
+        <v>9378582</v>
+      </c>
+      <c r="D893" s="2">
+        <v>4296074</v>
+      </c>
+      <c r="E893" s="5">
+        <v>45820.916666666664</v>
+      </c>
+      <c r="F893" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G893" s="2">
+        <v>35</v>
+      </c>
+      <c r="H893" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="894" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A894" s="1"/>
-      <c r="C894" s="1"/>
-      <c r="D894" s="1"/>
-      <c r="E894" s="1"/>
-      <c r="F894" s="1"/>
-      <c r="G894" s="1"/>
-      <c r="H894" s="1"/>
+      <c r="A894" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C894" s="2">
+        <v>9351085</v>
+      </c>
+      <c r="D894" s="2">
+        <v>4177452</v>
+      </c>
+      <c r="E894" s="5">
+        <v>45824.416666666664</v>
+      </c>
+      <c r="F894" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G894" s="2">
+        <v>67</v>
+      </c>
+      <c r="H894" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="895" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A895" s="1"/>
-      <c r="C895" s="1"/>
-      <c r="D895" s="1"/>
-      <c r="E895" s="1"/>
-      <c r="F895" s="1"/>
-      <c r="G895" s="1"/>
-      <c r="H895" s="1"/>
+      <c r="A895" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C895" s="2">
+        <v>9375535</v>
+      </c>
+      <c r="D895" s="2">
+        <v>6029913</v>
+      </c>
+      <c r="E895" s="5">
+        <v>45820.416666666664</v>
+      </c>
+      <c r="F895" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G895" s="2">
+        <v>34</v>
+      </c>
+      <c r="H895" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="896" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A896" s="1"/>
-      <c r="C896" s="1"/>
-      <c r="D896" s="1"/>
-      <c r="E896" s="1"/>
-      <c r="F896" s="1"/>
-      <c r="G896" s="1"/>
-      <c r="H896" s="1"/>
+      <c r="A896" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C896" s="2">
+        <v>9361786</v>
+      </c>
+      <c r="D896" s="2">
+        <v>6954197</v>
+      </c>
+      <c r="E896" s="5">
+        <v>45814.416666666664</v>
+      </c>
+      <c r="F896" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G896" s="2">
+        <v>38</v>
+      </c>
+      <c r="H896" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="897" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A897" s="1"/>
-      <c r="C897" s="1"/>
-      <c r="D897" s="1"/>
-      <c r="E897" s="1"/>
-      <c r="F897" s="1"/>
-      <c r="G897" s="1"/>
-      <c r="H897" s="1"/>
+      <c r="A897" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C897" s="2">
+        <v>9391051</v>
+      </c>
+      <c r="D897" s="2">
+        <v>4211818</v>
+      </c>
+      <c r="E897" s="5">
+        <v>45831.416666666664</v>
+      </c>
+      <c r="F897" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G897" s="2">
+        <v>37</v>
+      </c>
+      <c r="H897" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="898" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A898" s="1"/>
-      <c r="C898" s="1"/>
-      <c r="D898" s="1"/>
-      <c r="E898" s="1"/>
-      <c r="F898" s="1"/>
-      <c r="G898" s="1"/>
-      <c r="H898" s="1"/>
+      <c r="A898" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C898" s="2">
+        <v>9416897</v>
+      </c>
+      <c r="D898" s="2">
+        <v>4012581</v>
+      </c>
+      <c r="E898" s="5">
+        <v>45834.416666666664</v>
+      </c>
+      <c r="F898" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G898" s="2">
+        <v>69</v>
+      </c>
+      <c r="H898" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="899" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A899" s="1"/>
-      <c r="C899" s="1"/>
-      <c r="D899" s="1"/>
-      <c r="E899" s="1"/>
-      <c r="F899" s="1"/>
-      <c r="G899" s="1"/>
-      <c r="H899" s="1"/>
+      <c r="A899" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C899" s="2">
+        <v>9346387</v>
+      </c>
+      <c r="D899" s="2">
+        <v>5086185</v>
+      </c>
+      <c r="E899" s="5">
+        <v>45813.916666666664</v>
+      </c>
+      <c r="F899" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G899" s="2">
+        <v>70</v>
+      </c>
+      <c r="H899" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="900" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A900" s="1"/>
-      <c r="C900" s="1"/>
-      <c r="D900" s="1"/>
-      <c r="E900" s="1"/>
-      <c r="F900" s="1"/>
-      <c r="G900" s="1"/>
-      <c r="H900" s="1"/>
+      <c r="A900" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C900" s="2">
+        <v>9413592</v>
+      </c>
+      <c r="D900" s="2">
+        <v>5876316</v>
+      </c>
+      <c r="E900" s="5">
+        <v>45833.416666666664</v>
+      </c>
+      <c r="F900" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G900" s="2">
+        <v>22</v>
+      </c>
+      <c r="H900" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="901" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A901" s="1"/>
-      <c r="C901" s="1"/>
-      <c r="D901" s="1"/>
-      <c r="E901" s="1"/>
-      <c r="F901" s="1"/>
-      <c r="G901" s="1"/>
-      <c r="H901" s="1"/>
+      <c r="A901" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C901" s="2">
+        <v>9389183</v>
+      </c>
+      <c r="D901" s="2">
+        <v>6976972</v>
+      </c>
+      <c r="E901" s="5">
+        <v>45824.916666666664</v>
+      </c>
+      <c r="F901" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G901" s="2">
+        <v>37</v>
+      </c>
+      <c r="H901" s="1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="902" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A902" s="1"/>
-      <c r="C902" s="1"/>
-      <c r="D902" s="1"/>
-      <c r="E902" s="1"/>
-      <c r="F902" s="1"/>
-      <c r="G902" s="1"/>
-      <c r="H902" s="1"/>
+      <c r="A902" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C902" s="2">
+        <v>9333801</v>
+      </c>
+      <c r="D902" s="2">
+        <v>4249091</v>
+      </c>
+      <c r="E902" s="5">
+        <v>45819.916666666664</v>
+      </c>
+      <c r="F902" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G902" s="2">
+        <v>50</v>
+      </c>
+      <c r="H902" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="903" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A903" s="1"/>
-      <c r="C903" s="1"/>
-      <c r="D903" s="1"/>
-      <c r="E903" s="1"/>
-      <c r="F903" s="1"/>
-      <c r="G903" s="1"/>
-      <c r="H903" s="1"/>
+      <c r="A903" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C903" s="2">
+        <v>9346611</v>
+      </c>
+      <c r="D903" s="2">
+        <v>5870963</v>
+      </c>
+      <c r="E903" s="5">
+        <v>45814.916666666664</v>
+      </c>
+      <c r="F903" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G903" s="2">
+        <v>30</v>
+      </c>
+      <c r="H903" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="904" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A904" s="1"/>
-      <c r="C904" s="1"/>
-      <c r="D904" s="1"/>
-      <c r="E904" s="1"/>
-      <c r="F904" s="1"/>
-      <c r="G904" s="1"/>
-      <c r="H904" s="1"/>
+      <c r="A904" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C904" s="2">
+        <v>9358047</v>
+      </c>
+      <c r="D904" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E904" s="5">
+        <v>45814.916666666664</v>
+      </c>
+      <c r="F904" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G904" s="2">
+        <v>38</v>
+      </c>
+      <c r="H904" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="905" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A905" s="1"/>
-      <c r="C905" s="1"/>
-      <c r="D905" s="1"/>
-      <c r="E905" s="1"/>
-      <c r="F905" s="1"/>
-      <c r="G905" s="1"/>
-      <c r="H905" s="1"/>
+      <c r="A905" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C905" s="2">
+        <v>9411605</v>
+      </c>
+      <c r="D905" s="2">
+        <v>7001067</v>
+      </c>
+      <c r="E905" s="5">
+        <v>45832.416666666664</v>
+      </c>
+      <c r="F905" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G905" s="2">
+        <v>45</v>
+      </c>
+      <c r="H905" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="906" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A906" s="1"/>
-      <c r="C906" s="1"/>
-      <c r="D906" s="1"/>
-      <c r="E906" s="1"/>
-      <c r="F906" s="1"/>
-      <c r="G906" s="1"/>
-      <c r="H906" s="1"/>
+      <c r="A906" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C906" s="2">
+        <v>9259757</v>
+      </c>
+      <c r="D906" s="2">
+        <v>6865049</v>
+      </c>
+      <c r="E906" s="5">
+        <v>45816.416666666664</v>
+      </c>
+      <c r="F906" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G906" s="2">
+        <v>43</v>
+      </c>
+      <c r="H906" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="907" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A907" s="1"/>
-      <c r="C907" s="1"/>
-      <c r="D907" s="1"/>
-      <c r="E907" s="1"/>
-      <c r="F907" s="1"/>
-      <c r="G907" s="1"/>
-      <c r="H907" s="1"/>
+      <c r="A907" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C907" s="2">
+        <v>9408455</v>
+      </c>
+      <c r="D907" s="2">
+        <v>6098937</v>
+      </c>
+      <c r="E907" s="5">
+        <v>45834.416666666664</v>
+      </c>
+      <c r="F907" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G907" s="2">
+        <v>28</v>
+      </c>
+      <c r="H907" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="908" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A908" s="1"/>
-      <c r="C908" s="1"/>
-      <c r="D908" s="1"/>
-      <c r="E908" s="1"/>
-      <c r="F908" s="1"/>
-      <c r="G908" s="1"/>
-      <c r="H908" s="1"/>
+      <c r="A908" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C908" s="2">
+        <v>9320279</v>
+      </c>
+      <c r="D908" s="2">
+        <v>4049071</v>
+      </c>
+      <c r="E908" s="5">
+        <v>45810.916666666664</v>
+      </c>
+      <c r="F908" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G908" s="2">
+        <v>61</v>
+      </c>
+      <c r="H908" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="909" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A909" s="1"/>
-      <c r="C909" s="1"/>
-      <c r="D909" s="1"/>
-      <c r="E909" s="1"/>
-      <c r="F909" s="1"/>
-      <c r="G909" s="1"/>
-      <c r="H909" s="1"/>
+      <c r="A909" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C909" s="2">
+        <v>9380688</v>
+      </c>
+      <c r="D909" s="2">
+        <v>6972520</v>
+      </c>
+      <c r="E909" s="5">
+        <v>45831.916666666664</v>
+      </c>
+      <c r="F909" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G909" s="2">
+        <v>67</v>
+      </c>
+      <c r="H909" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="910" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A910" s="1"/>
-      <c r="C910" s="1"/>
-      <c r="D910" s="1"/>
-      <c r="E910" s="1"/>
-      <c r="F910" s="1"/>
-      <c r="G910" s="1"/>
-      <c r="H910" s="1"/>
+      <c r="A910" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C910" s="2">
+        <v>9386855</v>
+      </c>
+      <c r="D910" s="2">
+        <v>6275420</v>
+      </c>
+      <c r="E910" s="5">
+        <v>45824.916666666664</v>
+      </c>
+      <c r="F910" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G910" s="2">
+        <v>39</v>
+      </c>
+      <c r="H910" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="911" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A911" s="1"/>
-      <c r="C911" s="1"/>
-      <c r="D911" s="1"/>
-      <c r="E911" s="1"/>
-      <c r="F911" s="1"/>
-      <c r="G911" s="1"/>
-      <c r="H911" s="1"/>
+      <c r="A911" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C911" s="2">
+        <v>9357747</v>
+      </c>
+      <c r="D911" s="2">
+        <v>6275420</v>
+      </c>
+      <c r="E911" s="5">
+        <v>45814.416666666664</v>
+      </c>
+      <c r="F911" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G911" s="2">
+        <v>39</v>
+      </c>
+      <c r="H911" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="912" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A912" s="1"/>
-      <c r="C912" s="1"/>
-      <c r="D912" s="1"/>
-      <c r="E912" s="1"/>
-      <c r="F912" s="1"/>
-      <c r="G912" s="1"/>
-      <c r="H912" s="1"/>
+      <c r="A912" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C912" s="2">
+        <v>9415489</v>
+      </c>
+      <c r="D912" s="2">
+        <v>6427423</v>
+      </c>
+      <c r="E912" s="5">
+        <v>45834.916666666664</v>
+      </c>
+      <c r="F912" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G912" s="2">
+        <v>26</v>
+      </c>
+      <c r="H912" s="2">
+        <v>3126</v>
+      </c>
     </row>
     <row r="913" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A913" s="1"/>
-      <c r="C913" s="1"/>
-      <c r="D913" s="1"/>
-      <c r="E913" s="1"/>
-      <c r="F913" s="1"/>
-      <c r="G913" s="1"/>
-      <c r="H913" s="1"/>
+      <c r="A913" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C913" s="2">
+        <v>9350902</v>
+      </c>
+      <c r="D913" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E913" s="5">
+        <v>45810.916666666664</v>
+      </c>
+      <c r="F913" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G913" s="2">
+        <v>32</v>
+      </c>
+      <c r="H913" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="914" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A914" s="1"/>
-      <c r="C914" s="1"/>
-      <c r="D914" s="1"/>
-      <c r="E914" s="1"/>
-      <c r="F914" s="1"/>
-      <c r="G914" s="1"/>
-      <c r="H914" s="1"/>
+      <c r="A914" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C914" s="2">
+        <v>9371621</v>
+      </c>
+      <c r="D914" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E914" s="5">
+        <v>45818.416666666664</v>
+      </c>
+      <c r="F914" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G914" s="2">
+        <v>32</v>
+      </c>
+      <c r="H914" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="915" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A915" s="1"/>
-      <c r="C915" s="1"/>
-      <c r="D915" s="1"/>
-      <c r="E915" s="1"/>
-      <c r="F915" s="1"/>
-      <c r="G915" s="1"/>
-      <c r="H915" s="1"/>
+      <c r="A915" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C915" s="2">
+        <v>9434912</v>
+      </c>
+      <c r="D915" s="2">
+        <v>6098937</v>
+      </c>
+      <c r="E915" s="5">
+        <v>45842.916666666664</v>
+      </c>
+      <c r="F915" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G915" s="2">
+        <v>28</v>
+      </c>
+      <c r="H915" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="916" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A916" s="1"/>
-      <c r="C916" s="1"/>
-      <c r="D916" s="1"/>
-      <c r="E916" s="1"/>
-      <c r="F916" s="1"/>
-      <c r="G916" s="1"/>
-      <c r="H916" s="1"/>
+      <c r="A916" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C916" s="2">
+        <v>9489169</v>
+      </c>
+      <c r="D916" s="2">
+        <v>5024391</v>
+      </c>
+      <c r="E916" s="5">
+        <v>45859.416666666664</v>
+      </c>
+      <c r="F916" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G916" s="2">
+        <v>33</v>
+      </c>
+      <c r="H916" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="917" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A917" s="1"/>
-      <c r="C917" s="1"/>
-      <c r="D917" s="1"/>
-      <c r="E917" s="1"/>
-      <c r="F917" s="1"/>
-      <c r="G917" s="1"/>
-      <c r="H917" s="1"/>
+      <c r="A917" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C917" s="2">
+        <v>9484007</v>
+      </c>
+      <c r="D917" s="2">
+        <v>4102383</v>
+      </c>
+      <c r="E917" s="5">
+        <v>45856.416666666664</v>
+      </c>
+      <c r="F917" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G917" s="2">
+        <v>39</v>
+      </c>
+      <c r="H917" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="918" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A918" s="1"/>
-      <c r="C918" s="1"/>
-      <c r="D918" s="1"/>
-      <c r="E918" s="1"/>
-      <c r="F918" s="1"/>
-      <c r="G918" s="1"/>
-      <c r="H918" s="1"/>
+      <c r="A918" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C918" s="2">
+        <v>9486348</v>
+      </c>
+      <c r="D918" s="2">
+        <v>7077618</v>
+      </c>
+      <c r="E918" s="5">
+        <v>45861.416666666664</v>
+      </c>
+      <c r="F918" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G918" s="2">
+        <v>31</v>
+      </c>
+      <c r="H918" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="919" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A919" s="1"/>
-      <c r="C919" s="1"/>
-      <c r="D919" s="1"/>
-      <c r="E919" s="1"/>
-      <c r="F919" s="1"/>
-      <c r="G919" s="1"/>
-      <c r="H919" s="1"/>
+      <c r="A919" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C919" s="2">
+        <v>9459977</v>
+      </c>
+      <c r="D919" s="2">
+        <v>7022158</v>
+      </c>
+      <c r="E919" s="5">
+        <v>45847.916666666664</v>
+      </c>
+      <c r="F919" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G919" s="2">
+        <v>37</v>
+      </c>
+      <c r="H919" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="920" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A920" s="1"/>
-      <c r="C920" s="1"/>
-      <c r="D920" s="1"/>
-      <c r="E920" s="1"/>
-      <c r="F920" s="1"/>
-      <c r="G920" s="1"/>
-      <c r="H920" s="1"/>
+      <c r="A920" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C920" s="2">
+        <v>9435153</v>
+      </c>
+      <c r="D920" s="2">
+        <v>7024373</v>
+      </c>
+      <c r="E920" s="5">
+        <v>45839.916666666664</v>
+      </c>
+      <c r="F920" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G920" s="2">
+        <v>27</v>
+      </c>
+      <c r="H920" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="921" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A921" s="1"/>
-      <c r="C921" s="1"/>
-      <c r="D921" s="1"/>
-      <c r="E921" s="1"/>
-      <c r="F921" s="1"/>
-      <c r="G921" s="1"/>
-      <c r="H921" s="1"/>
+      <c r="A921" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C921" s="2">
+        <v>9405935</v>
+      </c>
+      <c r="D921" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E921" s="5">
+        <v>45862.416666666664</v>
+      </c>
+      <c r="F921" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G921" s="2">
+        <v>30</v>
+      </c>
+      <c r="H921" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="922" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A922" s="1"/>
-      <c r="C922" s="1"/>
-      <c r="D922" s="1"/>
-      <c r="E922" s="1"/>
-      <c r="F922" s="1"/>
-      <c r="G922" s="1"/>
-      <c r="H922" s="1"/>
+      <c r="A922" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C922" s="2">
+        <v>9468120</v>
+      </c>
+      <c r="D922" s="2">
+        <v>6364177</v>
+      </c>
+      <c r="E922" s="5">
+        <v>45857.916666666664</v>
+      </c>
+      <c r="F922" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G922" s="2">
+        <v>29</v>
+      </c>
+      <c r="H922" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="923" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A923" s="1"/>
-      <c r="C923" s="1"/>
-      <c r="D923" s="1"/>
-      <c r="E923" s="1"/>
-      <c r="F923" s="1"/>
-      <c r="G923" s="1"/>
-      <c r="H923" s="1"/>
+      <c r="A923" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C923" s="2">
+        <v>9459062</v>
+      </c>
+      <c r="D923" s="2">
+        <v>6364177</v>
+      </c>
+      <c r="E923" s="5">
+        <v>45848.916666666664</v>
+      </c>
+      <c r="F923" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G923" s="2">
+        <v>29</v>
+      </c>
+      <c r="H923" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="924" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A924" s="1"/>
-      <c r="C924" s="1"/>
-      <c r="D924" s="1"/>
-      <c r="E924" s="1"/>
-      <c r="F924" s="1"/>
-      <c r="G924" s="1"/>
-      <c r="H924" s="1"/>
+      <c r="A924" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C924" s="2">
+        <v>9390530</v>
+      </c>
+      <c r="D924" s="2">
+        <v>6978743</v>
+      </c>
+      <c r="E924" s="5">
+        <v>45844.416666666664</v>
+      </c>
+      <c r="F924" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G924" s="2">
+        <v>29</v>
+      </c>
+      <c r="H924" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="925" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A925" s="1"/>
-      <c r="C925" s="1"/>
-      <c r="D925" s="1"/>
-      <c r="E925" s="1"/>
-      <c r="F925" s="1"/>
-      <c r="G925" s="1"/>
-      <c r="H925" s="1"/>
+      <c r="A925" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C925" s="2">
+        <v>9513547</v>
+      </c>
+      <c r="D925" s="2">
+        <v>4173483</v>
+      </c>
+      <c r="E925" s="5">
+        <v>45868.916666666664</v>
+      </c>
+      <c r="F925" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G925" s="2">
+        <v>41</v>
+      </c>
+      <c r="H925" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="926" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A926" s="1"/>
-      <c r="C926" s="1"/>
-      <c r="D926" s="1"/>
-      <c r="E926" s="1"/>
-      <c r="F926" s="1"/>
-      <c r="G926" s="1"/>
-      <c r="H926" s="1"/>
+      <c r="A926" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C926" s="2">
+        <v>9258156</v>
+      </c>
+      <c r="D926" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E926" s="5">
+        <v>45843.916666666664</v>
+      </c>
+      <c r="F926" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G926" s="2">
+        <v>36</v>
+      </c>
+      <c r="H926" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="927" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A927" s="1"/>
-      <c r="C927" s="1"/>
-      <c r="D927" s="1"/>
-      <c r="E927" s="1"/>
-      <c r="F927" s="1"/>
-      <c r="G927" s="1"/>
-      <c r="H927" s="1"/>
+      <c r="A927" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C927" s="2">
+        <v>9467130</v>
+      </c>
+      <c r="D927" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E927" s="5">
+        <v>45850.416666666664</v>
+      </c>
+      <c r="F927" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G927" s="2">
+        <v>32</v>
+      </c>
+      <c r="H927" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="928" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A928" s="1"/>
-      <c r="C928" s="1"/>
-      <c r="D928" s="1"/>
-      <c r="E928" s="1"/>
-      <c r="F928" s="1"/>
-      <c r="G928" s="1"/>
-      <c r="H928" s="1"/>
+      <c r="A928" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C928" s="2">
+        <v>9428287</v>
+      </c>
+      <c r="D928" s="2">
+        <v>7017260</v>
+      </c>
+      <c r="E928" s="5">
+        <v>45842.916666666664</v>
+      </c>
+      <c r="F928" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G928" s="2">
+        <v>42</v>
+      </c>
+      <c r="H928" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="929" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A929" s="1"/>
-      <c r="C929" s="1"/>
-      <c r="D929" s="1"/>
-      <c r="E929" s="1"/>
-      <c r="F929" s="1"/>
-      <c r="G929" s="1"/>
-      <c r="H929" s="1"/>
+      <c r="A929" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C929" s="2">
+        <v>9475014</v>
+      </c>
+      <c r="D929" s="2">
+        <v>5896323</v>
+      </c>
+      <c r="E929" s="5">
+        <v>45855.416666666664</v>
+      </c>
+      <c r="F929" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G929" s="2">
+        <v>23</v>
+      </c>
+      <c r="H929" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="930" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A930" s="1"/>
-      <c r="C930" s="1"/>
-      <c r="D930" s="1"/>
-      <c r="E930" s="1"/>
-      <c r="F930" s="1"/>
-      <c r="G930" s="1"/>
-      <c r="H930" s="1"/>
+      <c r="A930" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C930" s="2">
+        <v>9494481</v>
+      </c>
+      <c r="D930" s="2">
+        <v>4205094</v>
+      </c>
+      <c r="E930" s="5">
+        <v>45862.916666666664</v>
+      </c>
+      <c r="F930" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G930" s="2">
+        <v>32</v>
+      </c>
+      <c r="H930" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="931" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A931" s="1"/>
-      <c r="C931" s="1"/>
-      <c r="D931" s="1"/>
-      <c r="E931" s="1"/>
-      <c r="F931" s="1"/>
-      <c r="G931" s="1"/>
-      <c r="H931" s="1"/>
+      <c r="A931" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C931" s="2">
+        <v>9489077</v>
+      </c>
+      <c r="D931" s="2">
+        <v>6862316</v>
+      </c>
+      <c r="E931" s="5">
+        <v>45858.916666666664</v>
+      </c>
+      <c r="F931" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G931" s="2">
+        <v>45</v>
+      </c>
+      <c r="H931" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="932" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A932" s="1"/>
-      <c r="C932" s="1"/>
-      <c r="D932" s="1"/>
-      <c r="E932" s="1"/>
-      <c r="F932" s="1"/>
-      <c r="G932" s="1"/>
-      <c r="H932" s="1"/>
+      <c r="A932" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C932" s="2">
+        <v>9460868</v>
+      </c>
+      <c r="D932" s="2">
+        <v>5366414</v>
+      </c>
+      <c r="E932" s="5">
+        <v>45848.416666666664</v>
+      </c>
+      <c r="F932" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G932" s="2">
+        <v>34</v>
+      </c>
+      <c r="H932" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="933" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A933" s="1"/>
-      <c r="C933" s="1"/>
-      <c r="D933" s="1"/>
-      <c r="E933" s="1"/>
-      <c r="F933" s="1"/>
-      <c r="G933" s="1"/>
-      <c r="H933" s="1"/>
+      <c r="A933" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C933" s="2">
+        <v>9428073</v>
+      </c>
+      <c r="D933" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E933" s="5">
+        <v>45839.416666666664</v>
+      </c>
+      <c r="F933" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G933" s="2">
+        <v>26</v>
+      </c>
+      <c r="H933" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="934" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A934" s="1"/>
-      <c r="C934" s="1"/>
-      <c r="D934" s="1"/>
-      <c r="E934" s="1"/>
-      <c r="F934" s="1"/>
-      <c r="G934" s="1"/>
-      <c r="H934" s="1"/>
+      <c r="A934" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C934" s="2">
+        <v>9473577</v>
+      </c>
+      <c r="D934" s="2">
+        <v>5175306</v>
+      </c>
+      <c r="E934" s="5">
+        <v>45856.916666666664</v>
+      </c>
+      <c r="F934" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G934" s="2">
+        <v>40</v>
+      </c>
+      <c r="H934" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="935" spans="1:8" ht="15.75" thickBot="1">
       <c r="A935" s="1"/>
@@ -28963,24 +29970,6 @@
       <c r="G1462" s="1"/>
       <c r="H1462" s="1"/>
     </row>
-    <row r="1463" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1463" s="1"/>
-      <c r="C1463" s="1"/>
-      <c r="D1463" s="1"/>
-      <c r="E1463" s="1"/>
-      <c r="F1463" s="1"/>
-      <c r="G1463" s="1"/>
-      <c r="H1463" s="1"/>
-    </row>
-    <row r="1464" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1464" s="1"/>
-      <c r="C1464" s="1"/>
-      <c r="D1464" s="1"/>
-      <c r="E1464" s="1"/>
-      <c r="F1464" s="1"/>
-      <c r="G1464" s="1"/>
-      <c r="H1464" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05131B76-3612-42E1-89EF-6B80C677181F}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED0A7F4-2B88-4A45-AA72-903EB86D865E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="154">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -481,6 +481,24 @@
   <si>
     <t>Melsomvik</t>
   </si>
+  <si>
+    <t>Arenys de mar</t>
+  </si>
+  <si>
+    <t>Hemsedal</t>
+  </si>
+  <si>
+    <t>Siedlce</t>
+  </si>
+  <si>
+    <t>Rakkestad</t>
+  </si>
+  <si>
+    <t>HIS</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
 </sst>
 </file>
 
@@ -902,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:J1462"/>
+  <dimension ref="A1:J1460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A878" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A915" sqref="A915:XFD915"/>
+    <sheetView tabSelected="1" topLeftCell="A977" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B973" sqref="B973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -25219,688 +25237,1980 @@
       </c>
     </row>
     <row r="935" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A935" s="1"/>
-      <c r="C935" s="1"/>
-      <c r="D935" s="1"/>
-      <c r="E935" s="1"/>
-      <c r="F935" s="1"/>
-      <c r="G935" s="1"/>
-      <c r="H935" s="1"/>
+      <c r="A935" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C935" s="2">
+        <v>9533108</v>
+      </c>
+      <c r="D935" s="2">
+        <v>7030964</v>
+      </c>
+      <c r="E935" s="5">
+        <v>45876.916666666664</v>
+      </c>
+      <c r="F935" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G935" s="2">
+        <v>36</v>
+      </c>
+      <c r="H935" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="936" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A936" s="1"/>
-      <c r="C936" s="1"/>
-      <c r="D936" s="1"/>
-      <c r="E936" s="1"/>
-      <c r="F936" s="1"/>
-      <c r="G936" s="1"/>
-      <c r="H936" s="1"/>
+      <c r="A936" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C936" s="2">
+        <v>9536891</v>
+      </c>
+      <c r="D936" s="2">
+        <v>7074175</v>
+      </c>
+      <c r="E936" s="5">
+        <v>45879.416666666664</v>
+      </c>
+      <c r="F936" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G936" s="2">
+        <v>21</v>
+      </c>
+      <c r="H936" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="937" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A937" s="1"/>
-      <c r="C937" s="1"/>
-      <c r="D937" s="1"/>
-      <c r="E937" s="1"/>
-      <c r="F937" s="1"/>
-      <c r="G937" s="1"/>
-      <c r="H937" s="1"/>
+      <c r="A937" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C937" s="2">
+        <v>9542858</v>
+      </c>
+      <c r="D937" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E937" s="5">
+        <v>45881.416666666664</v>
+      </c>
+      <c r="F937" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G937" s="2">
+        <v>32</v>
+      </c>
+      <c r="H937" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="938" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A938" s="1"/>
-      <c r="C938" s="1"/>
-      <c r="D938" s="1"/>
-      <c r="E938" s="1"/>
-      <c r="F938" s="1"/>
-      <c r="G938" s="1"/>
-      <c r="H938" s="1"/>
+      <c r="A938" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C938" s="2">
+        <v>9526740</v>
+      </c>
+      <c r="D938" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E938" s="5">
+        <v>45874.416666666664</v>
+      </c>
+      <c r="F938" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G938" s="2">
+        <v>32</v>
+      </c>
+      <c r="H938" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="939" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A939" s="1"/>
-      <c r="C939" s="1"/>
-      <c r="D939" s="1"/>
-      <c r="E939" s="1"/>
-      <c r="F939" s="1"/>
-      <c r="G939" s="1"/>
-      <c r="H939" s="1"/>
+      <c r="A939" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C939" s="2">
+        <v>9527916</v>
+      </c>
+      <c r="D939" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E939" s="5">
+        <v>45874.916666666664</v>
+      </c>
+      <c r="F939" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G939" s="2">
+        <v>32</v>
+      </c>
+      <c r="H939" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="940" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A940" s="1"/>
-      <c r="C940" s="1"/>
-      <c r="D940" s="1"/>
-      <c r="E940" s="1"/>
-      <c r="F940" s="1"/>
-      <c r="G940" s="1"/>
-      <c r="H940" s="1"/>
+      <c r="A940" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C940" s="2">
+        <v>9530301</v>
+      </c>
+      <c r="D940" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E940" s="5">
+        <v>45875.916666666664</v>
+      </c>
+      <c r="F940" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G940" s="2">
+        <v>32</v>
+      </c>
+      <c r="H940" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="941" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A941" s="1"/>
-      <c r="C941" s="1"/>
-      <c r="D941" s="1"/>
-      <c r="E941" s="1"/>
-      <c r="F941" s="1"/>
-      <c r="G941" s="1"/>
-      <c r="H941" s="1"/>
+      <c r="A941" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C941" s="2">
+        <v>9552916</v>
+      </c>
+      <c r="D941" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E941" s="5">
+        <v>45886.416666666664</v>
+      </c>
+      <c r="F941" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G941" s="2">
+        <v>32</v>
+      </c>
+      <c r="H941" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="942" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A942" s="1"/>
-      <c r="C942" s="1"/>
-      <c r="D942" s="1"/>
-      <c r="E942" s="1"/>
-      <c r="F942" s="1"/>
-      <c r="G942" s="1"/>
-      <c r="H942" s="1"/>
+      <c r="A942" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C942" s="2">
+        <v>9546210</v>
+      </c>
+      <c r="D942" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E942" s="5">
+        <v>45882.916666666664</v>
+      </c>
+      <c r="F942" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G942" s="2">
+        <v>32</v>
+      </c>
+      <c r="H942" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="943" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A943" s="1"/>
-      <c r="C943" s="1"/>
-      <c r="D943" s="1"/>
-      <c r="E943" s="1"/>
-      <c r="F943" s="1"/>
-      <c r="G943" s="1"/>
-      <c r="H943" s="1"/>
+      <c r="A943" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C943" s="2">
+        <v>9365047</v>
+      </c>
+      <c r="D943" s="2">
+        <v>6957609</v>
+      </c>
+      <c r="E943" s="5">
+        <v>45876.416666666664</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G943" s="2">
+        <v>31</v>
+      </c>
+      <c r="H943" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="944" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A944" s="1"/>
-      <c r="C944" s="1"/>
-      <c r="D944" s="1"/>
-      <c r="E944" s="1"/>
-      <c r="F944" s="1"/>
-      <c r="G944" s="1"/>
-      <c r="H944" s="1"/>
+      <c r="A944" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C944" s="2">
+        <v>9561414</v>
+      </c>
+      <c r="D944" s="2">
+        <v>7161013</v>
+      </c>
+      <c r="E944" s="5">
+        <v>45890.416666666664</v>
+      </c>
+      <c r="F944" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G944" s="2">
+        <v>63</v>
+      </c>
+      <c r="H944" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="945" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A945" s="1"/>
-      <c r="C945" s="1"/>
-      <c r="D945" s="1"/>
-      <c r="E945" s="1"/>
-      <c r="F945" s="1"/>
-      <c r="G945" s="1"/>
-      <c r="H945" s="1"/>
+      <c r="A945" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C945" s="2">
+        <v>9580297</v>
+      </c>
+      <c r="D945" s="2">
+        <v>7178285</v>
+      </c>
+      <c r="E945" s="5">
+        <v>45898.416666666664</v>
+      </c>
+      <c r="F945" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G945" s="2">
+        <v>25</v>
+      </c>
+      <c r="H945" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="946" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A946" s="1"/>
-      <c r="C946" s="1"/>
-      <c r="D946" s="1"/>
-      <c r="E946" s="1"/>
-      <c r="F946" s="1"/>
-      <c r="G946" s="1"/>
-      <c r="H946" s="1"/>
+      <c r="A946" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C946" s="2">
+        <v>9539970</v>
+      </c>
+      <c r="D946" s="2">
+        <v>6973319</v>
+      </c>
+      <c r="E946" s="5">
+        <v>45880.416666666664</v>
+      </c>
+      <c r="F946" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G946" s="2">
+        <v>23</v>
+      </c>
+      <c r="H946" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="947" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A947" s="1"/>
-      <c r="C947" s="1"/>
-      <c r="D947" s="1"/>
-      <c r="E947" s="1"/>
-      <c r="F947" s="1"/>
-      <c r="G947" s="1"/>
-      <c r="H947" s="1"/>
+      <c r="A947" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C947" s="2">
+        <v>9570692</v>
+      </c>
+      <c r="D947" s="2">
+        <v>4254689</v>
+      </c>
+      <c r="E947" s="5">
+        <v>45895.916666666664</v>
+      </c>
+      <c r="F947" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G947" s="2">
+        <v>65</v>
+      </c>
+      <c r="H947" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="948" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A948" s="1"/>
-      <c r="C948" s="1"/>
-      <c r="D948" s="1"/>
-      <c r="E948" s="1"/>
-      <c r="F948" s="1"/>
-      <c r="G948" s="1"/>
-      <c r="H948" s="1"/>
+      <c r="A948" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C948" s="2">
+        <v>9538879</v>
+      </c>
+      <c r="D948" s="2">
+        <v>6606881</v>
+      </c>
+      <c r="E948" s="5">
+        <v>45880.916666666664</v>
+      </c>
+      <c r="F948" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G948" s="2">
+        <v>32</v>
+      </c>
+      <c r="H948" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="949" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A949" s="1"/>
-      <c r="C949" s="1"/>
-      <c r="D949" s="1"/>
-      <c r="E949" s="1"/>
-      <c r="F949" s="1"/>
-      <c r="G949" s="1"/>
-      <c r="H949" s="1"/>
+      <c r="A949" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C949" s="2">
+        <v>9521312</v>
+      </c>
+      <c r="D949" s="2">
+        <v>5203267</v>
+      </c>
+      <c r="E949" s="5">
+        <v>45872.416666666664</v>
+      </c>
+      <c r="F949" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G949" s="2">
+        <v>36</v>
+      </c>
+      <c r="H949" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="950" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A950" s="1"/>
-      <c r="C950" s="1"/>
-      <c r="D950" s="1"/>
-      <c r="E950" s="1"/>
-      <c r="F950" s="1"/>
-      <c r="G950" s="1"/>
-      <c r="H950" s="1"/>
+      <c r="A950" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C950" s="2">
+        <v>9551375</v>
+      </c>
+      <c r="D950" s="2">
+        <v>7150294</v>
+      </c>
+      <c r="E950" s="5">
+        <v>45887.916666666664</v>
+      </c>
+      <c r="F950" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G950" s="2">
+        <v>33</v>
+      </c>
+      <c r="H950" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="951" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A951" s="1"/>
-      <c r="C951" s="1"/>
-      <c r="D951" s="1"/>
-      <c r="E951" s="1"/>
-      <c r="F951" s="1"/>
-      <c r="G951" s="1"/>
-      <c r="H951" s="1"/>
+      <c r="A951" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C951" s="2">
+        <v>9538315</v>
+      </c>
+      <c r="D951" s="2">
+        <v>5068267</v>
+      </c>
+      <c r="E951" s="5">
+        <v>45879.416666666664</v>
+      </c>
+      <c r="F951" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G951" s="2">
+        <v>31</v>
+      </c>
+      <c r="H951" s="2">
+        <v>357</v>
+      </c>
     </row>
     <row r="952" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A952" s="1"/>
-      <c r="C952" s="1"/>
-      <c r="D952" s="1"/>
-      <c r="E952" s="1"/>
-      <c r="F952" s="1"/>
-      <c r="G952" s="1"/>
-      <c r="H952" s="1"/>
+      <c r="A952" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C952" s="2">
+        <v>9517210</v>
+      </c>
+      <c r="D952" s="2">
+        <v>7110818</v>
+      </c>
+      <c r="E952" s="5">
+        <v>45871.916666666664</v>
+      </c>
+      <c r="F952" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G952" s="2">
+        <v>35</v>
+      </c>
+      <c r="H952" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="953" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A953" s="1"/>
-      <c r="C953" s="1"/>
-      <c r="D953" s="1"/>
-      <c r="E953" s="1"/>
-      <c r="F953" s="1"/>
-      <c r="G953" s="1"/>
-      <c r="H953" s="1"/>
+      <c r="A953" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C953" s="2">
+        <v>9534782</v>
+      </c>
+      <c r="D953" s="2">
+        <v>6337727</v>
+      </c>
+      <c r="E953" s="5">
+        <v>45877.916666666664</v>
+      </c>
+      <c r="F953" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G953" s="2">
+        <v>42</v>
+      </c>
+      <c r="H953" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="954" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="1"/>
-      <c r="E954" s="1"/>
-      <c r="F954" s="1"/>
-      <c r="G954" s="1"/>
-      <c r="H954" s="1"/>
+      <c r="A954" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C954" s="2">
+        <v>9562667</v>
+      </c>
+      <c r="D954" s="2">
+        <v>4426036</v>
+      </c>
+      <c r="E954" s="5">
+        <v>45890.416666666664</v>
+      </c>
+      <c r="F954" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G954" s="2">
+        <v>35</v>
+      </c>
+      <c r="H954" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="955" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A955" s="1"/>
-      <c r="C955" s="1"/>
-      <c r="D955" s="1"/>
-      <c r="E955" s="1"/>
-      <c r="F955" s="1"/>
-      <c r="G955" s="1"/>
-      <c r="H955" s="1"/>
+      <c r="A955" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C955" s="2">
+        <v>9565984</v>
+      </c>
+      <c r="D955" s="2">
+        <v>7146596</v>
+      </c>
+      <c r="E955" s="5">
+        <v>45892.416666666664</v>
+      </c>
+      <c r="F955" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G955" s="2">
+        <v>40</v>
+      </c>
+      <c r="H955" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="956" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A956" s="1"/>
-      <c r="C956" s="1"/>
-      <c r="D956" s="1"/>
-      <c r="E956" s="1"/>
-      <c r="F956" s="1"/>
-      <c r="G956" s="1"/>
-      <c r="H956" s="1"/>
+      <c r="A956" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C956" s="2">
+        <v>9541115</v>
+      </c>
+      <c r="D956" s="2">
+        <v>5855074</v>
+      </c>
+      <c r="E956" s="5">
+        <v>45881.416666666664</v>
+      </c>
+      <c r="F956" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G956" s="2">
+        <v>22</v>
+      </c>
+      <c r="H956" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="957" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A957" s="1"/>
-      <c r="C957" s="1"/>
-      <c r="D957" s="1"/>
-      <c r="E957" s="1"/>
-      <c r="F957" s="1"/>
-      <c r="G957" s="1"/>
-      <c r="H957" s="1"/>
+      <c r="A957" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C957" s="2">
+        <v>9405948</v>
+      </c>
+      <c r="D957" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E957" s="5">
+        <v>45870.416666666664</v>
+      </c>
+      <c r="F957" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G957" s="2">
+        <v>30</v>
+      </c>
+      <c r="H957" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="958" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A958" s="1"/>
-      <c r="C958" s="1"/>
-      <c r="D958" s="1"/>
-      <c r="E958" s="1"/>
-      <c r="F958" s="1"/>
-      <c r="G958" s="1"/>
-      <c r="H958" s="1"/>
+      <c r="A958" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C958" s="2">
+        <v>9523852</v>
+      </c>
+      <c r="D958" s="2">
+        <v>5242908</v>
+      </c>
+      <c r="E958" s="5">
+        <v>45873.416666666664</v>
+      </c>
+      <c r="F958" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G958" s="2">
+        <v>24</v>
+      </c>
+      <c r="H958" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="959" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A959" s="1"/>
-      <c r="C959" s="1"/>
-      <c r="D959" s="1"/>
-      <c r="E959" s="1"/>
-      <c r="F959" s="1"/>
-      <c r="G959" s="1"/>
-      <c r="H959" s="1"/>
+      <c r="A959" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C959" s="2">
+        <v>9561889</v>
+      </c>
+      <c r="D959" s="2">
+        <v>5463525</v>
+      </c>
+      <c r="E959" s="5">
+        <v>45890.416666666664</v>
+      </c>
+      <c r="F959" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G959" s="2">
+        <v>23</v>
+      </c>
+      <c r="H959" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="960" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A960" s="1"/>
-      <c r="C960" s="1"/>
-      <c r="D960" s="1"/>
-      <c r="E960" s="1"/>
-      <c r="F960" s="1"/>
-      <c r="G960" s="1"/>
-      <c r="H960" s="1"/>
+      <c r="A960" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C960" s="2">
+        <v>9535814</v>
+      </c>
+      <c r="D960" s="2">
+        <v>7131879</v>
+      </c>
+      <c r="E960" s="5">
+        <v>45878.416666666664</v>
+      </c>
+      <c r="F960" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G960" s="2">
+        <v>24</v>
+      </c>
+      <c r="H960" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="961" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A961" s="1"/>
-      <c r="C961" s="1"/>
-      <c r="D961" s="1"/>
-      <c r="E961" s="1"/>
-      <c r="F961" s="1"/>
-      <c r="G961" s="1"/>
-      <c r="H961" s="1"/>
+      <c r="A961" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C961" s="2">
+        <v>9565688</v>
+      </c>
+      <c r="D961" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E961" s="5">
+        <v>45893.416666666664</v>
+      </c>
+      <c r="F961" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G961" s="2">
+        <v>27</v>
+      </c>
+      <c r="H961" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="962" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A962" s="1"/>
-      <c r="C962" s="1"/>
-      <c r="D962" s="1"/>
-      <c r="E962" s="1"/>
-      <c r="F962" s="1"/>
-      <c r="G962" s="1"/>
-      <c r="H962" s="1"/>
+      <c r="A962" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C962" s="2">
+        <v>9421141</v>
+      </c>
+      <c r="D962" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E962" s="5">
+        <v>45897.416666666664</v>
+      </c>
+      <c r="F962" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G962" s="2">
+        <v>36</v>
+      </c>
+      <c r="H962" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="963" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A963" s="1"/>
-      <c r="C963" s="1"/>
-      <c r="D963" s="1"/>
-      <c r="E963" s="1"/>
-      <c r="F963" s="1"/>
-      <c r="G963" s="1"/>
-      <c r="H963" s="1"/>
+      <c r="A963" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C963" s="2">
+        <v>9553146</v>
+      </c>
+      <c r="D963" s="2">
+        <v>6862316</v>
+      </c>
+      <c r="E963" s="5">
+        <v>45886.416666666664</v>
+      </c>
+      <c r="F963" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G963" s="2">
+        <v>45</v>
+      </c>
+      <c r="H963" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="964" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A964" s="1"/>
-      <c r="C964" s="1"/>
-      <c r="D964" s="1"/>
-      <c r="E964" s="1"/>
-      <c r="F964" s="1"/>
-      <c r="G964" s="1"/>
-      <c r="H964" s="1"/>
+      <c r="A964" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C964" s="2">
+        <v>9534564</v>
+      </c>
+      <c r="D964" s="2">
+        <v>4010755</v>
+      </c>
+      <c r="E964" s="5">
+        <v>45877.916666666664</v>
+      </c>
+      <c r="F964" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G964" s="2">
+        <v>36</v>
+      </c>
+      <c r="H964" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="965" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A965" s="1"/>
-      <c r="C965" s="1"/>
-      <c r="D965" s="1"/>
-      <c r="E965" s="1"/>
-      <c r="F965" s="1"/>
-      <c r="G965" s="1"/>
-      <c r="H965" s="1"/>
+      <c r="A965" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C965" s="2">
+        <v>9563101</v>
+      </c>
+      <c r="D965" s="2">
+        <v>4596275</v>
+      </c>
+      <c r="E965" s="5">
+        <v>45891.416666666664</v>
+      </c>
+      <c r="F965" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G965" s="2">
+        <v>52</v>
+      </c>
+      <c r="H965" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="966" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A966" s="1"/>
-      <c r="C966" s="1"/>
-      <c r="D966" s="1"/>
-      <c r="E966" s="1"/>
-      <c r="F966" s="1"/>
-      <c r="G966" s="1"/>
-      <c r="H966" s="1"/>
+      <c r="A966" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C966" s="2">
+        <v>9557720</v>
+      </c>
+      <c r="D966" s="2">
+        <v>4173483</v>
+      </c>
+      <c r="E966" s="5">
+        <v>45891.416666666664</v>
+      </c>
+      <c r="F966" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G966" s="2">
+        <v>42</v>
+      </c>
+      <c r="H966" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="967" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A967" s="1"/>
-      <c r="C967" s="1"/>
-      <c r="D967" s="1"/>
-      <c r="E967" s="1"/>
-      <c r="F967" s="1"/>
-      <c r="G967" s="1"/>
-      <c r="H967" s="1"/>
+      <c r="A967" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C967" s="2">
+        <v>9569056</v>
+      </c>
+      <c r="D967" s="2">
+        <v>4116872</v>
+      </c>
+      <c r="E967" s="5">
+        <v>45894.416666666664</v>
+      </c>
+      <c r="F967" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G967" s="2">
+        <v>26</v>
+      </c>
+      <c r="H967" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="968" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A968" s="1"/>
-      <c r="C968" s="1"/>
-      <c r="D968" s="1"/>
-      <c r="E968" s="1"/>
-      <c r="F968" s="1"/>
-      <c r="G968" s="1"/>
-      <c r="H968" s="1"/>
+      <c r="A968" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C968" s="2">
+        <v>9511378</v>
+      </c>
+      <c r="D968" s="2">
+        <v>6159133</v>
+      </c>
+      <c r="E968" s="5">
+        <v>45882.416666666664</v>
+      </c>
+      <c r="F968" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G968" s="2">
+        <v>64</v>
+      </c>
+      <c r="H968" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="969" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A969" s="1"/>
-      <c r="C969" s="1"/>
-      <c r="D969" s="1"/>
-      <c r="E969" s="1"/>
-      <c r="F969" s="1"/>
-      <c r="G969" s="1"/>
-      <c r="H969" s="1"/>
+      <c r="A969" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C969" s="2">
+        <v>9564308</v>
+      </c>
+      <c r="D969" s="2">
+        <v>4194848</v>
+      </c>
+      <c r="E969" s="5">
+        <v>45895.916666666664</v>
+      </c>
+      <c r="F969" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G969" s="2">
+        <v>50</v>
+      </c>
+      <c r="H969" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="970" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A970" s="1"/>
-      <c r="C970" s="1"/>
-      <c r="D970" s="1"/>
-      <c r="E970" s="1"/>
-      <c r="F970" s="1"/>
-      <c r="G970" s="1"/>
-      <c r="H970" s="1"/>
+      <c r="A970" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C970" s="2">
+        <v>9553850</v>
+      </c>
+      <c r="D970" s="2">
+        <v>5948347</v>
+      </c>
+      <c r="E970" s="5">
+        <v>45904.416666666664</v>
+      </c>
+      <c r="F970" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G970" s="2">
+        <v>69</v>
+      </c>
+      <c r="H970" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="971" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A971" s="1"/>
-      <c r="C971" s="1"/>
-      <c r="D971" s="1"/>
-      <c r="E971" s="1"/>
-      <c r="F971" s="1"/>
-      <c r="G971" s="1"/>
-      <c r="H971" s="1"/>
+      <c r="A971" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C971" s="2">
+        <v>9607487</v>
+      </c>
+      <c r="D971" s="2">
+        <v>7202002</v>
+      </c>
+      <c r="E971" s="5">
+        <v>45910.916666666664</v>
+      </c>
+      <c r="F971" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G971" s="2">
+        <v>35</v>
+      </c>
+      <c r="H971" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="972" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A972" s="1"/>
-      <c r="C972" s="1"/>
-      <c r="D972" s="1"/>
-      <c r="E972" s="1"/>
-      <c r="F972" s="1"/>
-      <c r="G972" s="1"/>
-      <c r="H972" s="1"/>
+      <c r="A972" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C972" s="2">
+        <v>9644365</v>
+      </c>
+      <c r="D972" s="2">
+        <v>6478579</v>
+      </c>
+      <c r="E972" s="5">
+        <v>45926.916666666664</v>
+      </c>
+      <c r="F972" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G972" s="2">
+        <v>34</v>
+      </c>
+      <c r="H972" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="973" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A973" s="1"/>
-      <c r="C973" s="1"/>
-      <c r="D973" s="1"/>
-      <c r="E973" s="1"/>
-      <c r="F973" s="1"/>
-      <c r="G973" s="1"/>
-      <c r="H973" s="1"/>
+      <c r="A973" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C973" s="2">
+        <v>9634766</v>
+      </c>
+      <c r="D973" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E973" s="5">
+        <v>45920.916666666664</v>
+      </c>
+      <c r="F973" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G973" s="2">
+        <v>27</v>
+      </c>
+      <c r="H973" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="974" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-      <c r="E974" s="1"/>
-      <c r="F974" s="1"/>
-      <c r="G974" s="1"/>
-      <c r="H974" s="1"/>
+      <c r="A974" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C974" s="2">
+        <v>9599652</v>
+      </c>
+      <c r="D974" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E974" s="5">
+        <v>45906.916666666664</v>
+      </c>
+      <c r="F974" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G974" s="2">
+        <v>27</v>
+      </c>
+      <c r="H974" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="975" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A975" s="1"/>
-      <c r="C975" s="1"/>
-      <c r="D975" s="1"/>
-      <c r="E975" s="1"/>
-      <c r="F975" s="1"/>
-      <c r="G975" s="1"/>
-      <c r="H975" s="1"/>
+      <c r="A975" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C975" s="2">
+        <v>9622554</v>
+      </c>
+      <c r="D975" s="2">
+        <v>6541119</v>
+      </c>
+      <c r="E975" s="5">
+        <v>45915.916666666664</v>
+      </c>
+      <c r="F975" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G975" s="2">
+        <v>21</v>
+      </c>
+      <c r="H975" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="976" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A976" s="1"/>
-      <c r="C976" s="1"/>
-      <c r="D976" s="1"/>
-      <c r="E976" s="1"/>
-      <c r="F976" s="1"/>
-      <c r="G976" s="1"/>
-      <c r="H976" s="1"/>
+      <c r="A976" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C976" s="2">
+        <v>9612564</v>
+      </c>
+      <c r="D976" s="2">
+        <v>7206382</v>
+      </c>
+      <c r="E976" s="5">
+        <v>45912.416666666664</v>
+      </c>
+      <c r="F976" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G976" s="2">
+        <v>53</v>
+      </c>
+      <c r="H976" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="977" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A977" s="1"/>
-      <c r="C977" s="1"/>
-      <c r="D977" s="1"/>
-      <c r="E977" s="1"/>
-      <c r="F977" s="1"/>
-      <c r="G977" s="1"/>
-      <c r="H977" s="1"/>
+      <c r="A977" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C977" s="2">
+        <v>9544938</v>
+      </c>
+      <c r="D977" s="2">
+        <v>4249091</v>
+      </c>
+      <c r="E977" s="5">
+        <v>45901.916666666664</v>
+      </c>
+      <c r="F977" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G977" s="2">
+        <v>50</v>
+      </c>
+      <c r="H977" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="978" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A978" s="1"/>
-      <c r="C978" s="1"/>
-      <c r="D978" s="1"/>
-      <c r="E978" s="1"/>
-      <c r="F978" s="1"/>
-      <c r="G978" s="1"/>
-      <c r="H978" s="1"/>
+      <c r="A978" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C978" s="2">
+        <v>9641767</v>
+      </c>
+      <c r="D978" s="2">
+        <v>6334181</v>
+      </c>
+      <c r="E978" s="5">
+        <v>45929.916666666664</v>
+      </c>
+      <c r="F978" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G978" s="2">
+        <v>60</v>
+      </c>
+      <c r="H978" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="979" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A979" s="1"/>
-      <c r="C979" s="1"/>
-      <c r="D979" s="1"/>
-      <c r="E979" s="1"/>
-      <c r="F979" s="1"/>
-      <c r="G979" s="1"/>
-      <c r="H979" s="1"/>
+      <c r="A979" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C979" s="2">
+        <v>9620829</v>
+      </c>
+      <c r="D979" s="2">
+        <v>7210985</v>
+      </c>
+      <c r="E979" s="5">
+        <v>45915.416666666664</v>
+      </c>
+      <c r="F979" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G979" s="2">
+        <v>29</v>
+      </c>
+      <c r="H979" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="980" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A980" s="1"/>
-      <c r="C980" s="1"/>
-      <c r="D980" s="1"/>
-      <c r="E980" s="1"/>
-      <c r="F980" s="1"/>
-      <c r="G980" s="1"/>
-      <c r="H980" s="1"/>
+      <c r="A980" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C980" s="2">
+        <v>9594713</v>
+      </c>
+      <c r="D980" s="2">
+        <v>7146596</v>
+      </c>
+      <c r="E980" s="5">
+        <v>45904.916666666664</v>
+      </c>
+      <c r="F980" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G980" s="2">
+        <v>40</v>
+      </c>
+      <c r="H980" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="981" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A981" s="1"/>
-      <c r="C981" s="1"/>
-      <c r="D981" s="1"/>
-      <c r="E981" s="1"/>
-      <c r="F981" s="1"/>
-      <c r="G981" s="1"/>
-      <c r="H981" s="1"/>
+      <c r="A981" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C981" s="2">
+        <v>9597528</v>
+      </c>
+      <c r="D981" s="2">
+        <v>4140323</v>
+      </c>
+      <c r="E981" s="5">
+        <v>45906.916666666664</v>
+      </c>
+      <c r="F981" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G981" s="2">
+        <v>44</v>
+      </c>
+      <c r="H981" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="982" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A982" s="1"/>
-      <c r="C982" s="1"/>
-      <c r="D982" s="1"/>
-      <c r="E982" s="1"/>
-      <c r="F982" s="1"/>
-      <c r="G982" s="1"/>
-      <c r="H982" s="1"/>
+      <c r="A982" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C982" s="2">
+        <v>9624447</v>
+      </c>
+      <c r="D982" s="2">
+        <v>5711650</v>
+      </c>
+      <c r="E982" s="5">
+        <v>45917.416666666664</v>
+      </c>
+      <c r="F982" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G982" s="2">
+        <v>32</v>
+      </c>
+      <c r="H982" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="983" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A983" s="1"/>
-      <c r="C983" s="1"/>
-      <c r="D983" s="1"/>
-      <c r="E983" s="1"/>
-      <c r="F983" s="1"/>
-      <c r="G983" s="1"/>
-      <c r="H983" s="1"/>
+      <c r="A983" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C983" s="2">
+        <v>9588327</v>
+      </c>
+      <c r="D983" s="2">
+        <v>7185306</v>
+      </c>
+      <c r="E983" s="5">
+        <v>45907.916666666664</v>
+      </c>
+      <c r="F983" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G983" s="2">
+        <v>55</v>
+      </c>
+      <c r="H983" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="984" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="1"/>
-      <c r="E984" s="1"/>
-      <c r="F984" s="1"/>
-      <c r="G984" s="1"/>
-      <c r="H984" s="1"/>
+      <c r="A984" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C984" s="2">
+        <v>9603889</v>
+      </c>
+      <c r="D984" s="2">
+        <v>7197319</v>
+      </c>
+      <c r="E984" s="5">
+        <v>45908.416666666664</v>
+      </c>
+      <c r="F984" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G984" s="2">
+        <v>25</v>
+      </c>
+      <c r="H984" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="985" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="1"/>
-      <c r="E985" s="1"/>
-      <c r="F985" s="1"/>
-      <c r="G985" s="1"/>
-      <c r="H985" s="1"/>
+      <c r="A985" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C985" s="2">
+        <v>9588293</v>
+      </c>
+      <c r="D985" s="2">
+        <v>6398895</v>
+      </c>
+      <c r="E985" s="5">
+        <v>45902.416666666664</v>
+      </c>
+      <c r="F985" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G985" s="2">
+        <v>36</v>
+      </c>
+      <c r="H985" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="986" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="1"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="1"/>
-      <c r="G986" s="1"/>
-      <c r="H986" s="1"/>
+      <c r="A986" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C986" s="2">
+        <v>9653155</v>
+      </c>
+      <c r="D986" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E986" s="5">
+        <v>45928.916666666664</v>
+      </c>
+      <c r="F986" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G986" s="2">
+        <v>39</v>
+      </c>
+      <c r="H986" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="987" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="1"/>
-      <c r="E987" s="1"/>
-      <c r="F987" s="1"/>
-      <c r="G987" s="1"/>
-      <c r="H987" s="1"/>
+      <c r="A987" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C987" s="2">
+        <v>9581616</v>
+      </c>
+      <c r="D987" s="2">
+        <v>6460731</v>
+      </c>
+      <c r="E987" s="5">
+        <v>45906.916666666664</v>
+      </c>
+      <c r="F987" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G987" s="2">
+        <v>28</v>
+      </c>
+      <c r="H987" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="988" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A988" s="1"/>
-      <c r="C988" s="1"/>
-      <c r="D988" s="1"/>
-      <c r="E988" s="1"/>
-      <c r="F988" s="1"/>
-      <c r="G988" s="1"/>
-      <c r="H988" s="1"/>
+      <c r="A988" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C988" s="2">
+        <v>9594867</v>
+      </c>
+      <c r="D988" s="2">
+        <v>6460731</v>
+      </c>
+      <c r="E988" s="5">
+        <v>45906.916666666664</v>
+      </c>
+      <c r="F988" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G988" s="2">
+        <v>28</v>
+      </c>
+      <c r="H988" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="989" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A989" s="1"/>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1"/>
-      <c r="E989" s="1"/>
-      <c r="F989" s="1"/>
-      <c r="G989" s="1"/>
-      <c r="H989" s="1"/>
+      <c r="A989" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C989" s="2">
+        <v>9629933</v>
+      </c>
+      <c r="D989" s="2">
+        <v>7221465</v>
+      </c>
+      <c r="E989" s="5">
+        <v>45918.916666666664</v>
+      </c>
+      <c r="F989" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G989" s="2">
+        <v>53</v>
+      </c>
+      <c r="H989" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="990" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
-      <c r="G990" s="1"/>
-      <c r="H990" s="1"/>
+      <c r="A990" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C990" s="2">
+        <v>9646902</v>
+      </c>
+      <c r="D990" s="2">
+        <v>5638445</v>
+      </c>
+      <c r="E990" s="5">
+        <v>45926.916666666664</v>
+      </c>
+      <c r="F990" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G990" s="2">
+        <v>39</v>
+      </c>
+      <c r="H990" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="991" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-      <c r="E991" s="1"/>
-      <c r="F991" s="1"/>
-      <c r="G991" s="1"/>
-      <c r="H991" s="1"/>
+      <c r="A991" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C991" s="2">
+        <v>9604907</v>
+      </c>
+      <c r="D991" s="2">
+        <v>5006950</v>
+      </c>
+      <c r="E991" s="5">
+        <v>45909.416666666664</v>
+      </c>
+      <c r="F991" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G991" s="2">
+        <v>29</v>
+      </c>
+      <c r="H991" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="992" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-      <c r="E992" s="1"/>
-      <c r="F992" s="1"/>
-      <c r="G992" s="1"/>
-      <c r="H992" s="1"/>
+      <c r="A992" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C992" s="2">
+        <v>9622787</v>
+      </c>
+      <c r="D992" s="2">
+        <v>6756325</v>
+      </c>
+      <c r="E992" s="5">
+        <v>45916.416666666664</v>
+      </c>
+      <c r="F992" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G992" s="2">
+        <v>31</v>
+      </c>
+      <c r="H992" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="993" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1"/>
-      <c r="F993" s="1"/>
-      <c r="G993" s="1"/>
-      <c r="H993" s="1"/>
+      <c r="A993" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C993" s="2">
+        <v>9611325</v>
+      </c>
+      <c r="D993" s="2">
+        <v>5913784</v>
+      </c>
+      <c r="E993" s="5">
+        <v>45912.416666666664</v>
+      </c>
+      <c r="F993" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G993" s="2">
+        <v>48</v>
+      </c>
+      <c r="H993" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="994" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
+      <c r="A994" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C994" s="2">
+        <v>9641633</v>
+      </c>
+      <c r="D994" s="2">
+        <v>4480083</v>
+      </c>
+      <c r="E994" s="5">
+        <v>45924.416666666664</v>
+      </c>
+      <c r="F994" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G994" s="2">
+        <v>68</v>
+      </c>
+      <c r="H994" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="995" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
+      <c r="A995" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C995" s="2">
+        <v>9606626</v>
+      </c>
+      <c r="D995" s="2">
+        <v>7201023</v>
+      </c>
+      <c r="E995" s="5">
+        <v>45909.416666666664</v>
+      </c>
+      <c r="F995" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G995" s="2">
+        <v>26</v>
+      </c>
+      <c r="H995" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="996" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
+      <c r="A996" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C996" s="2">
+        <v>9611276</v>
+      </c>
+      <c r="D996" s="2">
+        <v>7205250</v>
+      </c>
+      <c r="E996" s="5">
+        <v>45911.916666666664</v>
+      </c>
+      <c r="F996" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G996" s="2">
+        <v>43</v>
+      </c>
+      <c r="H996" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="997" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
+      <c r="A997" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C997" s="2">
+        <v>9620515</v>
+      </c>
+      <c r="D997" s="2">
+        <v>6208089</v>
+      </c>
+      <c r="E997" s="5">
+        <v>45915.416666666664</v>
+      </c>
+      <c r="F997" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G997" s="2">
+        <v>25</v>
+      </c>
+      <c r="H997" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="998" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
+      <c r="A998" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C998" s="2">
+        <v>9637769</v>
+      </c>
+      <c r="D998" s="2">
+        <v>5872135</v>
+      </c>
+      <c r="E998" s="5">
+        <v>45923.416666666664</v>
+      </c>
+      <c r="F998" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G998" s="2">
+        <v>29</v>
+      </c>
+      <c r="H998" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="999" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
+      <c r="A999" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C999" s="2">
+        <v>9628486</v>
+      </c>
+      <c r="D999" s="2">
+        <v>4166518</v>
+      </c>
+      <c r="E999" s="5">
+        <v>45919.916666666664</v>
+      </c>
+      <c r="F999" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G999" s="2">
+        <v>28</v>
+      </c>
+      <c r="H999" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1000" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
+      <c r="A1000" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1000" s="2">
+        <v>9599858</v>
+      </c>
+      <c r="D1000" s="2">
+        <v>5209970</v>
+      </c>
+      <c r="E1000" s="5">
+        <v>45906.416666666664</v>
+      </c>
+      <c r="F1000" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1000" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1000" s="2">
+        <v>484</v>
+      </c>
     </row>
     <row r="1001" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
+      <c r="A1001" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1001" s="2">
+        <v>9616001</v>
+      </c>
+      <c r="D1001" s="2">
+        <v>7209414</v>
+      </c>
+      <c r="E1001" s="5">
+        <v>45912.916666666664</v>
+      </c>
+      <c r="F1001" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1001" s="2">
+        <v>47</v>
+      </c>
+      <c r="H1001" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="1002" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="1"/>
-      <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
+      <c r="A1002" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1002" s="2">
+        <v>9600945</v>
+      </c>
+      <c r="D1002" s="2">
+        <v>7196197</v>
+      </c>
+      <c r="E1002" s="5">
+        <v>45909.416666666664</v>
+      </c>
+      <c r="F1002" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1002" s="2">
+        <v>48</v>
+      </c>
+      <c r="H1002" s="2">
+        <v>3121</v>
+      </c>
     </row>
     <row r="1003" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
-      <c r="G1003" s="1"/>
-      <c r="H1003" s="1"/>
+      <c r="A1003" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1003" s="2">
+        <v>9586368</v>
+      </c>
+      <c r="D1003" s="2">
+        <v>6044587</v>
+      </c>
+      <c r="E1003" s="5">
+        <v>45905.416666666664</v>
+      </c>
+      <c r="F1003" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1003" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1003" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="1004" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="1"/>
-      <c r="E1004" s="1"/>
-      <c r="F1004" s="1"/>
-      <c r="G1004" s="1"/>
-      <c r="H1004" s="1"/>
+      <c r="A1004" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1004" s="2">
+        <v>9636550</v>
+      </c>
+      <c r="D1004" s="2">
+        <v>7226834</v>
+      </c>
+      <c r="E1004" s="5">
+        <v>45928.416666666664</v>
+      </c>
+      <c r="F1004" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1004" s="2">
+        <v>68</v>
+      </c>
+      <c r="H1004" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1005" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1005" s="1"/>
-      <c r="C1005" s="1"/>
-      <c r="D1005" s="1"/>
-      <c r="E1005" s="1"/>
-      <c r="F1005" s="1"/>
-      <c r="G1005" s="1"/>
-      <c r="H1005" s="1"/>
+      <c r="A1005" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1005" s="2">
+        <v>9647110</v>
+      </c>
+      <c r="D1005" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E1005" s="5">
+        <v>45926.416666666664</v>
+      </c>
+      <c r="F1005" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1005" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1005" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1006" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1006" s="1"/>
-      <c r="C1006" s="1"/>
-      <c r="D1006" s="1"/>
-      <c r="E1006" s="1"/>
-      <c r="F1006" s="1"/>
-      <c r="G1006" s="1"/>
-      <c r="H1006" s="1"/>
+      <c r="A1006" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1006" s="2">
+        <v>9606606</v>
+      </c>
+      <c r="D1006" s="2">
+        <v>7201178</v>
+      </c>
+      <c r="E1006" s="5">
+        <v>45910.416666666664</v>
+      </c>
+      <c r="F1006" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1006" s="2">
+        <v>71</v>
+      </c>
+      <c r="H1006" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1007" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
-      <c r="E1007" s="1"/>
-      <c r="F1007" s="1"/>
-      <c r="G1007" s="1"/>
-      <c r="H1007" s="1"/>
+      <c r="A1007" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1007" s="2">
+        <v>9626279</v>
+      </c>
+      <c r="D1007" s="2">
+        <v>7218353</v>
+      </c>
+      <c r="E1007" s="5">
+        <v>45917.916666666664</v>
+      </c>
+      <c r="F1007" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1007" s="2">
+        <v>58</v>
+      </c>
+      <c r="H1007" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="1008" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="1"/>
-      <c r="E1008" s="1"/>
-      <c r="F1008" s="1"/>
-      <c r="G1008" s="1"/>
-      <c r="H1008" s="1"/>
+      <c r="A1008" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1008" s="2">
+        <v>9639079</v>
+      </c>
+      <c r="D1008" s="2">
+        <v>4173483</v>
+      </c>
+      <c r="E1008" s="5">
+        <v>45923.416666666664</v>
+      </c>
+      <c r="F1008" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1008" s="2">
+        <v>42</v>
+      </c>
+      <c r="H1008" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1009" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1009" s="1"/>
-      <c r="C1009" s="1"/>
-      <c r="D1009" s="1"/>
-      <c r="E1009" s="1"/>
-      <c r="F1009" s="1"/>
-      <c r="G1009" s="1"/>
-      <c r="H1009" s="1"/>
+      <c r="A1009" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1009" s="2">
+        <v>9634748</v>
+      </c>
+      <c r="D1009" s="2">
+        <v>5317029</v>
+      </c>
+      <c r="E1009" s="5">
+        <v>45921.416666666664</v>
+      </c>
+      <c r="F1009" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1009" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1009" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1010" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
-      <c r="E1010" s="1"/>
-      <c r="F1010" s="1"/>
-      <c r="G1010" s="1"/>
-      <c r="H1010" s="1"/>
+      <c r="A1010" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1010" s="2">
+        <v>9617929</v>
+      </c>
+      <c r="D1010" s="2">
+        <v>7210924</v>
+      </c>
+      <c r="E1010" s="5">
+        <v>45913.916666666664</v>
+      </c>
+      <c r="F1010" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1010" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1010" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="1011" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1011" s="1"/>
@@ -29952,24 +31262,6 @@
       <c r="G1460" s="1"/>
       <c r="H1460" s="1"/>
     </row>
-    <row r="1461" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1461" s="1"/>
-      <c r="C1461" s="1"/>
-      <c r="D1461" s="1"/>
-      <c r="E1461" s="1"/>
-      <c r="F1461" s="1"/>
-      <c r="G1461" s="1"/>
-      <c r="H1461" s="1"/>
-    </row>
-    <row r="1462" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1462" s="1"/>
-      <c r="C1462" s="1"/>
-      <c r="D1462" s="1"/>
-      <c r="E1462" s="1"/>
-      <c r="F1462" s="1"/>
-      <c r="G1462" s="1"/>
-      <c r="H1462" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED0A7F4-2B88-4A45-AA72-903EB86D865E}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{457ECBD3-EED5-433E-BAA3-C22E412CD1CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="158">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -499,6 +499,18 @@
   <si>
     <t>Athens</t>
   </si>
+  <si>
+    <t>Luque</t>
+  </si>
+  <si>
+    <t>Loddefjord</t>
+  </si>
+  <si>
+    <t>Buccino</t>
+  </si>
+  <si>
+    <t>Odesa</t>
+  </si>
 </sst>
 </file>
 
@@ -922,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
   <dimension ref="A1:J1460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A977" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B973" sqref="B973"/>
+    <sheetView tabSelected="1" topLeftCell="A1016" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1038" sqref="F1038"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -27213,283 +27225,810 @@
       </c>
     </row>
     <row r="1011" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
-      <c r="F1011" s="1"/>
-      <c r="G1011" s="1"/>
-      <c r="H1011" s="1"/>
+      <c r="A1011" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1011" s="2">
+        <v>9690427</v>
+      </c>
+      <c r="D1011" s="2">
+        <v>7270936</v>
+      </c>
+      <c r="E1011" s="5">
+        <v>45943.916666666664</v>
+      </c>
+      <c r="F1011" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1011" s="2">
+        <v>35</v>
+      </c>
+      <c r="H1011" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="1012" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1012" s="1"/>
-      <c r="C1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1"/>
-      <c r="F1012" s="1"/>
-      <c r="G1012" s="1"/>
-      <c r="H1012" s="1"/>
+      <c r="A1012" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1012" s="2">
+        <v>9664935</v>
+      </c>
+      <c r="D1012" s="2">
+        <v>5412544</v>
+      </c>
+      <c r="E1012" s="5">
+        <v>45935.416666666664</v>
+      </c>
+      <c r="F1012" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1012" s="2">
+        <v>39</v>
+      </c>
+      <c r="H1012" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="1013" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1013" s="1"/>
-      <c r="C1013" s="1"/>
-      <c r="D1013" s="1"/>
-      <c r="E1013" s="1"/>
-      <c r="F1013" s="1"/>
-      <c r="G1013" s="1"/>
-      <c r="H1013" s="1"/>
+      <c r="A1013" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1013" s="2">
+        <v>9712646</v>
+      </c>
+      <c r="D1013" s="2">
+        <v>7286483</v>
+      </c>
+      <c r="E1013" s="5">
+        <v>45954.416666666664</v>
+      </c>
+      <c r="F1013" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1013" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1013" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1014" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1014" s="1"/>
-      <c r="C1014" s="1"/>
-      <c r="D1014" s="1"/>
-      <c r="E1014" s="1"/>
-      <c r="F1014" s="1"/>
-      <c r="G1014" s="1"/>
-      <c r="H1014" s="1"/>
+      <c r="A1014" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1014" s="2">
+        <v>9663751</v>
+      </c>
+      <c r="D1014" s="2">
+        <v>7249184</v>
+      </c>
+      <c r="E1014" s="5">
+        <v>45933.916666666664</v>
+      </c>
+      <c r="F1014" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1014" s="2">
+        <v>52</v>
+      </c>
+      <c r="H1014" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="1015" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1015" s="1"/>
-      <c r="C1015" s="1"/>
-      <c r="D1015" s="1"/>
-      <c r="E1015" s="1"/>
-      <c r="F1015" s="1"/>
-      <c r="G1015" s="1"/>
-      <c r="H1015" s="1"/>
+      <c r="A1015" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1015" s="2">
+        <v>9692532</v>
+      </c>
+      <c r="D1015" s="2">
+        <v>6956221</v>
+      </c>
+      <c r="E1015" s="5">
+        <v>45945.416666666664</v>
+      </c>
+      <c r="F1015" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1015" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1015" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="1016" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1016" s="1"/>
-      <c r="C1016" s="1"/>
-      <c r="D1016" s="1"/>
-      <c r="E1016" s="1"/>
-      <c r="F1016" s="1"/>
-      <c r="G1016" s="1"/>
-      <c r="H1016" s="1"/>
+      <c r="A1016" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1016" s="2">
+        <v>9682940</v>
+      </c>
+      <c r="D1016" s="2">
+        <v>4104580</v>
+      </c>
+      <c r="E1016" s="5">
+        <v>45940.916666666664</v>
+      </c>
+      <c r="F1016" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1016" s="2">
+        <v>41</v>
+      </c>
+      <c r="H1016" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1017" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1017" s="1"/>
-      <c r="C1017" s="1"/>
-      <c r="D1017" s="1"/>
-      <c r="E1017" s="1"/>
-      <c r="F1017" s="1"/>
-      <c r="G1017" s="1"/>
-      <c r="H1017" s="1"/>
+      <c r="A1017" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1017" s="2">
+        <v>9719702</v>
+      </c>
+      <c r="D1017" s="2">
+        <v>5329450</v>
+      </c>
+      <c r="E1017" s="5">
+        <v>45957.958333333336</v>
+      </c>
+      <c r="F1017" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1017" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1017" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1018" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1018" s="1"/>
-      <c r="C1018" s="1"/>
-      <c r="D1018" s="1"/>
-      <c r="E1018" s="1"/>
-      <c r="F1018" s="1"/>
-      <c r="G1018" s="1"/>
-      <c r="H1018" s="1"/>
+      <c r="A1018" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1018" s="2">
+        <v>9685537</v>
+      </c>
+      <c r="D1018" s="2">
+        <v>4087870</v>
+      </c>
+      <c r="E1018" s="5">
+        <v>45941.916666666664</v>
+      </c>
+      <c r="F1018" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1018" s="2">
+        <v>44</v>
+      </c>
+      <c r="H1018" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="1019" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1019" s="1"/>
-      <c r="C1019" s="1"/>
-      <c r="D1019" s="1"/>
-      <c r="E1019" s="1"/>
-      <c r="F1019" s="1"/>
-      <c r="G1019" s="1"/>
-      <c r="H1019" s="1"/>
+      <c r="A1019" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1019" s="2">
+        <v>9702925</v>
+      </c>
+      <c r="D1019" s="2">
+        <v>7281141</v>
+      </c>
+      <c r="E1019" s="5">
+        <v>45949.916666666664</v>
+      </c>
+      <c r="F1019" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1019" s="2">
+        <v>38</v>
+      </c>
+      <c r="H1019" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="1020" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1020" s="1"/>
-      <c r="C1020" s="1"/>
-      <c r="D1020" s="1"/>
-      <c r="E1020" s="1"/>
-      <c r="F1020" s="1"/>
-      <c r="G1020" s="1"/>
-      <c r="H1020" s="1"/>
+      <c r="A1020" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1020" s="2">
+        <v>9670165</v>
+      </c>
+      <c r="D1020" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E1020" s="5">
+        <v>45947.916666666664</v>
+      </c>
+      <c r="F1020" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1020" s="2">
+        <v>36</v>
+      </c>
+      <c r="H1020" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1021" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1021" s="1"/>
-      <c r="C1021" s="1"/>
-      <c r="D1021" s="1"/>
-      <c r="E1021" s="1"/>
-      <c r="F1021" s="1"/>
-      <c r="G1021" s="1"/>
-      <c r="H1021" s="1"/>
+      <c r="A1021" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1021" s="2">
+        <v>9695975</v>
+      </c>
+      <c r="D1021" s="2">
+        <v>7142975</v>
+      </c>
+      <c r="E1021" s="5">
+        <v>45946.416666666664</v>
+      </c>
+      <c r="F1021" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1021" s="2">
+        <v>36</v>
+      </c>
+      <c r="H1021" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1022" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1022" s="1"/>
-      <c r="C1022" s="1"/>
-      <c r="D1022" s="1"/>
-      <c r="E1022" s="1"/>
-      <c r="F1022" s="1"/>
-      <c r="G1022" s="1"/>
-      <c r="H1022" s="1"/>
+      <c r="A1022" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1022" s="2">
+        <v>9695890</v>
+      </c>
+      <c r="D1022" s="2">
+        <v>7142975</v>
+      </c>
+      <c r="E1022" s="5">
+        <v>45946.416666666664</v>
+      </c>
+      <c r="F1022" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1022" s="2">
+        <v>36</v>
+      </c>
+      <c r="H1022" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1023" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1023" s="1"/>
-      <c r="C1023" s="1"/>
-      <c r="D1023" s="1"/>
-      <c r="E1023" s="1"/>
-      <c r="F1023" s="1"/>
-      <c r="G1023" s="1"/>
-      <c r="H1023" s="1"/>
+      <c r="A1023" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1023" s="2">
+        <v>9684987</v>
+      </c>
+      <c r="D1023" s="2">
+        <v>7266596</v>
+      </c>
+      <c r="E1023" s="5">
+        <v>45942.916666666664</v>
+      </c>
+      <c r="F1023" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1023" s="2">
+        <v>21</v>
+      </c>
+      <c r="H1023" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1024" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1024" s="1"/>
-      <c r="C1024" s="1"/>
-      <c r="D1024" s="1"/>
-      <c r="E1024" s="1"/>
-      <c r="F1024" s="1"/>
-      <c r="G1024" s="1"/>
-      <c r="H1024" s="1"/>
+      <c r="A1024" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1024" s="2">
+        <v>9691494</v>
+      </c>
+      <c r="D1024" s="2">
+        <v>7266596</v>
+      </c>
+      <c r="E1024" s="5">
+        <v>45944.916666666664</v>
+      </c>
+      <c r="F1024" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1024" s="2">
+        <v>21</v>
+      </c>
+      <c r="H1024" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1025" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1025" s="1"/>
-      <c r="C1025" s="1"/>
-      <c r="D1025" s="1"/>
-      <c r="E1025" s="1"/>
-      <c r="F1025" s="1"/>
-      <c r="G1025" s="1"/>
-      <c r="H1025" s="1"/>
+      <c r="A1025" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1025" s="2">
+        <v>9691723</v>
+      </c>
+      <c r="D1025" s="2">
+        <v>7271934</v>
+      </c>
+      <c r="E1025" s="5">
+        <v>45946.916666666664</v>
+      </c>
+      <c r="F1025" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1025" s="2">
+        <v>29</v>
+      </c>
+      <c r="H1025" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1026" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1026" s="1"/>
-      <c r="C1026" s="1"/>
-      <c r="D1026" s="1"/>
-      <c r="E1026" s="1"/>
-      <c r="F1026" s="1"/>
-      <c r="G1026" s="1"/>
-      <c r="H1026" s="1"/>
+      <c r="A1026" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1026" s="2">
+        <v>9729792</v>
+      </c>
+      <c r="D1026" s="2">
+        <v>7303344</v>
+      </c>
+      <c r="E1026" s="5">
+        <v>45961.958333333336</v>
+      </c>
+      <c r="F1026" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1026" s="2">
+        <v>25</v>
+      </c>
+      <c r="H1026" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="1027" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1027" s="1"/>
-      <c r="C1027" s="1"/>
-      <c r="D1027" s="1"/>
-      <c r="E1027" s="1"/>
-      <c r="F1027" s="1"/>
-      <c r="G1027" s="1"/>
-      <c r="H1027" s="1"/>
+      <c r="A1027" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1027" s="2">
+        <v>9689147</v>
+      </c>
+      <c r="D1027" s="2">
+        <v>4014611</v>
+      </c>
+      <c r="E1027" s="5">
+        <v>45943.416666666664</v>
+      </c>
+      <c r="F1027" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1027" s="2">
+        <v>21</v>
+      </c>
+      <c r="H1027" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1028" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1028" s="1"/>
-      <c r="C1028" s="1"/>
-      <c r="D1028" s="1"/>
-      <c r="E1028" s="1"/>
-      <c r="F1028" s="1"/>
-      <c r="G1028" s="1"/>
-      <c r="H1028" s="1"/>
+      <c r="A1028" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1028" s="2">
+        <v>9680367</v>
+      </c>
+      <c r="D1028" s="2">
+        <v>7262155</v>
+      </c>
+      <c r="E1028" s="5">
+        <v>45939.916666666664</v>
+      </c>
+      <c r="F1028" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1028" s="2">
+        <v>25</v>
+      </c>
+      <c r="H1028" s="2">
+        <v>3114</v>
+      </c>
     </row>
     <row r="1029" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1029" s="1"/>
-      <c r="C1029" s="1"/>
-      <c r="D1029" s="1"/>
-      <c r="E1029" s="1"/>
-      <c r="F1029" s="1"/>
-      <c r="G1029" s="1"/>
-      <c r="H1029" s="1"/>
+      <c r="A1029" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1029" s="2">
+        <v>9658825</v>
+      </c>
+      <c r="D1029" s="2">
+        <v>5894401</v>
+      </c>
+      <c r="E1029" s="5">
+        <v>45960.958333333336</v>
+      </c>
+      <c r="F1029" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1029" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1029" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1030" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1030" s="1"/>
-      <c r="C1030" s="1"/>
-      <c r="D1030" s="1"/>
-      <c r="E1030" s="1"/>
-      <c r="F1030" s="1"/>
-      <c r="G1030" s="1"/>
-      <c r="H1030" s="1"/>
+      <c r="A1030" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1030" s="2">
+        <v>9687826</v>
+      </c>
+      <c r="D1030" s="2">
+        <v>5894401</v>
+      </c>
+      <c r="E1030" s="5">
+        <v>45953.916666666664</v>
+      </c>
+      <c r="F1030" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1030" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1030" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1031" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1031" s="1"/>
-      <c r="C1031" s="1"/>
-      <c r="D1031" s="1"/>
-      <c r="E1031" s="1"/>
-      <c r="F1031" s="1"/>
-      <c r="G1031" s="1"/>
-      <c r="H1031" s="1"/>
+      <c r="A1031" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1031" s="2">
+        <v>9722786</v>
+      </c>
+      <c r="D1031" s="2">
+        <v>7253374</v>
+      </c>
+      <c r="E1031" s="5">
+        <v>45958.958333333336</v>
+      </c>
+      <c r="F1031" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1031" s="2">
+        <v>22</v>
+      </c>
+      <c r="H1031" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="1032" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1032" s="1"/>
-      <c r="C1032" s="1"/>
-      <c r="D1032" s="1"/>
-      <c r="E1032" s="1"/>
-      <c r="F1032" s="1"/>
-      <c r="G1032" s="1"/>
-      <c r="H1032" s="1"/>
+      <c r="A1032" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1032" s="2">
+        <v>9683391</v>
+      </c>
+      <c r="D1032" s="2">
+        <v>7253374</v>
+      </c>
+      <c r="E1032" s="5">
+        <v>45953.916666666664</v>
+      </c>
+      <c r="F1032" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1032" s="2">
+        <v>22</v>
+      </c>
+      <c r="H1032" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="1033" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1033" s="1"/>
-      <c r="C1033" s="1"/>
-      <c r="D1033" s="1"/>
-      <c r="E1033" s="1"/>
-      <c r="F1033" s="1"/>
-      <c r="G1033" s="1"/>
-      <c r="H1033" s="1"/>
+      <c r="A1033" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1033" s="2">
+        <v>9701679</v>
+      </c>
+      <c r="D1033" s="2">
+        <v>7245189</v>
+      </c>
+      <c r="E1033" s="5">
+        <v>45948.916666666664</v>
+      </c>
+      <c r="F1033" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1033" s="2">
+        <v>32</v>
+      </c>
+      <c r="H1033" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1034" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1034" s="1"/>
-      <c r="C1034" s="1"/>
-      <c r="D1034" s="1"/>
-      <c r="E1034" s="1"/>
-      <c r="F1034" s="1"/>
-      <c r="G1034" s="1"/>
-      <c r="H1034" s="1"/>
+      <c r="A1034" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1034" s="2">
+        <v>9684083</v>
+      </c>
+      <c r="D1034" s="2">
+        <v>5388677</v>
+      </c>
+      <c r="E1034" s="5">
+        <v>45941.416666666664</v>
+      </c>
+      <c r="F1034" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1034" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1034" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1035" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1035" s="1"/>
-      <c r="C1035" s="1"/>
-      <c r="D1035" s="1"/>
-      <c r="E1035" s="1"/>
-      <c r="F1035" s="1"/>
-      <c r="G1035" s="1"/>
-      <c r="H1035" s="1"/>
+      <c r="A1035" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1035" s="2">
+        <v>9684516</v>
+      </c>
+      <c r="D1035" s="2">
+        <v>4085344</v>
+      </c>
+      <c r="E1035" s="5">
+        <v>45941.416666666664</v>
+      </c>
+      <c r="F1035" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1035" s="2">
+        <v>34</v>
+      </c>
+      <c r="H1035" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1036" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1036" s="1"/>
-      <c r="C1036" s="1"/>
-      <c r="D1036" s="1"/>
-      <c r="E1036" s="1"/>
-      <c r="F1036" s="1"/>
-      <c r="G1036" s="1"/>
-      <c r="H1036" s="1"/>
+      <c r="A1036" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1036" s="2">
+        <v>9725694</v>
+      </c>
+      <c r="D1036" s="2">
+        <v>5086185</v>
+      </c>
+      <c r="E1036" s="5">
+        <v>45961.458333333336</v>
+      </c>
+      <c r="F1036" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1036" s="2">
+        <v>71</v>
+      </c>
+      <c r="H1036" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1037" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1037" s="1"/>
-      <c r="C1037" s="1"/>
-      <c r="D1037" s="1"/>
-      <c r="E1037" s="1"/>
-      <c r="F1037" s="1"/>
-      <c r="G1037" s="1"/>
-      <c r="H1037" s="1"/>
+      <c r="A1037" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1037" s="2">
+        <v>9720597</v>
+      </c>
+      <c r="D1037" s="2">
+        <v>5747979</v>
+      </c>
+      <c r="E1037" s="5">
+        <v>45958.458333333336</v>
+      </c>
+      <c r="F1037" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1037" s="2">
+        <v>35</v>
+      </c>
+      <c r="H1037" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1038" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1038" s="1"/>
-      <c r="C1038" s="1"/>
-      <c r="D1038" s="1"/>
-      <c r="E1038" s="1"/>
-      <c r="F1038" s="1"/>
-      <c r="G1038" s="1"/>
-      <c r="H1038" s="1"/>
+      <c r="A1038" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1038" s="2">
+        <v>9721671</v>
+      </c>
+      <c r="D1038" s="2">
+        <v>5747979</v>
+      </c>
+      <c r="E1038" s="5">
+        <v>45958.458333333336</v>
+      </c>
+      <c r="F1038" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1038" s="2">
+        <v>35</v>
+      </c>
+      <c r="H1038" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1039" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1039" s="1"/>
-      <c r="C1039" s="1"/>
-      <c r="D1039" s="1"/>
-      <c r="E1039" s="1"/>
-      <c r="F1039" s="1"/>
-      <c r="G1039" s="1"/>
-      <c r="H1039" s="1"/>
+      <c r="A1039" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1039" s="2">
+        <v>9585992</v>
+      </c>
+      <c r="D1039" s="2">
+        <v>3570964</v>
+      </c>
+      <c r="E1039" s="5">
+        <v>45954.916666666664</v>
+      </c>
+      <c r="F1039" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1039" s="2">
+        <v>44</v>
+      </c>
+      <c r="H1039" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1040" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1040" s="1"/>
-      <c r="C1040" s="1"/>
-      <c r="D1040" s="1"/>
-      <c r="E1040" s="1"/>
-      <c r="F1040" s="1"/>
-      <c r="G1040" s="1"/>
-      <c r="H1040" s="1"/>
+      <c r="A1040" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1040" s="2">
+        <v>9695743</v>
+      </c>
+      <c r="D1040" s="2">
+        <v>3570964</v>
+      </c>
+      <c r="E1040" s="5">
+        <v>45946.416666666664</v>
+      </c>
+      <c r="F1040" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1040" s="2">
+        <v>44</v>
+      </c>
+      <c r="H1040" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1041" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1041" s="1"/>
-      <c r="C1041" s="1"/>
-      <c r="D1041" s="1"/>
-      <c r="E1041" s="1"/>
-      <c r="F1041" s="1"/>
-      <c r="G1041" s="1"/>
-      <c r="H1041" s="1"/>
+      <c r="A1041" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1041" s="2">
+        <v>9603005</v>
+      </c>
+      <c r="D1041" s="2">
+        <v>3570964</v>
+      </c>
+      <c r="E1041" s="5">
+        <v>45940.916666666664</v>
+      </c>
+      <c r="F1041" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1041" s="2">
+        <v>44</v>
+      </c>
+      <c r="H1041" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1042" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1042" s="1"/>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{457ECBD3-EED5-433E-BAA3-C22E412CD1CD}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B91FC8-1A22-4216-AC21-FBC1C873990D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="160">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -511,6 +511,12 @@
   <si>
     <t>Odesa</t>
   </si>
+  <si>
+    <t>Solbergelva</t>
+  </si>
+  <si>
+    <t>Vesr</t>
+  </si>
 </sst>
 </file>
 
@@ -932,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:J1460"/>
+  <dimension ref="A1:J1459"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1016" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1038" sqref="F1038"/>
+      <selection activeCell="A1042" sqref="A1042:XFD1042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28031,238 +28037,680 @@
       </c>
     </row>
     <row r="1042" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1042" s="1"/>
-      <c r="C1042" s="1"/>
-      <c r="D1042" s="1"/>
-      <c r="E1042" s="1"/>
-      <c r="F1042" s="1"/>
-      <c r="G1042" s="1"/>
-      <c r="H1042" s="1"/>
+      <c r="A1042" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1042" s="2">
+        <v>9730034</v>
+      </c>
+      <c r="D1042" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E1042" s="5">
+        <v>45962.458333333336</v>
+      </c>
+      <c r="F1042" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1042" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1042" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1043" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1043" s="1"/>
-      <c r="C1043" s="1"/>
-      <c r="D1043" s="1"/>
-      <c r="E1043" s="1"/>
-      <c r="F1043" s="1"/>
-      <c r="G1043" s="1"/>
-      <c r="H1043" s="1"/>
+      <c r="A1043" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1043" s="2">
+        <v>9772274</v>
+      </c>
+      <c r="D1043" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E1043" s="5">
+        <v>45982.958333333336</v>
+      </c>
+      <c r="F1043" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1043" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1043" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1044" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1044" s="1"/>
-      <c r="C1044" s="1"/>
-      <c r="D1044" s="1"/>
-      <c r="E1044" s="1"/>
-      <c r="F1044" s="1"/>
-      <c r="G1044" s="1"/>
-      <c r="H1044" s="1"/>
+      <c r="A1044" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1044" s="2">
+        <v>9775391</v>
+      </c>
+      <c r="D1044" s="2">
+        <v>7133200</v>
+      </c>
+      <c r="E1044" s="5">
+        <v>45985.458333333336</v>
+      </c>
+      <c r="F1044" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1044" s="2">
+        <v>21</v>
+      </c>
+      <c r="H1044" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1045" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1045" s="1"/>
-      <c r="C1045" s="1"/>
-      <c r="D1045" s="1"/>
-      <c r="E1045" s="1"/>
-      <c r="F1045" s="1"/>
-      <c r="G1045" s="1"/>
-      <c r="H1045" s="1"/>
+      <c r="A1045" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1045" s="2">
+        <v>9684246</v>
+      </c>
+      <c r="D1045" s="2">
+        <v>5317029</v>
+      </c>
+      <c r="E1045" s="5">
+        <v>45976.958333333336</v>
+      </c>
+      <c r="F1045" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1045" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1045" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1046" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1046" s="1"/>
-      <c r="C1046" s="1"/>
-      <c r="D1046" s="1"/>
-      <c r="E1046" s="1"/>
-      <c r="F1046" s="1"/>
-      <c r="G1046" s="1"/>
-      <c r="H1046" s="1"/>
+      <c r="A1046" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1046" s="2">
+        <v>9772650</v>
+      </c>
+      <c r="D1046" s="2">
+        <v>5317029</v>
+      </c>
+      <c r="E1046" s="5">
+        <v>45987.958333333336</v>
+      </c>
+      <c r="F1046" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1046" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1046" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1047" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1047" s="1"/>
-      <c r="C1047" s="1"/>
-      <c r="D1047" s="1"/>
-      <c r="E1047" s="1"/>
-      <c r="F1047" s="1"/>
-      <c r="G1047" s="1"/>
-      <c r="H1047" s="1"/>
+      <c r="A1047" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1047" s="2">
+        <v>9757473</v>
+      </c>
+      <c r="D1047" s="2">
+        <v>7325464</v>
+      </c>
+      <c r="E1047" s="5">
+        <v>45975.458333333336</v>
+      </c>
+      <c r="F1047" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1047" s="2">
+        <v>32</v>
+      </c>
+      <c r="H1047" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1048" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1048" s="1"/>
-      <c r="C1048" s="1"/>
-      <c r="D1048" s="1"/>
-      <c r="E1048" s="1"/>
-      <c r="F1048" s="1"/>
-      <c r="G1048" s="1"/>
-      <c r="H1048" s="1"/>
+      <c r="A1048" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1048" s="2">
+        <v>9786858</v>
+      </c>
+      <c r="D1048" s="2">
+        <v>7325464</v>
+      </c>
+      <c r="E1048" s="5">
+        <v>45989.958333333336</v>
+      </c>
+      <c r="F1048" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1048" s="2">
+        <v>32</v>
+      </c>
+      <c r="H1048" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1049" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1049" s="1"/>
-      <c r="C1049" s="1"/>
-      <c r="D1049" s="1"/>
-      <c r="E1049" s="1"/>
-      <c r="F1049" s="1"/>
-      <c r="G1049" s="1"/>
-      <c r="H1049" s="1"/>
+      <c r="A1049" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1049" s="2">
+        <v>9643751</v>
+      </c>
+      <c r="D1049" s="2">
+        <v>4998766</v>
+      </c>
+      <c r="E1049" s="5">
+        <v>45968.958333333336</v>
+      </c>
+      <c r="F1049" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1049" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1049" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1050" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1050" s="1"/>
-      <c r="C1050" s="1"/>
-      <c r="D1050" s="1"/>
-      <c r="E1050" s="1"/>
-      <c r="F1050" s="1"/>
-      <c r="G1050" s="1"/>
-      <c r="H1050" s="1"/>
+      <c r="A1050" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1050" s="2">
+        <v>9757637</v>
+      </c>
+      <c r="D1050" s="2">
+        <v>7325568</v>
+      </c>
+      <c r="E1050" s="5">
+        <v>45975.958333333336</v>
+      </c>
+      <c r="F1050" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1050" s="2">
+        <v>29</v>
+      </c>
+      <c r="H1050" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1051" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1051" s="1"/>
-      <c r="C1051" s="1"/>
-      <c r="D1051" s="1"/>
-      <c r="E1051" s="1"/>
-      <c r="F1051" s="1"/>
-      <c r="G1051" s="1"/>
-      <c r="H1051" s="1"/>
+      <c r="A1051" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>9772503</v>
+      </c>
+      <c r="D1051" s="2">
+        <v>4001034</v>
+      </c>
+      <c r="E1051" s="5">
+        <v>45982.958333333336</v>
+      </c>
+      <c r="F1051" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1051" s="2">
+        <v>44</v>
+      </c>
+      <c r="H1051" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1052" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1052" s="1"/>
-      <c r="C1052" s="1"/>
-      <c r="D1052" s="1"/>
-      <c r="E1052" s="1"/>
-      <c r="F1052" s="1"/>
-      <c r="G1052" s="1"/>
-      <c r="H1052" s="1"/>
+      <c r="A1052" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1052" s="2">
+        <v>9744837</v>
+      </c>
+      <c r="D1052" s="2">
+        <v>6521818</v>
+      </c>
+      <c r="E1052" s="5">
+        <v>45969.458333333336</v>
+      </c>
+      <c r="F1052" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1052" s="2">
+        <v>55</v>
+      </c>
+      <c r="H1052" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1053" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1053" s="1"/>
-      <c r="C1053" s="1"/>
-      <c r="D1053" s="1"/>
-      <c r="E1053" s="1"/>
-      <c r="F1053" s="1"/>
-      <c r="G1053" s="1"/>
-      <c r="H1053" s="1"/>
+      <c r="A1053" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1053" s="2">
+        <v>9765647</v>
+      </c>
+      <c r="D1053" s="2">
+        <v>7332754</v>
+      </c>
+      <c r="E1053" s="5">
+        <v>45990.958333333336</v>
+      </c>
+      <c r="F1053" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1053" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1053" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1054" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1054" s="1"/>
-      <c r="C1054" s="1"/>
-      <c r="D1054" s="1"/>
-      <c r="E1054" s="1"/>
-      <c r="F1054" s="1"/>
-      <c r="G1054" s="1"/>
-      <c r="H1054" s="1"/>
+      <c r="A1054" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1054" s="2">
+        <v>9761118</v>
+      </c>
+      <c r="D1054" s="2">
+        <v>7328383</v>
+      </c>
+      <c r="E1054" s="5">
+        <v>45977.958333333336</v>
+      </c>
+      <c r="F1054" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1054" s="2">
+        <v>50</v>
+      </c>
+      <c r="H1054" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1055" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1055" s="1"/>
-      <c r="C1055" s="1"/>
-      <c r="D1055" s="1"/>
-      <c r="E1055" s="1"/>
-      <c r="F1055" s="1"/>
-      <c r="G1055" s="1"/>
-      <c r="H1055" s="1"/>
+      <c r="A1055" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1055" s="2">
+        <v>9742930</v>
+      </c>
+      <c r="D1055" s="2">
+        <v>6964646</v>
+      </c>
+      <c r="E1055" s="5">
+        <v>45973.958333333336</v>
+      </c>
+      <c r="F1055" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1055" s="2">
+        <v>36</v>
+      </c>
+      <c r="H1055" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1056" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1056" s="1"/>
-      <c r="C1056" s="1"/>
-      <c r="D1056" s="1"/>
-      <c r="E1056" s="1"/>
-      <c r="F1056" s="1"/>
-      <c r="G1056" s="1"/>
-      <c r="H1056" s="1"/>
+      <c r="A1056" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1056" s="2">
+        <v>9767085</v>
+      </c>
+      <c r="D1056" s="2">
+        <v>5888511</v>
+      </c>
+      <c r="E1056" s="5">
+        <v>45980.458333333336</v>
+      </c>
+      <c r="F1056" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1056" s="2">
+        <v>25</v>
+      </c>
+      <c r="H1056" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1057" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1057" s="1"/>
-      <c r="C1057" s="1"/>
-      <c r="D1057" s="1"/>
-      <c r="E1057" s="1"/>
-      <c r="F1057" s="1"/>
-      <c r="G1057" s="1"/>
-      <c r="H1057" s="1"/>
+      <c r="A1057" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1057" s="2">
+        <v>9778615</v>
+      </c>
+      <c r="D1057" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E1057" s="5">
+        <v>45988.958333333336</v>
+      </c>
+      <c r="F1057" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1057" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1057" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1058" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1058" s="1"/>
-      <c r="C1058" s="1"/>
-      <c r="D1058" s="1"/>
-      <c r="E1058" s="1"/>
-      <c r="F1058" s="1"/>
-      <c r="G1058" s="1"/>
-      <c r="H1058" s="1"/>
+      <c r="A1058" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1058" s="2">
+        <v>9759283</v>
+      </c>
+      <c r="D1058" s="2">
+        <v>6067855</v>
+      </c>
+      <c r="E1058" s="5">
+        <v>45976.458333333336</v>
+      </c>
+      <c r="F1058" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1058" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1058" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1059" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1059" s="1"/>
-      <c r="C1059" s="1"/>
-      <c r="D1059" s="1"/>
-      <c r="E1059" s="1"/>
-      <c r="F1059" s="1"/>
-      <c r="G1059" s="1"/>
-      <c r="H1059" s="1"/>
+      <c r="A1059" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1059" s="2">
+        <v>9732014</v>
+      </c>
+      <c r="D1059" s="2">
+        <v>5913784</v>
+      </c>
+      <c r="E1059" s="5">
+        <v>45963.458333333336</v>
+      </c>
+      <c r="F1059" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1059" s="2">
+        <v>48</v>
+      </c>
+      <c r="H1059" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1060" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1060" s="1"/>
-      <c r="C1060" s="1"/>
-      <c r="D1060" s="1"/>
-      <c r="E1060" s="1"/>
-      <c r="F1060" s="1"/>
-      <c r="G1060" s="1"/>
-      <c r="H1060" s="1"/>
+      <c r="A1060" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1060" s="2">
+        <v>9772661</v>
+      </c>
+      <c r="D1060" s="2">
+        <v>5913784</v>
+      </c>
+      <c r="E1060" s="5">
+        <v>45984.958333333336</v>
+      </c>
+      <c r="F1060" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1060" s="2">
+        <v>48</v>
+      </c>
+      <c r="H1060" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1061" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1061" s="1"/>
-      <c r="C1061" s="1"/>
-      <c r="D1061" s="1"/>
-      <c r="E1061" s="1"/>
-      <c r="F1061" s="1"/>
-      <c r="G1061" s="1"/>
-      <c r="H1061" s="1"/>
+      <c r="A1061" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1061" s="2">
+        <v>9763014</v>
+      </c>
+      <c r="D1061" s="2">
+        <v>7329929</v>
+      </c>
+      <c r="E1061" s="5">
+        <v>45978.458333333336</v>
+      </c>
+      <c r="F1061" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1061" s="2">
+        <v>20</v>
+      </c>
+      <c r="H1061" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1062" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1062" s="1"/>
-      <c r="C1062" s="1"/>
-      <c r="D1062" s="1"/>
-      <c r="E1062" s="1"/>
-      <c r="F1062" s="1"/>
-      <c r="G1062" s="1"/>
-      <c r="H1062" s="1"/>
+      <c r="A1062" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1062" s="2">
+        <v>9789573</v>
+      </c>
+      <c r="D1062" s="2">
+        <v>7367606</v>
+      </c>
+      <c r="E1062" s="5">
+        <v>45991.458333333336</v>
+      </c>
+      <c r="F1062" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1062" s="2">
+        <v>53</v>
+      </c>
+      <c r="H1062" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1063" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1063" s="1"/>
-      <c r="C1063" s="1"/>
-      <c r="D1063" s="1"/>
-      <c r="E1063" s="1"/>
-      <c r="F1063" s="1"/>
-      <c r="G1063" s="1"/>
-      <c r="H1063" s="1"/>
+      <c r="A1063" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1063" s="2">
+        <v>9726230</v>
+      </c>
+      <c r="D1063" s="2">
+        <v>4024230</v>
+      </c>
+      <c r="E1063" s="5">
+        <v>45981.458333333336</v>
+      </c>
+      <c r="F1063" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1063" s="2">
+        <v>36</v>
+      </c>
+      <c r="H1063" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1064" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1064" s="1"/>
-      <c r="C1064" s="1"/>
-      <c r="D1064" s="1"/>
-      <c r="E1064" s="1"/>
-      <c r="F1064" s="1"/>
-      <c r="G1064" s="1"/>
-      <c r="H1064" s="1"/>
+      <c r="A1064" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1064" s="2">
+        <v>9765056</v>
+      </c>
+      <c r="D1064" s="2">
+        <v>7332003</v>
+      </c>
+      <c r="E1064" s="5">
+        <v>45979.458333333336</v>
+      </c>
+      <c r="F1064" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1064" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1064" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="1065" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1065" s="1"/>
-      <c r="C1065" s="1"/>
-      <c r="D1065" s="1"/>
-      <c r="E1065" s="1"/>
-      <c r="F1065" s="1"/>
-      <c r="G1065" s="1"/>
-      <c r="H1065" s="1"/>
+      <c r="A1065" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1065" s="2">
+        <v>9781969</v>
+      </c>
+      <c r="D1065" s="2">
+        <v>6621018</v>
+      </c>
+      <c r="E1065" s="5">
+        <v>45990.458333333336</v>
+      </c>
+      <c r="F1065" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1065" s="2">
+        <v>50</v>
+      </c>
+      <c r="H1065" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="1066" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1066" s="1"/>
-      <c r="C1066" s="1"/>
-      <c r="D1066" s="1"/>
-      <c r="E1066" s="1"/>
-      <c r="F1066" s="1"/>
-      <c r="G1066" s="1"/>
-      <c r="H1066" s="1"/>
+      <c r="A1066" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1066" s="2">
+        <v>9756485</v>
+      </c>
+      <c r="D1066" s="2">
+        <v>7321468</v>
+      </c>
+      <c r="E1066" s="5">
+        <v>45975.958333333336</v>
+      </c>
+      <c r="F1066" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1066" s="2">
+        <v>25</v>
+      </c>
+      <c r="H1066" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="1067" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1067" s="1"/>
-      <c r="C1067" s="1"/>
-      <c r="D1067" s="1"/>
-      <c r="E1067" s="1"/>
-      <c r="F1067" s="1"/>
-      <c r="G1067" s="1"/>
-      <c r="H1067" s="1"/>
+      <c r="A1067" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1067" s="2">
+        <v>9690586</v>
+      </c>
+      <c r="D1067" s="2">
+        <v>7235999</v>
+      </c>
+      <c r="E1067" s="5">
+        <v>45965.458333333336</v>
+      </c>
+      <c r="F1067" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1067" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1067" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1068" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1068" s="1"/>
@@ -31792,15 +32240,6 @@
       <c r="G1459" s="1"/>
       <c r="H1459" s="1"/>
     </row>
-    <row r="1460" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1460" s="1"/>
-      <c r="C1460" s="1"/>
-      <c r="D1460" s="1"/>
-      <c r="E1460" s="1"/>
-      <c r="F1460" s="1"/>
-      <c r="G1460" s="1"/>
-      <c r="H1460" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B91FC8-1A22-4216-AC21-FBC1C873990D}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D986ABB1-2B75-41F7-8BF2-75F05E73260A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="169">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -517,6 +517,33 @@
   <si>
     <t>Vesr</t>
   </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>undrumsdal</t>
+  </si>
+  <si>
+    <t>Notteroy</t>
+  </si>
+  <si>
+    <t>BORRE</t>
+  </si>
+  <si>
+    <t>Kirkeveien</t>
+  </si>
+  <si>
+    <t>ramnes</t>
+  </si>
+  <si>
+    <t>våle</t>
+  </si>
+  <si>
+    <t>TOLVSRØD</t>
+  </si>
+  <si>
+    <t>Tomasjord</t>
+  </si>
 </sst>
 </file>
 
@@ -938,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
-  <dimension ref="A1:J1459"/>
+  <dimension ref="A1:J1458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1016" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A1042" sqref="A1042:XFD1042"/>
+    <sheetView tabSelected="1" topLeftCell="A1038" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1083" sqref="C1083"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28713,400 +28740,1148 @@
       </c>
     </row>
     <row r="1068" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1068" s="1"/>
-      <c r="C1068" s="1"/>
-      <c r="D1068" s="1"/>
-      <c r="E1068" s="1"/>
-      <c r="F1068" s="1"/>
-      <c r="G1068" s="1"/>
-      <c r="H1068" s="1"/>
+      <c r="A1068" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1068" s="2">
+        <v>9828514</v>
+      </c>
+      <c r="D1068" s="2">
+        <v>5581512</v>
+      </c>
+      <c r="E1068" s="5">
+        <v>46009.958333333336</v>
+      </c>
+      <c r="F1068" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1068" s="2">
+        <v>32</v>
+      </c>
+      <c r="H1068" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1069" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1069" s="1"/>
-      <c r="C1069" s="1"/>
-      <c r="D1069" s="1"/>
-      <c r="E1069" s="1"/>
-      <c r="F1069" s="1"/>
-      <c r="G1069" s="1"/>
-      <c r="H1069" s="1"/>
+      <c r="A1069" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1069" s="2">
+        <v>9824774</v>
+      </c>
+      <c r="D1069" s="2">
+        <v>5581512</v>
+      </c>
+      <c r="E1069" s="5">
+        <v>46008.458333333336</v>
+      </c>
+      <c r="F1069" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1069" s="2">
+        <v>32</v>
+      </c>
+      <c r="H1069" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1070" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1070" s="1"/>
-      <c r="C1070" s="1"/>
-      <c r="D1070" s="1"/>
-      <c r="E1070" s="1"/>
-      <c r="F1070" s="1"/>
-      <c r="G1070" s="1"/>
-      <c r="H1070" s="1"/>
+      <c r="A1070" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1070" s="2">
+        <v>9803604</v>
+      </c>
+      <c r="D1070" s="2">
+        <v>5581512</v>
+      </c>
+      <c r="E1070" s="5">
+        <v>45997.458333333336</v>
+      </c>
+      <c r="F1070" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1070" s="2">
+        <v>32</v>
+      </c>
+      <c r="H1070" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1071" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1071" s="1"/>
-      <c r="C1071" s="1"/>
-      <c r="D1071" s="1"/>
-      <c r="E1071" s="1"/>
-      <c r="F1071" s="1"/>
-      <c r="G1071" s="1"/>
-      <c r="H1071" s="1"/>
+      <c r="A1071" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1071" s="2">
+        <v>9801844</v>
+      </c>
+      <c r="D1071" s="2">
+        <v>5581512</v>
+      </c>
+      <c r="E1071" s="5">
+        <v>45997.458333333336</v>
+      </c>
+      <c r="F1071" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1071" s="2">
+        <v>32</v>
+      </c>
+      <c r="H1071" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1072" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1072" s="1"/>
-      <c r="C1072" s="1"/>
-      <c r="D1072" s="1"/>
-      <c r="E1072" s="1"/>
-      <c r="F1072" s="1"/>
-      <c r="G1072" s="1"/>
-      <c r="H1072" s="1"/>
+      <c r="A1072" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1072" s="2">
+        <v>9816022</v>
+      </c>
+      <c r="D1072" s="2">
+        <v>7066013</v>
+      </c>
+      <c r="E1072" s="5">
+        <v>46009.458333333336</v>
+      </c>
+      <c r="F1072" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1072" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1072" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="1073" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1073" s="1"/>
-      <c r="C1073" s="1"/>
-      <c r="D1073" s="1"/>
-      <c r="E1073" s="1"/>
-      <c r="F1073" s="1"/>
-      <c r="G1073" s="1"/>
-      <c r="H1073" s="1"/>
+      <c r="A1073" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1073" s="2">
+        <v>9810217</v>
+      </c>
+      <c r="D1073" s="2">
+        <v>4173483</v>
+      </c>
+      <c r="E1073" s="5">
+        <v>46016.458333333336</v>
+      </c>
+      <c r="F1073" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1073" s="2">
+        <v>42</v>
+      </c>
+      <c r="H1073" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1074" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1074" s="1"/>
-      <c r="C1074" s="1"/>
-      <c r="D1074" s="1"/>
-      <c r="E1074" s="1"/>
-      <c r="F1074" s="1"/>
-      <c r="G1074" s="1"/>
-      <c r="H1074" s="1"/>
+      <c r="A1074" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1074" s="2">
+        <v>9822884</v>
+      </c>
+      <c r="D1074" s="2">
+        <v>7445238</v>
+      </c>
+      <c r="E1074" s="5">
+        <v>46007.458333333336</v>
+      </c>
+      <c r="F1074" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1074" s="2">
+        <v>42</v>
+      </c>
+      <c r="H1074" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="1075" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1075" s="1"/>
-      <c r="C1075" s="1"/>
-      <c r="D1075" s="1"/>
-      <c r="E1075" s="1"/>
-      <c r="F1075" s="1"/>
-      <c r="G1075" s="1"/>
-      <c r="H1075" s="1"/>
+      <c r="A1075" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1075" s="2">
+        <v>9836868</v>
+      </c>
+      <c r="D1075" s="2">
+        <v>7367606</v>
+      </c>
+      <c r="E1075" s="5">
+        <v>46014.458333333336</v>
+      </c>
+      <c r="F1075" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1075" s="2">
+        <v>53</v>
+      </c>
+      <c r="H1075" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1076" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1076" s="1"/>
-      <c r="C1076" s="1"/>
-      <c r="D1076" s="1"/>
-      <c r="E1076" s="1"/>
-      <c r="F1076" s="1"/>
-      <c r="G1076" s="1"/>
-      <c r="H1076" s="1"/>
+      <c r="A1076" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1076" s="2">
+        <v>9798207</v>
+      </c>
+      <c r="D1076" s="2">
+        <v>7377448</v>
+      </c>
+      <c r="E1076" s="5">
+        <v>45995.458333333336</v>
+      </c>
+      <c r="F1076" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1076" s="2">
+        <v>34</v>
+      </c>
+      <c r="H1076" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="1077" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1077" s="1"/>
-      <c r="C1077" s="1"/>
-      <c r="D1077" s="1"/>
-      <c r="E1077" s="1"/>
-      <c r="F1077" s="1"/>
-      <c r="G1077" s="1"/>
-      <c r="H1077" s="1"/>
+      <c r="A1077" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1077" s="2">
+        <v>9816488</v>
+      </c>
+      <c r="D1077" s="2">
+        <v>7417072</v>
+      </c>
+      <c r="E1077" s="5">
+        <v>46003.958333333336</v>
+      </c>
+      <c r="F1077" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1077" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1077" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1078" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1078" s="1"/>
-      <c r="C1078" s="1"/>
-      <c r="D1078" s="1"/>
-      <c r="E1078" s="1"/>
-      <c r="F1078" s="1"/>
-      <c r="G1078" s="1"/>
-      <c r="H1078" s="1"/>
+      <c r="A1078" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1078" s="2">
+        <v>9770121</v>
+      </c>
+      <c r="D1078" s="2">
+        <v>5798063</v>
+      </c>
+      <c r="E1078" s="5">
+        <v>46017.958333333336</v>
+      </c>
+      <c r="F1078" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1078" s="2">
+        <v>64</v>
+      </c>
+      <c r="H1078" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1079" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1079" s="1"/>
-      <c r="C1079" s="1"/>
-      <c r="D1079" s="1"/>
-      <c r="E1079" s="1"/>
-      <c r="F1079" s="1"/>
-      <c r="G1079" s="1"/>
-      <c r="H1079" s="1"/>
+      <c r="A1079" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1079" s="2">
+        <v>9770119</v>
+      </c>
+      <c r="D1079" s="2">
+        <v>5798063</v>
+      </c>
+      <c r="E1079" s="5">
+        <v>46012.958333333336</v>
+      </c>
+      <c r="F1079" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1079" s="2">
+        <v>64</v>
+      </c>
+      <c r="H1079" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="1080" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1080" s="1"/>
-      <c r="C1080" s="1"/>
-      <c r="D1080" s="1"/>
-      <c r="E1080" s="1"/>
-      <c r="F1080" s="1"/>
-      <c r="G1080" s="1"/>
-      <c r="H1080" s="1"/>
+      <c r="A1080" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1080" s="2">
+        <v>9823499</v>
+      </c>
+      <c r="D1080" s="2">
+        <v>5849860</v>
+      </c>
+      <c r="E1080" s="5">
+        <v>46007.458333333336</v>
+      </c>
+      <c r="F1080" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1080" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1080" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1081" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1081" s="1"/>
-      <c r="C1081" s="1"/>
-      <c r="D1081" s="1"/>
-      <c r="E1081" s="1"/>
-      <c r="F1081" s="1"/>
-      <c r="G1081" s="1"/>
-      <c r="H1081" s="1"/>
+      <c r="A1081" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1081" s="2">
+        <v>9848350</v>
+      </c>
+      <c r="D1081" s="2">
+        <v>7245189</v>
+      </c>
+      <c r="E1081" s="5">
+        <v>46021.458333333336</v>
+      </c>
+      <c r="F1081" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1081" s="2">
+        <v>33</v>
+      </c>
+      <c r="H1081" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1082" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1082" s="1"/>
-      <c r="C1082" s="1"/>
-      <c r="D1082" s="1"/>
-      <c r="E1082" s="1"/>
-      <c r="F1082" s="1"/>
-      <c r="G1082" s="1"/>
-      <c r="H1082" s="1"/>
+      <c r="A1082" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1082" s="2">
+        <v>9807875</v>
+      </c>
+      <c r="D1082" s="2">
+        <v>7398624</v>
+      </c>
+      <c r="E1082" s="5">
+        <v>46008.458333333336</v>
+      </c>
+      <c r="F1082" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1082" s="2">
+        <v>29</v>
+      </c>
+      <c r="H1082" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1083" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1083" s="1"/>
-      <c r="C1083" s="1"/>
-      <c r="D1083" s="1"/>
-      <c r="E1083" s="1"/>
-      <c r="F1083" s="1"/>
-      <c r="G1083" s="1"/>
-      <c r="H1083" s="1"/>
+      <c r="A1083" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1083" s="2">
+        <v>9811402</v>
+      </c>
+      <c r="D1083" s="2">
+        <v>6174841</v>
+      </c>
+      <c r="E1083" s="5">
+        <v>46001.958333333336</v>
+      </c>
+      <c r="F1083" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1083" s="2">
+        <v>24</v>
+      </c>
+      <c r="H1083" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="1084" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1084" s="1"/>
-      <c r="C1084" s="1"/>
-      <c r="D1084" s="1"/>
-      <c r="E1084" s="1"/>
-      <c r="F1084" s="1"/>
-      <c r="G1084" s="1"/>
-      <c r="H1084" s="1"/>
+      <c r="A1084" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1084" s="2">
+        <v>9847135</v>
+      </c>
+      <c r="D1084" s="2">
+        <v>7044033</v>
+      </c>
+      <c r="E1084" s="5">
+        <v>46021.458333333336</v>
+      </c>
+      <c r="F1084" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1084" s="2">
+        <v>32</v>
+      </c>
+      <c r="H1084" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1085" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1085" s="1"/>
-      <c r="C1085" s="1"/>
-      <c r="D1085" s="1"/>
-      <c r="E1085" s="1"/>
-      <c r="F1085" s="1"/>
-      <c r="G1085" s="1"/>
-      <c r="H1085" s="1"/>
+      <c r="A1085" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1085" s="2">
+        <v>9803893</v>
+      </c>
+      <c r="D1085" s="2">
+        <v>4157392</v>
+      </c>
+      <c r="E1085" s="5">
+        <v>46003.458333333336</v>
+      </c>
+      <c r="F1085" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1085" s="2">
+        <v>50</v>
+      </c>
+      <c r="H1085" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1086" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1086" s="1"/>
-      <c r="C1086" s="1"/>
-      <c r="D1086" s="1"/>
-      <c r="E1086" s="1"/>
-      <c r="F1086" s="1"/>
-      <c r="G1086" s="1"/>
-      <c r="H1086" s="1"/>
+      <c r="A1086" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1086" s="2">
+        <v>9849656</v>
+      </c>
+      <c r="D1086" s="2">
+        <v>7468044</v>
+      </c>
+      <c r="E1086" s="5">
+        <v>46022.458333333336</v>
+      </c>
+      <c r="F1086" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1086" s="2">
+        <v>59</v>
+      </c>
+      <c r="H1086" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1087" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1087" s="1"/>
-      <c r="C1087" s="1"/>
-      <c r="D1087" s="1"/>
-      <c r="E1087" s="1"/>
-      <c r="F1087" s="1"/>
-      <c r="G1087" s="1"/>
-      <c r="H1087" s="1"/>
+      <c r="A1087" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1087" s="2">
+        <v>9834388</v>
+      </c>
+      <c r="D1087" s="2">
+        <v>7468044</v>
+      </c>
+      <c r="E1087" s="5">
+        <v>46014.458333333336</v>
+      </c>
+      <c r="F1087" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1087" s="2">
+        <v>59</v>
+      </c>
+      <c r="H1087" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="1088" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1088" s="1"/>
-      <c r="C1088" s="1"/>
-      <c r="D1088" s="1"/>
-      <c r="E1088" s="1"/>
-      <c r="F1088" s="1"/>
-      <c r="G1088" s="1"/>
-      <c r="H1088" s="1"/>
+      <c r="A1088" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1088" s="2">
+        <v>9802725</v>
+      </c>
+      <c r="D1088" s="2">
+        <v>7386879</v>
+      </c>
+      <c r="E1088" s="5">
+        <v>45998.458333333336</v>
+      </c>
+      <c r="F1088" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1088" s="2">
+        <v>21</v>
+      </c>
+      <c r="H1088" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="1089" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1089" s="1"/>
-      <c r="C1089" s="1"/>
-      <c r="D1089" s="1"/>
-      <c r="E1089" s="1"/>
-      <c r="F1089" s="1"/>
-      <c r="G1089" s="1"/>
-      <c r="H1089" s="1"/>
+      <c r="A1089" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1089" s="2">
+        <v>9755688</v>
+      </c>
+      <c r="D1089" s="2">
+        <v>7235999</v>
+      </c>
+      <c r="E1089" s="5">
+        <v>46014.458333333336</v>
+      </c>
+      <c r="F1089" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1089" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1089" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1090" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1090" s="1"/>
-      <c r="C1090" s="1"/>
-      <c r="D1090" s="1"/>
-      <c r="E1090" s="1"/>
-      <c r="F1090" s="1"/>
-      <c r="G1090" s="1"/>
-      <c r="H1090" s="1"/>
+      <c r="A1090" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1090" s="2">
+        <v>9825171</v>
+      </c>
+      <c r="D1090" s="2">
+        <v>4225773</v>
+      </c>
+      <c r="E1090" s="5">
+        <v>46008.458333333336</v>
+      </c>
+      <c r="F1090" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1090" s="2">
+        <v>41</v>
+      </c>
+      <c r="H1090" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1091" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1091" s="1"/>
-      <c r="C1091" s="1"/>
-      <c r="D1091" s="1"/>
-      <c r="E1091" s="1"/>
-      <c r="F1091" s="1"/>
-      <c r="G1091" s="1"/>
-      <c r="H1091" s="1"/>
+      <c r="A1091" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1091" s="2">
+        <v>9736975</v>
+      </c>
+      <c r="D1091" s="2">
+        <v>7309067</v>
+      </c>
+      <c r="E1091" s="5">
+        <v>46000.958333333336</v>
+      </c>
+      <c r="F1091" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1091" s="2">
+        <v>41</v>
+      </c>
+      <c r="H1091" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="1092" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1092" s="1"/>
-      <c r="C1092" s="1"/>
-      <c r="D1092" s="1"/>
-      <c r="E1092" s="1"/>
-      <c r="F1092" s="1"/>
-      <c r="G1092" s="1"/>
-      <c r="H1092" s="1"/>
+      <c r="A1092" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1092" s="2">
+        <v>9805188</v>
+      </c>
+      <c r="D1092" s="2">
+        <v>7392674</v>
+      </c>
+      <c r="E1092" s="5">
+        <v>45998.458333333336</v>
+      </c>
+      <c r="F1092" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1092" s="2">
+        <v>31</v>
+      </c>
+      <c r="H1092" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="1093" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1093" s="1"/>
-      <c r="C1093" s="1"/>
-      <c r="D1093" s="1"/>
-      <c r="E1093" s="1"/>
-      <c r="F1093" s="1"/>
-      <c r="G1093" s="1"/>
-      <c r="H1093" s="1"/>
+      <c r="A1093" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1093" s="2">
+        <v>9808884</v>
+      </c>
+      <c r="D1093" s="2">
+        <v>7381708</v>
+      </c>
+      <c r="E1093" s="5">
+        <v>46000.458333333336</v>
+      </c>
+      <c r="F1093" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1093" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1093" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="1094" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1094" s="1"/>
-      <c r="C1094" s="1"/>
-      <c r="D1094" s="1"/>
-      <c r="E1094" s="1"/>
-      <c r="F1094" s="1"/>
-      <c r="G1094" s="1"/>
-      <c r="H1094" s="1"/>
+      <c r="A1094" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1094" s="2">
+        <v>9843950</v>
+      </c>
+      <c r="D1094" s="2">
+        <v>6921314</v>
+      </c>
+      <c r="E1094" s="5">
+        <v>46019.458333333336</v>
+      </c>
+      <c r="F1094" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1094" s="2">
+        <v>28</v>
+      </c>
+      <c r="H1094" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="1095" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1095" s="1"/>
-      <c r="C1095" s="1"/>
-      <c r="D1095" s="1"/>
-      <c r="E1095" s="1"/>
-      <c r="F1095" s="1"/>
-      <c r="G1095" s="1"/>
-      <c r="H1095" s="1"/>
+      <c r="A1095" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1095" s="2">
+        <v>9845526</v>
+      </c>
+      <c r="D1095" s="2">
+        <v>6146766</v>
+      </c>
+      <c r="E1095" s="5">
+        <v>46020.458333333336</v>
+      </c>
+      <c r="F1095" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1095" s="2">
+        <v>20</v>
+      </c>
+      <c r="H1095" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1096" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1096" s="1"/>
-      <c r="C1096" s="1"/>
-      <c r="D1096" s="1"/>
-      <c r="E1096" s="1"/>
-      <c r="F1096" s="1"/>
-      <c r="G1096" s="1"/>
-      <c r="H1096" s="1"/>
+      <c r="A1096" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1096" s="2">
+        <v>9806494</v>
+      </c>
+      <c r="D1096" s="2">
+        <v>7305000</v>
+      </c>
+      <c r="E1096" s="5">
+        <v>46002.958333333336</v>
+      </c>
+      <c r="F1096" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1096" s="2">
+        <v>62</v>
+      </c>
+      <c r="H1096" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1097" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1097" s="1"/>
-      <c r="C1097" s="1"/>
-      <c r="D1097" s="1"/>
-      <c r="E1097" s="1"/>
-      <c r="F1097" s="1"/>
-      <c r="G1097" s="1"/>
-      <c r="H1097" s="1"/>
+      <c r="A1097" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1097" s="2">
+        <v>9824513</v>
+      </c>
+      <c r="D1097" s="2">
+        <v>4740911</v>
+      </c>
+      <c r="E1097" s="5">
+        <v>46015.458333333336</v>
+      </c>
+      <c r="F1097" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1097" s="2">
+        <v>71</v>
+      </c>
+      <c r="H1097" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1098" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1098" s="1"/>
-      <c r="C1098" s="1"/>
-      <c r="D1098" s="1"/>
-      <c r="E1098" s="1"/>
-      <c r="F1098" s="1"/>
-      <c r="G1098" s="1"/>
-      <c r="H1098" s="1"/>
+      <c r="A1098" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1098" s="2">
+        <v>9830467</v>
+      </c>
+      <c r="D1098" s="2">
+        <v>7484896</v>
+      </c>
+      <c r="E1098" s="5">
+        <v>46010.958333333336</v>
+      </c>
+      <c r="F1098" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1098" s="2">
+        <v>52</v>
+      </c>
+      <c r="H1098" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="1099" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1099" s="1"/>
-      <c r="C1099" s="1"/>
-      <c r="D1099" s="1"/>
-      <c r="E1099" s="1"/>
-      <c r="F1099" s="1"/>
-      <c r="G1099" s="1"/>
-      <c r="H1099" s="1"/>
+      <c r="A1099" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1099" s="2">
+        <v>9826758</v>
+      </c>
+      <c r="D1099" s="2">
+        <v>4011817</v>
+      </c>
+      <c r="E1099" s="5">
+        <v>46008.958333333336</v>
+      </c>
+      <c r="F1099" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1099" s="2">
+        <v>40</v>
+      </c>
+      <c r="H1099" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1100" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1100" s="1"/>
-      <c r="C1100" s="1"/>
-      <c r="D1100" s="1"/>
-      <c r="E1100" s="1"/>
-      <c r="F1100" s="1"/>
-      <c r="G1100" s="1"/>
-      <c r="H1100" s="1"/>
+      <c r="A1100" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1100" s="2">
+        <v>9828239</v>
+      </c>
+      <c r="D1100" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E1100" s="5">
+        <v>46014.958333333336</v>
+      </c>
+      <c r="F1100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1100" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1100" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1101" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1101" s="1"/>
-      <c r="C1101" s="1"/>
-      <c r="D1101" s="1"/>
-      <c r="E1101" s="1"/>
-      <c r="F1101" s="1"/>
-      <c r="G1101" s="1"/>
-      <c r="H1101" s="1"/>
+      <c r="A1101" s="2">
+        <v>1087872</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1101" s="2">
+        <v>9826695</v>
+      </c>
+      <c r="D1101" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E1101" s="5">
+        <v>46009.458333333336</v>
+      </c>
+      <c r="F1101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1101" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1101" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1102" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1102" s="1"/>
-      <c r="C1102" s="1"/>
-      <c r="D1102" s="1"/>
-      <c r="E1102" s="1"/>
-      <c r="F1102" s="1"/>
-      <c r="G1102" s="1"/>
-      <c r="H1102" s="1"/>
+      <c r="A1102" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1102" s="2">
+        <v>9847863</v>
+      </c>
+      <c r="D1102" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E1102" s="5">
+        <v>46022.458333333336</v>
+      </c>
+      <c r="F1102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1102" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1102" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1103" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1103" s="1"/>
-      <c r="C1103" s="1"/>
-      <c r="D1103" s="1"/>
-      <c r="E1103" s="1"/>
-      <c r="F1103" s="1"/>
-      <c r="G1103" s="1"/>
-      <c r="H1103" s="1"/>
+      <c r="A1103" s="2">
+        <v>978878</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1103" s="2">
+        <v>9830493</v>
+      </c>
+      <c r="D1103" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E1103" s="5">
+        <v>46010.958333333336</v>
+      </c>
+      <c r="F1103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1103" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1103" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1104" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1104" s="1"/>
-      <c r="C1104" s="1"/>
-      <c r="D1104" s="1"/>
-      <c r="E1104" s="1"/>
-      <c r="F1104" s="1"/>
-      <c r="G1104" s="1"/>
-      <c r="H1104" s="1"/>
+      <c r="A1104" s="2">
+        <v>1167413</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1104" s="2">
+        <v>9830967</v>
+      </c>
+      <c r="D1104" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E1104" s="5">
+        <v>46010.958333333336</v>
+      </c>
+      <c r="F1104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1104" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1104" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1105" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1105" s="1"/>
-      <c r="C1105" s="1"/>
-      <c r="D1105" s="1"/>
-      <c r="E1105" s="1"/>
-      <c r="F1105" s="1"/>
-      <c r="G1105" s="1"/>
-      <c r="H1105" s="1"/>
+      <c r="A1105" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1105" s="2">
+        <v>9844346</v>
+      </c>
+      <c r="D1105" s="2">
+        <v>6504924</v>
+      </c>
+      <c r="E1105" s="5">
+        <v>46020.458333333336</v>
+      </c>
+      <c r="F1105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1105" s="2">
+        <v>27</v>
+      </c>
+      <c r="H1105" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1106" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1106" s="1"/>
-      <c r="C1106" s="1"/>
-      <c r="D1106" s="1"/>
-      <c r="E1106" s="1"/>
-      <c r="F1106" s="1"/>
-      <c r="G1106" s="1"/>
-      <c r="H1106" s="1"/>
+      <c r="A1106" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1106" s="2">
+        <v>9831204</v>
+      </c>
+      <c r="D1106" s="2">
+        <v>5612771</v>
+      </c>
+      <c r="E1106" s="5">
+        <v>46011.458333333336</v>
+      </c>
+      <c r="F1106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1106" s="2">
+        <v>51</v>
+      </c>
+      <c r="H1106" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="1107" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1107" s="1"/>
-      <c r="C1107" s="1"/>
-      <c r="D1107" s="1"/>
-      <c r="E1107" s="1"/>
-      <c r="F1107" s="1"/>
-      <c r="G1107" s="1"/>
-      <c r="H1107" s="1"/>
+      <c r="A1107" s="2">
+        <v>1426642</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1107" s="2">
+        <v>9791972</v>
+      </c>
+      <c r="D1107" s="2">
+        <v>6614204</v>
+      </c>
+      <c r="E1107" s="5">
+        <v>45992.458333333336</v>
+      </c>
+      <c r="F1107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1107" s="2">
+        <v>48</v>
+      </c>
+      <c r="H1107" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="1108" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1108" s="1"/>
-      <c r="C1108" s="1"/>
-      <c r="D1108" s="1"/>
-      <c r="E1108" s="1"/>
-      <c r="F1108" s="1"/>
-      <c r="G1108" s="1"/>
-      <c r="H1108" s="1"/>
+      <c r="A1108" s="2">
+        <v>1309115</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1108" s="2">
+        <v>9832557</v>
+      </c>
+      <c r="D1108" s="2">
+        <v>4140323</v>
+      </c>
+      <c r="E1108" s="5">
+        <v>46016.458333333336</v>
+      </c>
+      <c r="F1108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1108" s="2">
+        <v>45</v>
+      </c>
+      <c r="H1108" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="1109" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1109" s="1"/>
-      <c r="C1109" s="1"/>
-      <c r="D1109" s="1"/>
-      <c r="E1109" s="1"/>
-      <c r="F1109" s="1"/>
-      <c r="G1109" s="1"/>
-      <c r="H1109" s="1"/>
+      <c r="A1109" s="2">
+        <v>1346628</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1109" s="2">
+        <v>9802135</v>
+      </c>
+      <c r="D1109" s="2">
+        <v>7385761</v>
+      </c>
+      <c r="E1109" s="5">
+        <v>45997.458333333336</v>
+      </c>
+      <c r="F1109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1109" s="2">
+        <v>45</v>
+      </c>
+      <c r="H1109" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1110" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1110" s="1"/>
-      <c r="C1110" s="1"/>
-      <c r="D1110" s="1"/>
-      <c r="E1110" s="1"/>
-      <c r="F1110" s="1"/>
-      <c r="G1110" s="1"/>
-      <c r="H1110" s="1"/>
+      <c r="A1110" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1110" s="2">
+        <v>9798924</v>
+      </c>
+      <c r="D1110" s="2">
+        <v>7378467</v>
+      </c>
+      <c r="E1110" s="5">
+        <v>45995.958333333336</v>
+      </c>
+      <c r="F1110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1110" s="2">
+        <v>52</v>
+      </c>
+      <c r="H1110" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="1111" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1111" s="1"/>
-      <c r="C1111" s="1"/>
-      <c r="D1111" s="1"/>
-      <c r="E1111" s="1"/>
-      <c r="F1111" s="1"/>
-      <c r="G1111" s="1"/>
-      <c r="H1111" s="1"/>
+      <c r="A1111" s="2">
+        <v>1425560</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1111" s="2">
+        <v>9792307</v>
+      </c>
+      <c r="D1111" s="2">
+        <v>6364177</v>
+      </c>
+      <c r="E1111" s="5">
+        <v>45992.958333333336</v>
+      </c>
+      <c r="F1111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1111" s="2">
+        <v>30</v>
+      </c>
+      <c r="H1111" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1112" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1112" s="1"/>
@@ -32231,15 +33006,6 @@
       <c r="G1458" s="1"/>
       <c r="H1458" s="1"/>
     </row>
-    <row r="1459" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A1459" s="1"/>
-      <c r="C1459" s="1"/>
-      <c r="D1459" s="1"/>
-      <c r="E1459" s="1"/>
-      <c r="F1459" s="1"/>
-      <c r="G1459" s="1"/>
-      <c r="H1459" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
+++ b/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/Getaround_leiebil_Tønsberg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/rasmus_palmqvist_vestfoldfylke_no/Documents/Dokumenter/GitHub/Ny mappe/Vestfold/05_Mobilitet og infrastruktur/Persontransport og reisevaner/Mobilitetsdashboard/Brukes2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D986ABB1-2B75-41F7-8BF2-75F05E73260A}"/>
+  <xr:revisionPtr revIDLastSave="103" documentId="8_{F132765D-1CC0-402A-ADE3-0F577BB775AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04E6BE70-4CDC-4824-B838-8BC487BF794D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B856B024-48C7-4BFF-B5E4-3C408E652A68}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3298" uniqueCount="168">
   <si>
     <t>CAR_ID</t>
   </si>
@@ -518,9 +518,6 @@
     <t>Vesr</t>
   </si>
   <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
     <t>undrumsdal</t>
   </si>
   <si>
@@ -967,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA55DC7-B8AA-4BA7-B767-B74C300660C5}">
   <dimension ref="A1:J1458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1038" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1083" sqref="C1083"/>
+    <sheetView tabSelected="1" topLeftCell="A1083" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1091" sqref="F1091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28970,7 +28967,7 @@
         <v>34</v>
       </c>
       <c r="H1076" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1077" spans="1:8" ht="15.75" thickBot="1">
@@ -29022,7 +29019,7 @@
         <v>64</v>
       </c>
       <c r="H1078" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1079" spans="1:8" ht="15.75" thickBot="1">
@@ -29048,7 +29045,7 @@
         <v>64</v>
       </c>
       <c r="H1079" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1080" spans="1:8" ht="15.75" thickBot="1">
@@ -29152,7 +29149,7 @@
         <v>24</v>
       </c>
       <c r="H1083" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1084" spans="1:8" ht="15.75" thickBot="1">
@@ -29282,7 +29279,7 @@
         <v>21</v>
       </c>
       <c r="H1088" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1089" spans="1:8" ht="15.75" thickBot="1">
@@ -29420,7 +29417,7 @@
         <v>1426642</v>
       </c>
       <c r="B1094" s="1" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="C1094" s="2">
         <v>9843950</v>
@@ -29438,7 +29435,7 @@
         <v>28</v>
       </c>
       <c r="H1094" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1095" spans="1:8" ht="15.75" thickBot="1">
@@ -29542,7 +29539,7 @@
         <v>52</v>
       </c>
       <c r="H1098" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1099" spans="1:8" ht="15.75" thickBot="1">
@@ -29750,7 +29747,7 @@
         <v>51</v>
       </c>
       <c r="H1106" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1107" spans="1:8" ht="15.75" thickBot="1">
@@ -29854,7 +29851,7 @@
         <v>52</v>
       </c>
       <c r="H1110" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1111" spans="1:8" ht="15.75" thickBot="1">
